--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_141A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12594" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CEFA32B-4633-4B57-A5E7-076012D80799}"/>
+  <xr:revisionPtr revIDLastSave="12812" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A3E8CEB-EBBE-4CEE-BFB1-F92322FB4C81}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="461" firstSheet="2" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="461" firstSheet="10" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -18,27 +18,27 @@
     <sheet name="STA" sheetId="197" r:id="rId3"/>
     <sheet name="ASK" sheetId="207" r:id="rId4"/>
     <sheet name="ASP" sheetId="181" r:id="rId5"/>
-    <sheet name="BANPU" sheetId="202" r:id="rId6"/>
-    <sheet name="BCH" sheetId="150" r:id="rId7"/>
-    <sheet name="POM" sheetId="208" r:id="rId8"/>
-    <sheet name="CPNREIT" sheetId="194" r:id="rId9"/>
-    <sheet name="DIF" sheetId="57" r:id="rId10"/>
-    <sheet name="EA" sheetId="210" r:id="rId11"/>
-    <sheet name="GVREIT" sheetId="195" r:id="rId12"/>
-    <sheet name="IVL" sheetId="196" r:id="rId13"/>
-    <sheet name="JASIF" sheetId="46" r:id="rId14"/>
-    <sheet name="JMART" sheetId="204" r:id="rId15"/>
-    <sheet name="JMT" sheetId="205" r:id="rId16"/>
-    <sheet name="KTC" sheetId="211" r:id="rId17"/>
-    <sheet name="MCS" sheetId="20" r:id="rId18"/>
-    <sheet name="NER" sheetId="117" r:id="rId19"/>
-    <sheet name="ORI" sheetId="184" r:id="rId20"/>
-    <sheet name="RCL" sheetId="161" r:id="rId21"/>
-    <sheet name="SCC" sheetId="152" r:id="rId22"/>
-    <sheet name="SENA" sheetId="183" r:id="rId23"/>
-    <sheet name="SINGER" sheetId="203" r:id="rId24"/>
-    <sheet name="SYNEX" sheetId="199" r:id="rId25"/>
-    <sheet name="TFFIF" sheetId="209" r:id="rId26"/>
+    <sheet name="AWC" sheetId="212" r:id="rId6"/>
+    <sheet name="BANPU" sheetId="202" r:id="rId7"/>
+    <sheet name="BCH" sheetId="150" r:id="rId8"/>
+    <sheet name="POM" sheetId="208" r:id="rId9"/>
+    <sheet name="CPNREIT" sheetId="194" r:id="rId10"/>
+    <sheet name="DIF" sheetId="57" r:id="rId11"/>
+    <sheet name="EA" sheetId="210" r:id="rId12"/>
+    <sheet name="GVREIT" sheetId="195" r:id="rId13"/>
+    <sheet name="IVL" sheetId="196" r:id="rId14"/>
+    <sheet name="JASIF" sheetId="46" r:id="rId15"/>
+    <sheet name="JMART" sheetId="204" r:id="rId16"/>
+    <sheet name="JMT" sheetId="205" r:id="rId17"/>
+    <sheet name="KTC" sheetId="211" r:id="rId18"/>
+    <sheet name="MCS" sheetId="20" r:id="rId19"/>
+    <sheet name="NER" sheetId="117" r:id="rId20"/>
+    <sheet name="ORI" sheetId="184" r:id="rId21"/>
+    <sheet name="RCL" sheetId="161" r:id="rId22"/>
+    <sheet name="SCC" sheetId="152" r:id="rId23"/>
+    <sheet name="SENA" sheetId="183" r:id="rId24"/>
+    <sheet name="SINGER" sheetId="203" r:id="rId25"/>
+    <sheet name="SYNEX" sheetId="199" r:id="rId26"/>
     <sheet name="TMT" sheetId="145" r:id="rId27"/>
     <sheet name="WHAIR" sheetId="157" r:id="rId28"/>
     <sheet name="WHART" sheetId="171" r:id="rId29"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="36">
   <si>
     <t>KCE</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>ASP</t>
+  </si>
+  <si>
+    <t>AWC</t>
   </si>
   <si>
     <t>BANPU</t>
@@ -159,9 +162,6 @@
     <t>SYNEX</t>
   </si>
   <si>
-    <t>TFFIF</t>
-  </si>
-  <si>
     <t>TMT</t>
   </si>
   <si>
@@ -175,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="188" formatCode="\฿#,##0.00"/>
     <numFmt numFmtId="189" formatCode="[$฿-41E]#,##0.00"/>
@@ -184,7 +184,6 @@
     <numFmt numFmtId="192" formatCode="0.0000"/>
     <numFmt numFmtId="193" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="194" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="195" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -339,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -445,8 +444,7 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="195" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2633,11 +2631,915 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB529E6-7221-4171-9EDF-80891E84F736}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="16.5">
+      <c r="A2" s="49">
+        <v>44789</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="41">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E2" s="18">
+        <f>C2*D2</f>
+        <v>97000</v>
+      </c>
+      <c r="F2" s="18">
+        <f>E2*0.002</f>
+        <v>194</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2*0.00006</f>
+        <v>5.82</v>
+      </c>
+      <c r="H2" s="18">
+        <f>E2*0.00001</f>
+        <v>0.97000000000000008</v>
+      </c>
+      <c r="I2" s="18">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>14.055300000000001</v>
+      </c>
+      <c r="J2" s="18">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>97214.845300000015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="77" customFormat="1">
+      <c r="A3" s="81">
+        <v>44818</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="83">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="84">
+        <v>19</v>
+      </c>
+      <c r="E3" s="85">
+        <f>C3*D3</f>
+        <v>95000</v>
+      </c>
+      <c r="F3" s="85">
+        <f>E3*0.002</f>
+        <v>190</v>
+      </c>
+      <c r="G3" s="85">
+        <f>E3*0.000068</f>
+        <v>6.46</v>
+      </c>
+      <c r="H3" s="85">
+        <f>E3*0.00001</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="I3" s="85">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>13.818700000000002</v>
+      </c>
+      <c r="J3" s="85">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>95211.228700000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="77" customFormat="1">
+      <c r="A4" s="81"/>
+      <c r="B4" s="86">
+        <f>(D3-D2)/D2</f>
+        <v>-2.0618556701030855E-2</v>
+      </c>
+      <c r="C4" s="83">
+        <f>SUM(C2:C3)</f>
+        <v>10000</v>
+      </c>
+      <c r="D4" s="84">
+        <f>E4/C4</f>
+        <v>19.2</v>
+      </c>
+      <c r="E4" s="83">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>192000</v>
+      </c>
+      <c r="F4" s="83">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="G4" s="83">
+        <f t="shared" si="0"/>
+        <v>12.280000000000001</v>
+      </c>
+      <c r="H4" s="83">
+        <f t="shared" si="0"/>
+        <v>1.9200000000000002</v>
+      </c>
+      <c r="I4" s="83">
+        <f t="shared" si="0"/>
+        <v>27.874000000000002</v>
+      </c>
+      <c r="J4" s="83">
+        <f t="shared" si="0"/>
+        <v>192426.07400000002</v>
+      </c>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:14" s="77" customFormat="1">
+      <c r="A5" s="81">
+        <v>44880</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="83">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="84">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E5" s="85">
+        <f>C5*D5</f>
+        <v>186000</v>
+      </c>
+      <c r="F5" s="85">
+        <f>E5*0.002</f>
+        <v>372</v>
+      </c>
+      <c r="G5" s="85">
+        <f>E5*0.000068</f>
+        <v>12.648</v>
+      </c>
+      <c r="H5" s="85">
+        <f>E5*0.00001</f>
+        <v>1.86</v>
+      </c>
+      <c r="I5" s="85">
+        <f>(F5+G5+H5)*0.07</f>
+        <v>27.055560000000007</v>
+      </c>
+      <c r="J5" s="85">
+        <f>E5+F5+I5+G5+H5</f>
+        <v>186413.56355999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="77" customFormat="1">
+      <c r="A6" s="81"/>
+      <c r="B6" s="86">
+        <f>(D5-D4)/D4</f>
+        <v>-3.1249999999999889E-2</v>
+      </c>
+      <c r="C6" s="83">
+        <f>SUM(C4:C5)</f>
+        <v>20000</v>
+      </c>
+      <c r="D6" s="84">
+        <f>E6/C6</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E6" s="83">
+        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
+        <v>378000</v>
+      </c>
+      <c r="F6" s="83">
+        <f t="shared" si="1"/>
+        <v>756</v>
+      </c>
+      <c r="G6" s="83">
+        <f t="shared" si="1"/>
+        <v>24.928000000000001</v>
+      </c>
+      <c r="H6" s="83">
+        <f t="shared" si="1"/>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="I6" s="83">
+        <f t="shared" si="1"/>
+        <v>54.929560000000009</v>
+      </c>
+      <c r="J6" s="83">
+        <f t="shared" si="1"/>
+        <v>378839.63756</v>
+      </c>
+      <c r="K6" s="80"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="81">
+        <v>44950</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="83">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="84">
+        <v>19.5</v>
+      </c>
+      <c r="E7" s="85">
+        <f>C7*D7</f>
+        <v>195000</v>
+      </c>
+      <c r="F7" s="85">
+        <f>E7*0.002</f>
+        <v>390</v>
+      </c>
+      <c r="G7" s="85">
+        <f>E7*0.000068</f>
+        <v>13.26</v>
+      </c>
+      <c r="H7" s="85">
+        <f>E7*0.00001</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="I7" s="85">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>28.364700000000003</v>
+      </c>
+      <c r="J7" s="85">
+        <f>E7+F7+I7+G7+H7</f>
+        <v>195433.57470000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="62" customFormat="1" ht="21.75">
+      <c r="A8" s="81"/>
+      <c r="B8" s="86">
+        <f>(D7-D6)/D6</f>
+        <v>3.1746031746031821E-2</v>
+      </c>
+      <c r="C8" s="83">
+        <f>SUM(C6:C7)</f>
+        <v>30000</v>
+      </c>
+      <c r="D8" s="84">
+        <f>E8/C8</f>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E8" s="83">
+        <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
+        <v>573000</v>
+      </c>
+      <c r="F8" s="83">
+        <f t="shared" si="2"/>
+        <v>1146</v>
+      </c>
+      <c r="G8" s="83">
+        <f t="shared" si="2"/>
+        <v>38.188000000000002</v>
+      </c>
+      <c r="H8" s="83">
+        <f t="shared" si="2"/>
+        <v>5.73</v>
+      </c>
+      <c r="I8" s="83">
+        <f t="shared" si="2"/>
+        <v>83.294260000000008</v>
+      </c>
+      <c r="J8" s="83">
+        <f t="shared" si="2"/>
+        <v>574273.21226000006</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="81">
+        <v>44964</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="83">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="84">
+        <v>18.3</v>
+      </c>
+      <c r="E9" s="85">
+        <f>C9*D9</f>
+        <v>183000</v>
+      </c>
+      <c r="F9" s="85">
+        <f>E9*0.002</f>
+        <v>366</v>
+      </c>
+      <c r="G9" s="85">
+        <f>E9*0.000068</f>
+        <v>12.443999999999999</v>
+      </c>
+      <c r="H9" s="85">
+        <f>E9*0.00001</f>
+        <v>1.83</v>
+      </c>
+      <c r="I9" s="85">
+        <f>(F9+G9+H9)*0.07</f>
+        <v>26.619180000000004</v>
+      </c>
+      <c r="J9" s="85">
+        <f>E9+F9+I9+G9+H9</f>
+        <v>183406.89317999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="81"/>
+      <c r="B10" s="86">
+        <f>(D9-D8)/D8</f>
+        <v>-4.1884816753926739E-2</v>
+      </c>
+      <c r="C10" s="83">
+        <f>SUM(C8:C9)</f>
+        <v>40000</v>
+      </c>
+      <c r="D10" s="84">
+        <f>E10/C10</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E10" s="83">
+        <f t="shared" ref="E10:J10" si="3">SUM(E8:E9)</f>
+        <v>756000</v>
+      </c>
+      <c r="F10" s="83">
+        <f t="shared" si="3"/>
+        <v>1512</v>
+      </c>
+      <c r="G10" s="83">
+        <f t="shared" si="3"/>
+        <v>50.632000000000005</v>
+      </c>
+      <c r="H10" s="83">
+        <f t="shared" si="3"/>
+        <v>7.5600000000000005</v>
+      </c>
+      <c r="I10" s="83">
+        <f t="shared" si="3"/>
+        <v>109.91344000000001</v>
+      </c>
+      <c r="J10" s="83">
+        <f t="shared" si="3"/>
+        <v>757680.10544000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75">
+      <c r="A11" s="81">
+        <v>44986</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="83">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="84">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E11" s="85">
+        <f>C11*D11</f>
+        <v>164000</v>
+      </c>
+      <c r="F11" s="85">
+        <f>E11*0.002</f>
+        <v>328</v>
+      </c>
+      <c r="G11" s="85">
+        <f>E11*0.000068</f>
+        <v>11.151999999999999</v>
+      </c>
+      <c r="H11" s="85">
+        <f>E11*0.00001</f>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="I11" s="85">
+        <f>(F11+G11+H11)*0.07</f>
+        <v>23.855440000000002</v>
+      </c>
+      <c r="J11" s="85">
+        <f>E11+F11+I11+G11+H11</f>
+        <v>164364.64744000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75">
+      <c r="A12" s="81"/>
+      <c r="B12" s="86">
+        <f>(D11-D10)/D10</f>
+        <v>-0.1322751322751323</v>
+      </c>
+      <c r="C12" s="83">
+        <f>SUM(C10:C11)</f>
+        <v>50000</v>
+      </c>
+      <c r="D12" s="84">
+        <f>E12/C12</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E12" s="83">
+        <f t="shared" ref="E12:J12" si="4">SUM(E10:E11)</f>
+        <v>920000</v>
+      </c>
+      <c r="F12" s="83">
+        <f t="shared" si="4"/>
+        <v>1840</v>
+      </c>
+      <c r="G12" s="83">
+        <f t="shared" si="4"/>
+        <v>61.784000000000006</v>
+      </c>
+      <c r="H12" s="83">
+        <f t="shared" si="4"/>
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="I12" s="83">
+        <f t="shared" si="4"/>
+        <v>133.76888000000002</v>
+      </c>
+      <c r="J12" s="83">
+        <f t="shared" si="4"/>
+        <v>922044.75288000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75">
+      <c r="A13" s="81">
+        <v>44994</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="83">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="84">
+        <v>14</v>
+      </c>
+      <c r="E13" s="85">
+        <f>C13*D13</f>
+        <v>70000</v>
+      </c>
+      <c r="F13" s="85">
+        <f>E13*0.002</f>
+        <v>140</v>
+      </c>
+      <c r="G13" s="85">
+        <f>E13*0.000068</f>
+        <v>4.76</v>
+      </c>
+      <c r="H13" s="85">
+        <f>E13*0.00001</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="I13" s="85">
+        <f>(F13+G13+H13)*0.07</f>
+        <v>10.1822</v>
+      </c>
+      <c r="J13" s="85">
+        <f>E13+F13+I13+G13+H13</f>
+        <v>70155.642199999987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.75">
+      <c r="A14" s="81"/>
+      <c r="B14" s="86">
+        <f>(D13-D12)/D12</f>
+        <v>-0.23913043478260865</v>
+      </c>
+      <c r="C14" s="83">
+        <f>SUM(C12:C13)</f>
+        <v>55000</v>
+      </c>
+      <c r="D14" s="84">
+        <f>E14/C14</f>
+        <v>18</v>
+      </c>
+      <c r="E14" s="83">
+        <f t="shared" ref="E14:J14" si="5">SUM(E12:E13)</f>
+        <v>990000</v>
+      </c>
+      <c r="F14" s="83">
+        <f t="shared" si="5"/>
+        <v>1980</v>
+      </c>
+      <c r="G14" s="83">
+        <f t="shared" si="5"/>
+        <v>66.544000000000011</v>
+      </c>
+      <c r="H14" s="83">
+        <f t="shared" si="5"/>
+        <v>9.9</v>
+      </c>
+      <c r="I14" s="83">
+        <f t="shared" si="5"/>
+        <v>143.95108000000002</v>
+      </c>
+      <c r="J14" s="83">
+        <f t="shared" si="5"/>
+        <v>992200.39508000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75">
+      <c r="A15" s="81">
+        <v>44998</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="83">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="84">
+        <v>12.6</v>
+      </c>
+      <c r="E15" s="85">
+        <f>C15*D15</f>
+        <v>63000</v>
+      </c>
+      <c r="F15" s="85">
+        <f>E15*0.002</f>
+        <v>126</v>
+      </c>
+      <c r="G15" s="85">
+        <f>E15*0.000068</f>
+        <v>4.2839999999999998</v>
+      </c>
+      <c r="H15" s="85">
+        <f>E15*0.00001</f>
+        <v>0.63</v>
+      </c>
+      <c r="I15" s="85">
+        <f>(F15+G15+H15)*0.07</f>
+        <v>9.1639800000000005</v>
+      </c>
+      <c r="J15" s="85">
+        <f>E15+F15+I15+G15+H15</f>
+        <v>63140.077979999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12.75">
+      <c r="A16" s="81"/>
+      <c r="B16" s="86">
+        <f>(D15-D14)/D14</f>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="C16" s="83">
+        <f>SUM(C14:C15)</f>
+        <v>60000</v>
+      </c>
+      <c r="D16" s="84">
+        <f>E16/C16</f>
+        <v>17.55</v>
+      </c>
+      <c r="E16" s="83">
+        <f t="shared" ref="E16:J16" si="6">SUM(E14:E15)</f>
+        <v>1053000</v>
+      </c>
+      <c r="F16" s="83">
+        <f t="shared" si="6"/>
+        <v>2106</v>
+      </c>
+      <c r="G16" s="83">
+        <f t="shared" si="6"/>
+        <v>70.828000000000017</v>
+      </c>
+      <c r="H16" s="83">
+        <f t="shared" si="6"/>
+        <v>10.530000000000001</v>
+      </c>
+      <c r="I16" s="83">
+        <f t="shared" si="6"/>
+        <v>153.11506000000003</v>
+      </c>
+      <c r="J16" s="83">
+        <f t="shared" si="6"/>
+        <v>1055340.47306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="12.75">
+      <c r="A17" s="81">
+        <v>45097</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="83">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="84">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E17" s="85">
+        <f>C17*D17</f>
+        <v>30599.999999999996</v>
+      </c>
+      <c r="F17" s="85">
+        <f>E17*0.002</f>
+        <v>61.199999999999996</v>
+      </c>
+      <c r="G17" s="85">
+        <f>E17*0.000068</f>
+        <v>2.0807999999999995</v>
+      </c>
+      <c r="H17" s="85">
+        <f>E17*0.00001</f>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="I17" s="85">
+        <f>(F17+G17+H17)*0.07</f>
+        <v>4.4510759999999996</v>
+      </c>
+      <c r="J17" s="85">
+        <f>E17+F17+I17+G17+H17</f>
+        <v>30668.037875999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="13" customFormat="1">
+      <c r="A18" s="14">
+        <v>45100</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="16">
+        <f>C17</f>
+        <v>3000</v>
+      </c>
+      <c r="D18" s="26">
+        <v>10.7</v>
+      </c>
+      <c r="E18" s="17">
+        <f>C18*D18</f>
+        <v>32099.999999999996</v>
+      </c>
+      <c r="F18" s="27">
+        <f>E18*0.002</f>
+        <v>64.199999999999989</v>
+      </c>
+      <c r="G18" s="26">
+        <f>E18*0.000068</f>
+        <v>2.1827999999999999</v>
+      </c>
+      <c r="H18" s="26">
+        <f>E18*0.00001</f>
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I18" s="26">
+        <f>(F18+G18+H18)*0.07</f>
+        <v>4.6692659999999995</v>
+      </c>
+      <c r="J18" s="26">
+        <f>E18-F18-G18-H18-I18</f>
+        <v>32028.626933999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="31" customFormat="1" ht="18.75">
+      <c r="A19" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18">
+        <f>E18-E17</f>
+        <v>1500</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <f>J18-J17</f>
+        <v>1360.5890579999977</v>
+      </c>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" s="31" customFormat="1" ht="18.75">
+      <c r="A20" s="14">
+        <v>45100</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="16">
+        <v>60000</v>
+      </c>
+      <c r="D20" s="17">
+        <v>17.55</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1053000</v>
+      </c>
+      <c r="F20" s="18">
+        <v>2106</v>
+      </c>
+      <c r="G20" s="18">
+        <v>70.828000000000017</v>
+      </c>
+      <c r="H20" s="18">
+        <v>10.530000000000001</v>
+      </c>
+      <c r="I20" s="18">
+        <v>153.11506000000003</v>
+      </c>
+      <c r="J20" s="18">
+        <v>1055340.47306</v>
+      </c>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" s="21" customFormat="1" ht="12.75">
+      <c r="A21" s="8">
+        <v>44260</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="78">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="79">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E21" s="92">
+        <f>C21*D21</f>
+        <v>30599.999999999996</v>
+      </c>
+      <c r="F21" s="92">
+        <f>E21*0.002</f>
+        <v>61.199999999999996</v>
+      </c>
+      <c r="G21" s="92">
+        <f>E21*0.000068</f>
+        <v>2.0807999999999995</v>
+      </c>
+      <c r="H21" s="92">
+        <f>E21*0.00001</f>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="I21" s="92">
+        <f>(F21+G21+H21)*0.07</f>
+        <v>4.4510759999999996</v>
+      </c>
+      <c r="J21" s="92">
+        <f>E21+F21+I21+G21+H21</f>
+        <v>30668.037875999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="21" customFormat="1" ht="12.75">
+      <c r="A22" s="44"/>
+      <c r="B22" s="80">
+        <f>(D21-D20)/D20</f>
+        <v>-0.41880341880341887</v>
+      </c>
+      <c r="C22" s="22">
+        <f>SUM(C20:C21)</f>
+        <v>63000</v>
+      </c>
+      <c r="D22" s="33">
+        <f>E22/C22</f>
+        <v>17.2</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" ref="E22:J22" si="7">SUM(E20:E21)</f>
+        <v>1083600</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="7"/>
+        <v>2167.1999999999998</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="7"/>
+        <v>72.908800000000014</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="7"/>
+        <v>10.836</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="7"/>
+        <v>157.56613600000003</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="7"/>
+        <v>1086008.5109359999</v>
+      </c>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" s="21" customFormat="1" ht="12.75">
+      <c r="A23" s="44"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" ht="12.75">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+    </row>
+    <row r="25" spans="1:11" ht="12.75">
+      <c r="A25" s="76"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.75">
+      <c r="A29" s="81">
+        <v>45021</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="83">
+        <v>24000</v>
+      </c>
+      <c r="D29" s="84">
+        <v>12.95</v>
+      </c>
+      <c r="E29" s="85">
+        <f>C29*D29</f>
+        <v>310800</v>
+      </c>
+      <c r="F29" s="85">
+        <f>E29*0.002</f>
+        <v>621.6</v>
+      </c>
+      <c r="G29" s="85">
+        <f>E29*0.000068</f>
+        <v>21.134399999999999</v>
+      </c>
+      <c r="H29" s="85">
+        <f>E29*0.00001</f>
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="I29" s="85">
+        <f>(F29+G29+H29)*0.07</f>
+        <v>45.208968000000006</v>
+      </c>
+      <c r="J29" s="85">
+        <f>E29+F29+I29+G29+H29</f>
+        <v>311491.05136799999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="12"/>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD48"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2657,7 +3559,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="19" customFormat="1" ht="16.5">
@@ -3103,7 +4005,7 @@
         <v>43600</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="16">
         <v>40000</v>
@@ -4175,217 +5077,357 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" s="21" customFormat="1" ht="12.75">
-      <c r="A43" s="8">
-        <v>44260</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="10">
+      <c r="A43" s="14">
+        <v>45100</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="41">
+        <v>10.6</v>
+      </c>
+      <c r="E43" s="18">
+        <f>C43*D43</f>
+        <v>21200</v>
+      </c>
+      <c r="F43" s="18">
+        <f>E43*0.002</f>
+        <v>42.4</v>
+      </c>
+      <c r="G43" s="18">
+        <f>E43*0.000068</f>
+        <v>1.4416</v>
+      </c>
+      <c r="H43" s="18">
+        <f>E43*0.00001</f>
+        <v>0.21200000000000002</v>
+      </c>
+      <c r="I43" s="18">
+        <f>(F43+G43+H43)*0.07</f>
+        <v>3.0837520000000005</v>
+      </c>
+      <c r="J43" s="18">
+        <f>E43+F43+I43+G43+H43</f>
+        <v>21247.137351999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="21" customFormat="1" ht="12.75">
+      <c r="A44" s="42"/>
+      <c r="B44" s="86">
+        <f>(D43-D42)/D42</f>
+        <v>-0.27891156462585032</v>
+      </c>
+      <c r="C44" s="5">
+        <f>SUM(C42:C43)</f>
+        <v>32000</v>
+      </c>
+      <c r="D44" s="36">
+        <f>E44/C44</f>
+        <v>14.44375</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" ref="E44:J44" si="12">SUM(E42:E43)</f>
+        <v>462200</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="12"/>
+        <v>924.4</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="12"/>
+        <v>31.429600000000001</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="12"/>
+        <v>4.6219999999999999</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="12"/>
+        <v>67.231612000000013</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="12"/>
+        <v>463227.683212</v>
+      </c>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="1:11" s="21" customFormat="1" ht="12.75">
+      <c r="A45" s="8">
+        <v>45100</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D45" s="46">
+        <v>10.3</v>
+      </c>
+      <c r="E45" s="20">
+        <f>C45*D45</f>
+        <v>20600</v>
+      </c>
+      <c r="F45" s="20">
+        <f>E45*0.002</f>
+        <v>41.2</v>
+      </c>
+      <c r="G45" s="20">
+        <f>E45*0.000068</f>
+        <v>1.4008</v>
+      </c>
+      <c r="H45" s="20">
+        <f>E45*0.00001</f>
+        <v>0.20600000000000002</v>
+      </c>
+      <c r="I45" s="20">
+        <f>(F45+G45+H45)*0.07</f>
+        <v>2.9964760000000004</v>
+      </c>
+      <c r="J45" s="20">
+        <f>E45+F45+I45+G45+H45</f>
+        <v>20645.803275999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="21" customFormat="1" ht="12.75">
+      <c r="A46" s="44"/>
+      <c r="B46" s="80">
+        <f>(D45-D44)/D44</f>
+        <v>-0.28688879273041967</v>
+      </c>
+      <c r="C46" s="22">
+        <f>SUM(C44:C45)</f>
+        <v>34000</v>
+      </c>
+      <c r="D46" s="33">
+        <f>E46/C46</f>
+        <v>14.2</v>
+      </c>
+      <c r="E46" s="22">
+        <f t="shared" ref="E46:J46" si="13">SUM(E44:E45)</f>
+        <v>482800</v>
+      </c>
+      <c r="F46" s="22">
+        <f t="shared" si="13"/>
+        <v>965.6</v>
+      </c>
+      <c r="G46" s="22">
+        <f t="shared" si="13"/>
+        <v>32.830399999999997</v>
+      </c>
+      <c r="H46" s="22">
+        <f t="shared" si="13"/>
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="I46" s="22">
+        <f t="shared" si="13"/>
+        <v>70.228088000000014</v>
+      </c>
+      <c r="J46" s="22">
+        <f t="shared" si="13"/>
+        <v>483873.48648800002</v>
+      </c>
+      <c r="K46" s="25"/>
+    </row>
+    <row r="47" spans="1:11" ht="12"/>
+    <row r="48" spans="1:11" s="21" customFormat="1">
+      <c r="A48" s="14">
+        <v>43630</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="16">
         <v>10000</v>
       </c>
-      <c r="D43" s="46">
-        <v>12.7</v>
-      </c>
-      <c r="E43" s="20">
-        <f>C43*D43</f>
-        <v>127000</v>
-      </c>
-      <c r="F43" s="20">
-        <f>E43*0.002</f>
-        <v>254</v>
-      </c>
-      <c r="G43" s="20">
-        <f>E43*0.000068</f>
-        <v>8.6359999999999992</v>
-      </c>
-      <c r="H43" s="20">
-        <f>E43*0.00001</f>
-        <v>1.27</v>
-      </c>
-      <c r="I43" s="20">
-        <f>(F43+G43+H43)*0.07</f>
-        <v>18.473420000000001</v>
-      </c>
-      <c r="J43" s="20">
-        <f>E43+F43+I43+G43+H43</f>
-        <v>127282.37942</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="21" customFormat="1" ht="12.75">
-      <c r="A44" s="44"/>
-      <c r="B44" s="80">
-        <f>(D43-D42)/D42</f>
-        <v>-0.1360544217687075</v>
-      </c>
-      <c r="C44" s="22">
-        <f>SUM(C42:C43)</f>
-        <v>40000</v>
-      </c>
-      <c r="D44" s="33">
-        <f>E44/C44</f>
-        <v>14.2</v>
-      </c>
-      <c r="E44" s="22">
-        <f t="shared" ref="E44:J44" si="12">SUM(E42:E43)</f>
-        <v>568000</v>
-      </c>
-      <c r="F44" s="22">
-        <f t="shared" si="12"/>
-        <v>1136</v>
-      </c>
-      <c r="G44" s="22">
-        <f t="shared" si="12"/>
-        <v>38.623999999999995</v>
-      </c>
-      <c r="H44" s="22">
-        <f t="shared" si="12"/>
-        <v>5.68</v>
-      </c>
-      <c r="I44" s="22">
-        <f t="shared" si="12"/>
-        <v>82.621280000000013</v>
-      </c>
-      <c r="J44" s="22">
-        <f t="shared" si="12"/>
-        <v>569262.92527999997</v>
-      </c>
-      <c r="K44" s="25"/>
-    </row>
-    <row r="45" spans="1:11" ht="12"/>
-    <row r="46" spans="1:11" s="21" customFormat="1">
-      <c r="A46" s="14">
-        <v>43630</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="16">
+      <c r="D48" s="41">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E48" s="18">
+        <f>C48*D48</f>
+        <v>166000</v>
+      </c>
+      <c r="F48" s="18">
+        <f>E48*0.002</f>
+        <v>332</v>
+      </c>
+      <c r="G48" s="18">
+        <f>E48*0.000068</f>
+        <v>11.288</v>
+      </c>
+      <c r="H48" s="18">
+        <f>E48*0.00001</f>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="I48" s="18">
+        <f>(F48+G48+H48)*0.07</f>
+        <v>24.146360000000005</v>
+      </c>
+      <c r="J48" s="18">
+        <f>E48+F48+I48+G48+H48</f>
+        <v>166369.09436000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="13" customFormat="1">
+      <c r="A49" s="14">
+        <v>43643</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="16">
+        <f>C48</f>
         <v>10000</v>
       </c>
-      <c r="D46" s="41">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="E46" s="18">
-        <f>C46*D46</f>
-        <v>166000</v>
-      </c>
-      <c r="F46" s="18">
-        <f>E46*0.002</f>
-        <v>332</v>
-      </c>
-      <c r="G46" s="18">
-        <f>E46*0.000068</f>
-        <v>11.288</v>
-      </c>
-      <c r="H46" s="18">
-        <f>E46*0.00001</f>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="I46" s="18">
-        <f>(F46+G46+H46)*0.07</f>
-        <v>24.146360000000005</v>
-      </c>
-      <c r="J46" s="18">
-        <f>E46+F46+I46+G46+H46</f>
-        <v>166369.09436000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="13" customFormat="1">
-      <c r="A47" s="14">
+      <c r="D49" s="26">
+        <v>16.7</v>
+      </c>
+      <c r="E49" s="17">
+        <f>C49*D49</f>
+        <v>167000</v>
+      </c>
+      <c r="F49" s="27">
+        <f>E49*0.002</f>
+        <v>334</v>
+      </c>
+      <c r="G49" s="26">
+        <f>E49*0.000068</f>
+        <v>11.356</v>
+      </c>
+      <c r="H49" s="26">
+        <f>E49*0.00001</f>
+        <v>1.6700000000000002</v>
+      </c>
+      <c r="I49" s="26">
+        <f>(F49+G49+H49)*0.07</f>
+        <v>24.291820000000001</v>
+      </c>
+      <c r="J49" s="26">
+        <f>E49-F49-G49-H49-I49</f>
+        <v>166628.68217999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="31" customFormat="1" ht="18.75">
+      <c r="A50" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18">
+        <f>E49-E48</f>
+        <v>1000</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18">
+        <f>J49-J48</f>
+        <v>259.58781999995699</v>
+      </c>
+      <c r="K50" s="12"/>
+    </row>
+    <row r="51" spans="1:11" s="21" customFormat="1" ht="12.75">
+      <c r="A51" s="14">
+        <v>45100</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="41">
+        <v>10.6</v>
+      </c>
+      <c r="E51" s="18">
+        <f>C51*D51</f>
+        <v>21200</v>
+      </c>
+      <c r="F51" s="18">
+        <f>E51*0.002</f>
+        <v>42.4</v>
+      </c>
+      <c r="G51" s="18">
+        <f>E51*0.000068</f>
+        <v>1.4416</v>
+      </c>
+      <c r="H51" s="18">
+        <f>E51*0.00001</f>
+        <v>0.21200000000000002</v>
+      </c>
+      <c r="I51" s="18">
+        <f>(F51+G51+H51)*0.07</f>
+        <v>3.0837520000000005</v>
+      </c>
+      <c r="J51" s="18">
+        <f>E51+F51+I51+G51+H51</f>
+        <v>21247.137351999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="13" customFormat="1" ht="12.75">
+      <c r="A52" s="8">
         <v>43643</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B52" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="16">
-        <f>C46</f>
-        <v>10000</v>
-      </c>
-      <c r="D47" s="26">
-        <v>16.7</v>
-      </c>
-      <c r="E47" s="17">
-        <f>C47*D47</f>
-        <v>167000</v>
-      </c>
-      <c r="F47" s="27">
-        <f>E47*0.002</f>
-        <v>334</v>
-      </c>
-      <c r="G47" s="26">
-        <f>E47*0.000068</f>
-        <v>11.356</v>
-      </c>
-      <c r="H47" s="26">
-        <f>E47*0.00001</f>
-        <v>1.6700000000000002</v>
-      </c>
-      <c r="I47" s="26">
-        <f>(F47+G47+H47)*0.07</f>
-        <v>24.291820000000001</v>
-      </c>
-      <c r="J47" s="26">
-        <f>E47-F47-G47-H47-I47</f>
-        <v>166628.68217999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="31" customFormat="1" ht="18.75">
-      <c r="A48" s="14" t="s">
+      <c r="C52" s="10">
+        <f>C51</f>
+        <v>2000</v>
+      </c>
+      <c r="D52" s="34">
+        <v>11.1</v>
+      </c>
+      <c r="E52" s="11">
+        <f>C52*D52</f>
+        <v>22200</v>
+      </c>
+      <c r="F52" s="35">
+        <f>E52*0.002</f>
+        <v>44.4</v>
+      </c>
+      <c r="G52" s="34">
+        <f>E52*0.000068</f>
+        <v>1.5096000000000001</v>
+      </c>
+      <c r="H52" s="34">
+        <f>E52*0.00001</f>
+        <v>0.22200000000000003</v>
+      </c>
+      <c r="I52" s="34">
+        <f>(F52+G52+H52)*0.07</f>
+        <v>3.2292120000000004</v>
+      </c>
+      <c r="J52" s="34">
+        <f>E52-F52-G52-H52-I52</f>
+        <v>22150.639187999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="31" customFormat="1" ht="18.75">
+      <c r="A53" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18">
-        <f>E47-E46</f>
+      <c r="B53" s="13"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="20">
+        <f>E52-E51</f>
         <v>1000</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18">
-        <f>J47-J46</f>
-        <v>259.58781999995699</v>
-      </c>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="1:11" s="21" customFormat="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="1:11" s="13" customFormat="1">
-      <c r="A50" s="8"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-    </row>
-    <row r="51" spans="1:11" s="31" customFormat="1" ht="18.75">
-      <c r="A51" s="8"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="12"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20">
+        <f>J52-J51</f>
+        <v>903.50183599999946</v>
+      </c>
+      <c r="K53" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4395,7 +5437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05574364-77F0-49AB-A1F4-209718CEC5C7}">
   <dimension ref="A1:N10"/>
   <sheetViews>
@@ -4420,7 +5462,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25">
       <c r="B1" s="50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="19" customFormat="1" ht="15">
@@ -4693,7 +5735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115D497-67E5-4755-A37C-D801F1CE1CC8}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -4718,7 +5760,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="19" customFormat="1" ht="16.5">
@@ -5389,7 +6431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BECE484-9DAC-4EE9-A8FE-27A01698073E}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -5414,7 +6456,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="19" customFormat="1" ht="16.5">
@@ -5943,12 +6985,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5968,7 +7010,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="19" customFormat="1" ht="16.5">
@@ -7044,42 +8086,110 @@
       <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" s="21" customFormat="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="1:13" s="13" customFormat="1">
-      <c r="A32" s="8"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-    </row>
-    <row r="33" spans="1:11" s="31" customFormat="1" ht="18.75">
-      <c r="A33" s="9"/>
-      <c r="B33" s="13"/>
+      <c r="A31" s="14">
+        <v>44746</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="41">
+        <v>9.15</v>
+      </c>
+      <c r="E31" s="18">
+        <f>C31*D31</f>
+        <v>91500</v>
+      </c>
+      <c r="F31" s="18">
+        <f>E31*0.002</f>
+        <v>183</v>
+      </c>
+      <c r="G31" s="18">
+        <f>E31*0.000068</f>
+        <v>6.2219999999999995</v>
+      </c>
+      <c r="H31" s="18">
+        <f>E31*0.00001</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="I31" s="18">
+        <f>(F31+G31+H31)*0.07</f>
+        <v>13.309590000000002</v>
+      </c>
+      <c r="J31" s="18">
+        <f>E31+F31+I31+G31+H31</f>
+        <v>91703.446589999992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="12.75">
+      <c r="A32" s="55">
+        <v>44813</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10">
+        <f>C31</f>
+        <v>10000</v>
+      </c>
+      <c r="D32" s="34">
+        <v>7.5</v>
+      </c>
+      <c r="E32" s="11">
+        <f>C32*D32</f>
+        <v>75000</v>
+      </c>
+      <c r="F32" s="35">
+        <f>E32*0.002</f>
+        <v>150</v>
+      </c>
+      <c r="G32" s="34">
+        <f>E32*0.000068</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H32" s="34">
+        <f>E32*0.00001</f>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="I32" s="34">
+        <f>(F32+G32+H32)*0.07</f>
+        <v>10.909500000000001</v>
+      </c>
+      <c r="J32" s="34">
+        <f>E32-F32-G32-H32-I32</f>
+        <v>74833.2405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="31" customFormat="1" ht="18.75">
+      <c r="A33" s="9">
+        <f>DAYS360(A31,A32)</f>
+        <v>65</v>
+      </c>
+      <c r="B33" s="12">
+        <f>(D32-D31)/D31</f>
+        <v>-0.18032786885245905</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="20"/>
+      <c r="E33" s="20">
+        <f>E32-E31</f>
+        <v>-16500</v>
+      </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="1:11" s="31" customFormat="1" ht="18.75">
+      <c r="J33" s="20">
+        <f>J32-J31</f>
+        <v>-16870.206089999992</v>
+      </c>
+      <c r="K33" s="32"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" s="31" customFormat="1" ht="18.75">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -7092,7 +8202,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="30"/>
     </row>
-    <row r="35" spans="1:11" s="19" customFormat="1" ht="16.5">
+    <row r="35" spans="1:13" s="19" customFormat="1" ht="16.5">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -7104,7 +8214,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:11" s="13" customFormat="1">
+    <row r="36" spans="1:13" s="13" customFormat="1">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -7117,7 +8227,7 @@
       <c r="J36" s="26"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="31" customFormat="1" ht="18.75">
+    <row r="37" spans="1:13" s="31" customFormat="1" ht="18.75">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -7130,7 +8240,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="30"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:13">
       <c r="C38" s="16"/>
       <c r="D38" s="40"/>
       <c r="E38" s="16"/>
@@ -7145,12 +8255,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61165D-6E4D-45AE-A027-1F0635508A9D}">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7173,7 +8283,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1">
@@ -7449,80 +8559,80 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75">
-      <c r="A9" s="55">
-        <v>45035</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1200</v>
-      </c>
-      <c r="D9" s="46">
-        <v>18</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="A9" s="49">
+        <v>45098</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1800</v>
+      </c>
+      <c r="D9" s="41">
+        <v>17</v>
+      </c>
+      <c r="E9" s="18">
         <f>C9*D9</f>
-        <v>21600</v>
-      </c>
-      <c r="F9" s="20">
+        <v>30600</v>
+      </c>
+      <c r="F9" s="18">
         <f>E9*0.002</f>
-        <v>43.2</v>
-      </c>
-      <c r="G9" s="20">
+        <v>61.2</v>
+      </c>
+      <c r="G9" s="18">
         <f>E9*0.00006</f>
-        <v>1.296</v>
-      </c>
-      <c r="H9" s="20">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="H9" s="18">
         <f>E9*0.00001</f>
-        <v>0.21600000000000003</v>
-      </c>
-      <c r="I9" s="20">
+        <v>0.30600000000000005</v>
+      </c>
+      <c r="I9" s="18">
         <f>(F9+G9+H9)*0.07</f>
-        <v>3.1298400000000006</v>
-      </c>
-      <c r="J9" s="20">
+        <v>4.4339400000000007</v>
+      </c>
+      <c r="J9" s="18">
         <f>E9+F9+I9+G9+H9</f>
-        <v>21647.841840000001</v>
+        <v>30667.77594</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75">
-      <c r="A10" s="55"/>
-      <c r="B10" s="12">
+      <c r="A10" s="49"/>
+      <c r="B10" s="30">
         <f>(D9-D8)/D8</f>
-        <v>-0.4375</v>
-      </c>
-      <c r="C10" s="10">
+        <v>-0.46875</v>
+      </c>
+      <c r="C10" s="16">
         <f>SUM(C8:C9)</f>
-        <v>8400</v>
-      </c>
-      <c r="D10" s="11">
+        <v>9000</v>
+      </c>
+      <c r="D10" s="17">
         <f>E10/C10</f>
-        <v>30</v>
-      </c>
-      <c r="E10" s="10">
+        <v>29</v>
+      </c>
+      <c r="E10" s="16">
         <f t="shared" ref="E10:J10" si="3">SUM(E8:E9)</f>
-        <v>252000</v>
-      </c>
-      <c r="F10" s="10">
+        <v>261000</v>
+      </c>
+      <c r="F10" s="16">
         <f t="shared" si="3"/>
-        <v>504.00000000000006</v>
-      </c>
-      <c r="G10" s="10">
+        <v>522.00000000000011</v>
+      </c>
+      <c r="G10" s="16">
         <f t="shared" si="3"/>
-        <v>15.120000000000001</v>
-      </c>
-      <c r="H10" s="10">
+        <v>15.660000000000002</v>
+      </c>
+      <c r="H10" s="16">
         <f t="shared" si="3"/>
-        <v>2.5200000000000005</v>
-      </c>
-      <c r="I10" s="10">
+        <v>2.6100000000000003</v>
+      </c>
+      <c r="I10" s="16">
         <f t="shared" si="3"/>
-        <v>36.514800000000008</v>
-      </c>
-      <c r="J10" s="10">
+        <v>37.818900000000006</v>
+      </c>
+      <c r="J10" s="16">
         <f t="shared" si="3"/>
-        <v>252558.15479999999</v>
+        <v>261578.08889999997</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75"/>
@@ -7534,36 +8644,36 @@
         <v>1</v>
       </c>
       <c r="C12" s="10">
-        <f>C5</f>
-        <v>1200</v>
+        <f>C9</f>
+        <v>1800</v>
       </c>
       <c r="D12" s="63">
-        <f>D5</f>
-        <v>23.4</v>
+        <f>D9</f>
+        <v>17</v>
       </c>
       <c r="E12" s="20">
         <f>C12*D12</f>
-        <v>28080</v>
+        <v>30600</v>
       </c>
       <c r="F12" s="20">
         <f>E12*0.002</f>
-        <v>56.160000000000004</v>
+        <v>61.2</v>
       </c>
       <c r="G12" s="20">
         <f>E12*0.000068</f>
-        <v>1.90944</v>
+        <v>2.0808</v>
       </c>
       <c r="H12" s="20">
         <f>E12*0.00001</f>
-        <v>0.28080000000000005</v>
+        <v>0.30600000000000005</v>
       </c>
       <c r="I12" s="20">
         <f>(F12+G12+H12)*0.07</f>
-        <v>4.0845168000000003</v>
+        <v>4.4510760000000005</v>
       </c>
       <c r="J12" s="20">
         <f>E12+F12+I12+G12+H12</f>
-        <v>28142.434756800001</v>
+        <v>30668.037876000002</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.75">
@@ -7575,34 +8685,34 @@
       </c>
       <c r="C13" s="10">
         <f>C12</f>
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="D13" s="34">
-        <v>24.6</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E13" s="11">
         <f>C13*D13</f>
-        <v>29520</v>
+        <v>32219.999999999996</v>
       </c>
       <c r="F13" s="35">
         <f>E13*0.002</f>
-        <v>59.04</v>
+        <v>64.44</v>
       </c>
       <c r="G13" s="34">
         <f>E13*0.000068</f>
-        <v>2.0073599999999998</v>
+        <v>2.1909599999999996</v>
       </c>
       <c r="H13" s="34">
         <f>E13*0.00001</f>
-        <v>0.29520000000000002</v>
+        <v>0.32219999999999999</v>
       </c>
       <c r="I13" s="34">
         <f>(F13+G13+H13)*0.07</f>
-        <v>4.2939792000000008</v>
+        <v>4.6867212</v>
       </c>
       <c r="J13" s="34">
         <f>E13-F13-G13-H13-I13</f>
-        <v>29454.363460799999</v>
+        <v>32148.360118799999</v>
       </c>
       <c r="M13" s="21"/>
     </row>
@@ -7613,13 +8723,13 @@
       </c>
       <c r="B14" s="12">
         <f>(D13-D12)/D12</f>
-        <v>5.1282051282051405E-2</v>
+        <v>5.2941176470588151E-2</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="20">
         <f>E13-E12</f>
-        <v>1440</v>
+        <v>1619.9999999999964</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
@@ -7627,7 +8737,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20">
         <f>J13-J12</f>
-        <v>1311.9287039999981</v>
+        <v>1480.3222427999972</v>
       </c>
       <c r="M14" s="21"/>
     </row>
@@ -7639,12 +8749,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9A6BF-841A-4E49-8659-89A8DE11562A}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7667,7 +8777,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="13" customFormat="1">
@@ -8130,81 +9240,84 @@
       <c r="O14" s="58"/>
     </row>
     <row r="15" spans="1:15" ht="12.75">
-      <c r="A15" s="55">
-        <v>45083</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="A15" s="49">
+        <v>45096</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
         <v>1800</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="41">
         <v>39.75</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="68">
         <f>C15*D15</f>
         <v>71550</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="18">
         <f>E15*0.002</f>
         <v>143.1</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="18">
         <f>E15*0.00006</f>
         <v>4.2930000000000001</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="18">
         <f>E15*0.00001</f>
         <v>0.71550000000000002</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="18">
         <f>(F15+G15+H15)*0.07</f>
         <v>10.367595</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="68">
         <f>E15+F15+I15+G15+H15</f>
         <v>71708.47609500002</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="12.75">
-      <c r="A16" s="55"/>
-      <c r="B16" s="12">
+      <c r="A16" s="69"/>
+      <c r="B16" s="30">
         <f>(D15-D14)/D14</f>
         <v>-0.28378378378378377</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="16">
         <f>SUM(C13:C15)</f>
         <v>6000</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="17">
         <f>E16/C16</f>
         <v>51</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="16">
         <f t="shared" ref="E16:J16" si="2">SUM(E13:E15)</f>
         <v>306000</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="16">
         <f t="shared" si="2"/>
         <v>609.30000000000007</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="16">
         <f t="shared" si="2"/>
         <v>18.279</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="16">
         <f t="shared" si="2"/>
         <v>3.0465000000000004</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="16">
         <f t="shared" si="2"/>
         <v>44.143785000000008</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="16">
         <f t="shared" si="2"/>
         <v>306566.57848200004</v>
       </c>
+    </row>
+    <row r="17" spans="1:1" ht="12.75">
+      <c r="A17" s="55"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -8214,12 +9327,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA82FC05-8676-4966-982E-6C94A5C97DE9}">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>
@@ -8239,45 +9352,45 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25">
       <c r="B1" s="50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="19" customFormat="1" ht="15">
-      <c r="A2" s="55">
-        <v>45084</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>400</v>
-      </c>
-      <c r="D2" s="46">
+      <c r="A2" s="49">
+        <v>45092</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>900</v>
+      </c>
+      <c r="D2" s="68">
         <v>50</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <f>C2*D2</f>
-        <v>20000</v>
-      </c>
-      <c r="F2" s="20">
+        <v>45000</v>
+      </c>
+      <c r="F2" s="18">
         <f>E2*0.002</f>
-        <v>40</v>
-      </c>
-      <c r="G2" s="20">
+        <v>90</v>
+      </c>
+      <c r="G2" s="18">
         <f>E2*0.00006</f>
-        <v>1.2</v>
-      </c>
-      <c r="H2" s="20">
+        <v>2.7</v>
+      </c>
+      <c r="H2" s="18">
         <f>E2*0.00001</f>
-        <v>0.2</v>
-      </c>
-      <c r="I2" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="I2" s="18">
         <f>(F2+G2+H2)*0.07</f>
-        <v>2.8980000000000006</v>
-      </c>
-      <c r="J2" s="20">
+        <v>6.5205000000000011</v>
+      </c>
+      <c r="J2" s="18">
         <f>E2+F2+I2+G2+H2</f>
-        <v>20044.298000000003</v>
+        <v>45099.670499999993</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="13" customFormat="1" ht="12.75">
@@ -8288,34 +9401,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D3" s="11">
         <v>48</v>
       </c>
       <c r="E3" s="20">
         <f>C3*D3</f>
-        <v>19200</v>
+        <v>14400</v>
       </c>
       <c r="F3" s="20">
         <f>E3*0.002</f>
-        <v>38.4</v>
+        <v>28.8</v>
       </c>
       <c r="G3" s="20">
         <f>E3*0.00006</f>
-        <v>1.1520000000000001</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="H3" s="20">
         <f>E3*0.00001</f>
-        <v>0.192</v>
+        <v>0.14400000000000002</v>
       </c>
       <c r="I3" s="20">
         <f>(F3+G3+H3)*0.07</f>
-        <v>2.7820800000000001</v>
+        <v>2.08656</v>
       </c>
       <c r="J3" s="20">
         <f>E3+F3+I3+G3+H3</f>
-        <v>19242.52608</v>
+        <v>14431.894559999999</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="11"/>
@@ -8329,35 +9442,35 @@
       </c>
       <c r="C4" s="10">
         <f>SUM(C2:C3)</f>
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="D4" s="63">
         <f>E4/C4</f>
-        <v>49</v>
+        <v>49.5</v>
       </c>
       <c r="E4" s="10">
         <f>SUM(E2:E3)</f>
-        <v>39200</v>
+        <v>59400</v>
       </c>
       <c r="F4" s="10">
         <f>SUM(F2:F3)</f>
-        <v>78.400000000000006</v>
+        <v>118.8</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(G2:G3)</f>
-        <v>2.3520000000000003</v>
+        <v>3.5640000000000001</v>
       </c>
       <c r="H4" s="10">
         <f>SUM(H2:H3)</f>
-        <v>0.39200000000000002</v>
+        <v>0.59400000000000008</v>
       </c>
       <c r="I4" s="10">
         <f>SUM(I2:I3)</f>
-        <v>5.6800800000000002</v>
+        <v>8.6070600000000006</v>
       </c>
       <c r="J4" s="10">
         <f>SUM(J2:J3)</f>
-        <v>39286.824080000006</v>
+        <v>59531.565059999994</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="13"/>
@@ -8376,104 +9489,104 @@
       <c r="I5" s="85"/>
       <c r="J5" s="85"/>
     </row>
-    <row r="6" spans="1:14" s="19" customFormat="1" ht="16.5">
+    <row r="6" spans="1:14" s="19" customFormat="1" ht="15">
       <c r="A6" s="49">
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="16">
-        <v>400</v>
-      </c>
-      <c r="D6" s="41">
+        <v>900</v>
+      </c>
+      <c r="D6" s="68">
         <v>50</v>
       </c>
       <c r="E6" s="18">
         <f>C6*D6</f>
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="F6" s="18">
         <f>E6*0.002</f>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G6" s="18">
         <f>E6*0.00006</f>
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H6" s="18">
         <f>E6*0.00001</f>
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="I6" s="18">
         <f>(F6+G6+H6)*0.07</f>
-        <v>2.8980000000000006</v>
+        <v>6.5205000000000011</v>
       </c>
       <c r="J6" s="18">
         <f>E6+F6+I6+G6+H6</f>
-        <v>20044.298000000003</v>
+        <v>45099.670499999993</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="13" customFormat="1" ht="12.75">
-      <c r="A7" s="14">
+      <c r="A7" s="8">
         <v>45085</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="10">
         <f>C6</f>
-        <v>400</v>
-      </c>
-      <c r="D7" s="26">
+        <v>900</v>
+      </c>
+      <c r="D7" s="34">
         <v>52.5</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="11">
         <f>C7*D7</f>
-        <v>21000</v>
-      </c>
-      <c r="F7" s="27">
+        <v>47250</v>
+      </c>
+      <c r="F7" s="35">
         <f>E7*0.002</f>
-        <v>42</v>
-      </c>
-      <c r="G7" s="26">
+        <v>94.5</v>
+      </c>
+      <c r="G7" s="34">
         <f>E7*0.000068</f>
-        <v>1.4279999999999999</v>
-      </c>
-      <c r="H7" s="26">
+        <v>3.2130000000000001</v>
+      </c>
+      <c r="H7" s="34">
         <f>E7*0.00001</f>
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="I7" s="26">
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="I7" s="34">
         <f>(F7+G7+H7)*0.07</f>
-        <v>3.0546600000000002</v>
-      </c>
-      <c r="J7" s="26">
+        <v>6.8729849999999999</v>
+      </c>
+      <c r="J7" s="34">
         <f>E7-F7-G7-H7-I7</f>
-        <v>20953.307339999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="31" customFormat="1" ht="21">
-      <c r="A8" s="14" t="s">
+        <v>47144.941514999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="31" customFormat="1" ht="21.75">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="75">
         <f>(D7-D6)/D6</f>
         <v>0.05</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="20">
         <f>E7-E6</f>
-        <v>1000</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
+        <v>2250</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
         <f>J7-J6</f>
-        <v>909.00933999999688</v>
+        <v>2045.2710149999984</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -8512,12 +9625,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -8537,7 +9650,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1">
@@ -10062,7 +11175,7 @@
         <v>42720</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C47" s="16">
         <v>75000</v>
@@ -10174,7 +11287,7 @@
         <v>44351</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C50" s="16">
         <v>70000</v>
@@ -10486,37 +11599,37 @@
         <v>3000</v>
       </c>
       <c r="D58" s="63">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="E58" s="20">
         <f>C58*D58</f>
-        <v>21000</v>
+        <v>20100</v>
       </c>
       <c r="F58" s="20">
         <f>E58*0.002</f>
-        <v>42</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="G58" s="20">
         <f>E58*0.000068</f>
-        <v>1.4279999999999999</v>
+        <v>1.3668</v>
       </c>
       <c r="H58" s="20">
         <f>E58*0.00001</f>
-        <v>0.21000000000000002</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="I58" s="20">
         <f>(F58+G58+H58)*0.07</f>
-        <v>3.0546600000000002</v>
+        <v>2.9237460000000004</v>
       </c>
       <c r="J58" s="20">
         <f>E58+F58+I58+G58+H58</f>
-        <v>21046.692660000001</v>
+        <v>20144.691546000002</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="B59" s="12">
         <f>(D58-D57)/D57</f>
-        <v>-0.53642384105960261</v>
+        <v>-0.55629139072847678</v>
       </c>
       <c r="C59" s="22">
         <f>SUM(C57:C58)</f>
@@ -10524,31 +11637,31 @@
       </c>
       <c r="D59" s="64">
         <f>E59/C59</f>
-        <v>14.8</v>
+        <v>14.78888888888889</v>
       </c>
       <c r="E59" s="24">
         <f t="shared" ref="E59:J59" si="18">SUM(E57:E58)</f>
-        <v>1198800</v>
+        <v>1197900</v>
       </c>
       <c r="F59" s="24">
         <f t="shared" si="18"/>
-        <v>2397.6</v>
+        <v>2395.7999999999997</v>
       </c>
       <c r="G59" s="24">
         <f t="shared" si="18"/>
-        <v>81.5184</v>
+        <v>81.4572</v>
       </c>
       <c r="H59" s="24">
         <f t="shared" si="18"/>
-        <v>11.988000000000001</v>
+        <v>11.979000000000001</v>
       </c>
       <c r="I59" s="24">
         <f t="shared" si="18"/>
-        <v>174.37744800000002</v>
+        <v>174.246534</v>
       </c>
       <c r="J59" s="24">
         <f t="shared" si="18"/>
-        <v>1201465.4838479997</v>
+        <v>1200563.4827339998</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="12.75"/>
@@ -10760,715 +11873,6 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C5701E-1EA3-43D6-ACCE-96288D740D8D}">
-  <dimension ref="A1:M20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="10.625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9" style="21"/>
-    <col min="7" max="7" width="6.75" style="21" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="21" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="21" customWidth="1"/>
-    <col min="11" max="11" width="5.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="21"/>
-    <col min="13" max="13" width="8.875" style="25"/>
-    <col min="14" max="16384" width="8.875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
-      <c r="A2" s="49">
-        <v>44440</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
-        <v>18000</v>
-      </c>
-      <c r="D2" s="41">
-        <v>7.5</v>
-      </c>
-      <c r="E2" s="18">
-        <f>C2*D2</f>
-        <v>135000</v>
-      </c>
-      <c r="F2" s="18">
-        <f>E2*0.002</f>
-        <v>270</v>
-      </c>
-      <c r="G2" s="18">
-        <f>E2*0.00006</f>
-        <v>8.1</v>
-      </c>
-      <c r="H2" s="18">
-        <f>E2*0.00001</f>
-        <v>1.35</v>
-      </c>
-      <c r="I2" s="18">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>19.561500000000006</v>
-      </c>
-      <c r="J2" s="18">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>135299.01150000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="49">
-        <v>44474</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
-        <v>6000</v>
-      </c>
-      <c r="D3" s="41">
-        <v>7.7</v>
-      </c>
-      <c r="E3" s="18">
-        <f>C3*D3</f>
-        <v>46200</v>
-      </c>
-      <c r="F3" s="18">
-        <f>E3*0.002</f>
-        <v>92.4</v>
-      </c>
-      <c r="G3" s="18">
-        <f>E3*0.00006</f>
-        <v>2.7720000000000002</v>
-      </c>
-      <c r="H3" s="18">
-        <f>E3*0.00001</f>
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="I3" s="18">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>6.6943800000000016</v>
-      </c>
-      <c r="J3" s="18">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>46302.328379999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16">
-        <f>SUM(C2:C3)</f>
-        <v>24000</v>
-      </c>
-      <c r="D4" s="17">
-        <f>E4/C4</f>
-        <v>7.55</v>
-      </c>
-      <c r="E4" s="16">
-        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>181200</v>
-      </c>
-      <c r="F4" s="16">
-        <f t="shared" si="0"/>
-        <v>362.4</v>
-      </c>
-      <c r="G4" s="16">
-        <f t="shared" si="0"/>
-        <v>10.872</v>
-      </c>
-      <c r="H4" s="16">
-        <f t="shared" si="0"/>
-        <v>1.8120000000000001</v>
-      </c>
-      <c r="I4" s="16">
-        <f t="shared" si="0"/>
-        <v>26.255880000000008</v>
-      </c>
-      <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>181601.33988000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1">
-      <c r="A5" s="49">
-        <v>44477</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
-        <v>6000</v>
-      </c>
-      <c r="D5" s="41">
-        <v>7.55</v>
-      </c>
-      <c r="E5" s="18">
-        <f>C5*D5</f>
-        <v>45300</v>
-      </c>
-      <c r="F5" s="18">
-        <f>E5*0.002</f>
-        <v>90.600000000000009</v>
-      </c>
-      <c r="G5" s="18">
-        <f>E5*0.00006</f>
-        <v>2.718</v>
-      </c>
-      <c r="H5" s="18">
-        <f>E5*0.00001</f>
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="I5" s="18">
-        <f>(F5+G5+H5)*0.07</f>
-        <v>6.5639700000000021</v>
-      </c>
-      <c r="J5" s="18">
-        <f>E5+F5+I5+G5+H5</f>
-        <v>45400.334970000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16">
-        <f>SUM(C4:C5)</f>
-        <v>30000</v>
-      </c>
-      <c r="D6" s="17">
-        <f>E6/C6</f>
-        <v>7.55</v>
-      </c>
-      <c r="E6" s="16">
-        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>226500</v>
-      </c>
-      <c r="F6" s="16">
-        <f t="shared" si="1"/>
-        <v>453</v>
-      </c>
-      <c r="G6" s="16">
-        <f t="shared" si="1"/>
-        <v>13.59</v>
-      </c>
-      <c r="H6" s="16">
-        <f t="shared" si="1"/>
-        <v>2.2650000000000001</v>
-      </c>
-      <c r="I6" s="16">
-        <f t="shared" si="1"/>
-        <v>32.81985000000001</v>
-      </c>
-      <c r="J6" s="16">
-        <f t="shared" si="1"/>
-        <v>227001.67485000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1">
-      <c r="A7" s="49">
-        <v>44504</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16">
-        <v>6000</v>
-      </c>
-      <c r="D7" s="41">
-        <v>6.95</v>
-      </c>
-      <c r="E7" s="18">
-        <f>C7*D7</f>
-        <v>41700</v>
-      </c>
-      <c r="F7" s="18">
-        <f>E7*0.002</f>
-        <v>83.4</v>
-      </c>
-      <c r="G7" s="18">
-        <f>E7*0.00006</f>
-        <v>2.5020000000000002</v>
-      </c>
-      <c r="H7" s="18">
-        <f>E7*0.00001</f>
-        <v>0.41700000000000004</v>
-      </c>
-      <c r="I7" s="18">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>6.0423300000000006</v>
-      </c>
-      <c r="J7" s="18">
-        <f>E7+F7+I7+G7+H7</f>
-        <v>41792.36133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="30">
-        <f>(D7-D6)/D6</f>
-        <v>-7.9470198675496637E-2</v>
-      </c>
-      <c r="C8" s="16">
-        <f>SUM(C6:C7)</f>
-        <v>36000</v>
-      </c>
-      <c r="D8" s="17">
-        <f>E8/C8</f>
-        <v>7.45</v>
-      </c>
-      <c r="E8" s="16">
-        <f t="shared" ref="E8:J9" si="2">SUM(E6:E7)</f>
-        <v>268200</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" si="2"/>
-        <v>536.4</v>
-      </c>
-      <c r="G8" s="16">
-        <f t="shared" si="2"/>
-        <v>16.091999999999999</v>
-      </c>
-      <c r="H8" s="16">
-        <f t="shared" si="2"/>
-        <v>2.6820000000000004</v>
-      </c>
-      <c r="I8" s="16">
-        <f t="shared" si="2"/>
-        <v>38.862180000000009</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" si="2"/>
-        <v>268794.03618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1">
-      <c r="A9" s="49">
-        <v>44592</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="16">
-        <v>27000</v>
-      </c>
-      <c r="D9" s="17">
-        <v>7.45</v>
-      </c>
-      <c r="E9" s="18">
-        <f>C9*D9</f>
-        <v>201150</v>
-      </c>
-      <c r="F9" s="18">
-        <f>E9*0.002</f>
-        <v>402.3</v>
-      </c>
-      <c r="G9" s="18">
-        <f>E9*0.00006</f>
-        <v>12.069000000000001</v>
-      </c>
-      <c r="H9" s="18">
-        <f>E9*0.00001</f>
-        <v>2.0115000000000003</v>
-      </c>
-      <c r="I9" s="18">
-        <f>(F9+G9+H9)*0.07</f>
-        <v>29.146635000000007</v>
-      </c>
-      <c r="J9" s="18">
-        <f>E9+F9+I9+G9+H9</f>
-        <v>201595.52713499998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="12.75">
-      <c r="A10" s="49">
-        <v>45076</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="16">
-        <v>5000</v>
-      </c>
-      <c r="D10" s="41">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E10" s="18">
-        <f>C10*D10</f>
-        <v>23000</v>
-      </c>
-      <c r="F10" s="18">
-        <f>E10*0.002</f>
-        <v>46</v>
-      </c>
-      <c r="G10" s="18">
-        <f>E10*0.00006</f>
-        <v>1.3800000000000001</v>
-      </c>
-      <c r="H10" s="18">
-        <f>E10*0.00001</f>
-        <v>0.23</v>
-      </c>
-      <c r="I10" s="18">
-        <f>(F10+G10+H10)*0.07</f>
-        <v>3.3327000000000004</v>
-      </c>
-      <c r="J10" s="18">
-        <f>E10+F10+I10+G10+H10</f>
-        <v>23050.9427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="12.75">
-      <c r="A11" s="49"/>
-      <c r="B11" s="30">
-        <f>(D10-D9)/D9</f>
-        <v>-0.38255033557046986</v>
-      </c>
-      <c r="C11" s="16">
-        <f>SUM(C9:C10)</f>
-        <v>32000</v>
-      </c>
-      <c r="D11" s="17">
-        <f>E11/C11</f>
-        <v>7.0046875000000002</v>
-      </c>
-      <c r="E11" s="16">
-        <f t="shared" ref="E11:J11" si="3">SUM(E9:E10)</f>
-        <v>224150</v>
-      </c>
-      <c r="F11" s="16">
-        <f t="shared" si="3"/>
-        <v>448.3</v>
-      </c>
-      <c r="G11" s="16">
-        <f t="shared" si="3"/>
-        <v>13.449000000000002</v>
-      </c>
-      <c r="H11" s="16">
-        <f t="shared" si="3"/>
-        <v>2.2415000000000003</v>
-      </c>
-      <c r="I11" s="16">
-        <f t="shared" si="3"/>
-        <v>32.479335000000006</v>
-      </c>
-      <c r="J11" s="16">
-        <f t="shared" si="3"/>
-        <v>224646.469835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="12.75">
-      <c r="A12" s="55">
-        <v>45076</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10">
-        <v>5000</v>
-      </c>
-      <c r="D12" s="46">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E12" s="20">
-        <f>C12*D12</f>
-        <v>22000</v>
-      </c>
-      <c r="F12" s="20">
-        <f>E12*0.002</f>
-        <v>44</v>
-      </c>
-      <c r="G12" s="20">
-        <f>E12*0.00006</f>
-        <v>1.32</v>
-      </c>
-      <c r="H12" s="20">
-        <f>E12*0.00001</f>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="I12" s="20">
-        <f>(F12+G12+H12)*0.07</f>
-        <v>3.1878000000000002</v>
-      </c>
-      <c r="J12" s="20">
-        <f>E12+F12+I12+G12+H12</f>
-        <v>22048.727800000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="12.75">
-      <c r="A13" s="55"/>
-      <c r="B13" s="12">
-        <f>(D12-D11)/D11</f>
-        <v>-0.37184920811956274</v>
-      </c>
-      <c r="C13" s="10">
-        <f>SUM(C11:C12)</f>
-        <v>37000</v>
-      </c>
-      <c r="D13" s="11">
-        <f>E13/C13</f>
-        <v>6.6527027027027028</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" ref="E13:J13" si="4">SUM(E11:E12)</f>
-        <v>246150</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="4"/>
-        <v>492.3</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" si="4"/>
-        <v>14.769000000000002</v>
-      </c>
-      <c r="H13" s="10">
-        <f t="shared" si="4"/>
-        <v>2.4615000000000005</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="4"/>
-        <v>35.667135000000009</v>
-      </c>
-      <c r="J13" s="10">
-        <f t="shared" si="4"/>
-        <v>246695.19763499999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75">
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="49">
-        <v>44419</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16">
-        <v>9000</v>
-      </c>
-      <c r="D15" s="17">
-        <v>7.45</v>
-      </c>
-      <c r="E15" s="18">
-        <f>C15*D15</f>
-        <v>67050</v>
-      </c>
-      <c r="F15" s="18">
-        <f>E15*0.002</f>
-        <v>134.1</v>
-      </c>
-      <c r="G15" s="18">
-        <f>E15*0.000068</f>
-        <v>4.5594000000000001</v>
-      </c>
-      <c r="H15" s="18">
-        <f>E15*0.00001</f>
-        <v>0.6705000000000001</v>
-      </c>
-      <c r="I15" s="18">
-        <f>(F15+G15+H15)*0.07</f>
-        <v>9.7530930000000016</v>
-      </c>
-      <c r="J15" s="18">
-        <f>E15+F15+I15+G15+H15</f>
-        <v>67199.082993000004</v>
-      </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" s="13" customFormat="1">
-      <c r="A16" s="49">
-        <v>44592</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="16">
-        <f>C15</f>
-        <v>9000</v>
-      </c>
-      <c r="D16" s="26">
-        <v>7.3</v>
-      </c>
-      <c r="E16" s="17">
-        <f>C16*D16</f>
-        <v>65700</v>
-      </c>
-      <c r="F16" s="27">
-        <f>E16*0.002</f>
-        <v>131.4</v>
-      </c>
-      <c r="G16" s="26">
-        <f>E16*0.000068</f>
-        <v>4.4676</v>
-      </c>
-      <c r="H16" s="26">
-        <f>E16*0.00001</f>
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="I16" s="26">
-        <f>(F16+G16+H16)*0.07</f>
-        <v>9.5567220000000024</v>
-      </c>
-      <c r="J16" s="26">
-        <f>E16-F16-G16-H16-I16</f>
-        <v>65553.918678000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="31" customFormat="1" ht="18.75">
-      <c r="A17" s="28">
-        <f>DAYS360(A15,A16)</f>
-        <v>170</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18">
-        <f>E16-E15</f>
-        <v>-1350</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18">
-        <f>J16-J15</f>
-        <v>-1645.1643150000018</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
-      <c r="A18" s="55">
-        <v>44419</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10">
-        <f>C10</f>
-        <v>5000</v>
-      </c>
-      <c r="D18" s="11">
-        <f>D10</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E18" s="20">
-        <f>C18*D18</f>
-        <v>23000</v>
-      </c>
-      <c r="F18" s="20">
-        <f>E18*0.002</f>
-        <v>46</v>
-      </c>
-      <c r="G18" s="20">
-        <f>E18*0.000068</f>
-        <v>1.5640000000000001</v>
-      </c>
-      <c r="H18" s="20">
-        <f>E18*0.00001</f>
-        <v>0.23</v>
-      </c>
-      <c r="I18" s="20">
-        <f>(F18+G18+H18)*0.07</f>
-        <v>3.34558</v>
-      </c>
-      <c r="J18" s="20">
-        <f>E18+F18+I18+G18+H18</f>
-        <v>23051.139579999999</v>
-      </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" ht="12.75">
-      <c r="A19" s="55">
-        <v>44592</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="10">
-        <f>C18</f>
-        <v>5000</v>
-      </c>
-      <c r="D19" s="34">
-        <v>4.84</v>
-      </c>
-      <c r="E19" s="11">
-        <f>C19*D19</f>
-        <v>24200</v>
-      </c>
-      <c r="F19" s="35">
-        <f>E19*0.002</f>
-        <v>48.4</v>
-      </c>
-      <c r="G19" s="34">
-        <f>E19*0.000068</f>
-        <v>1.6456</v>
-      </c>
-      <c r="H19" s="34">
-        <f>E19*0.00001</f>
-        <v>0.24200000000000002</v>
-      </c>
-      <c r="I19" s="34">
-        <f>(F19+G19+H19)*0.07</f>
-        <v>3.5201320000000003</v>
-      </c>
-      <c r="J19" s="34">
-        <f>E19-F19-G19-H19-I19</f>
-        <v>24146.192267999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="31" customFormat="1" ht="18.75">
-      <c r="A20" s="9">
-        <f>DAYS360(A18,A19)</f>
-        <v>170</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="20">
-        <f>E19-E18</f>
-        <v>1200</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20">
-        <f>J19-J18</f>
-        <v>1095.0526879999998</v>
-      </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -13315,6 +13719,637 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C5701E-1EA3-43D6-ACCE-96288D740D8D}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
+    <col min="7" max="7" width="6.75" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="21" customWidth="1"/>
+    <col min="11" max="11" width="5.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="21"/>
+    <col min="13" max="13" width="8.875" style="25"/>
+    <col min="14" max="16384" width="8.875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="49">
+        <v>44440</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>18000</v>
+      </c>
+      <c r="D2" s="41">
+        <v>7.5</v>
+      </c>
+      <c r="E2" s="18">
+        <f>C2*D2</f>
+        <v>135000</v>
+      </c>
+      <c r="F2" s="18">
+        <f>E2*0.002</f>
+        <v>270</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2*0.00006</f>
+        <v>8.1</v>
+      </c>
+      <c r="H2" s="18">
+        <f>E2*0.00001</f>
+        <v>1.35</v>
+      </c>
+      <c r="I2" s="18">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>19.561500000000006</v>
+      </c>
+      <c r="J2" s="18">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>135299.01150000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="A3" s="49">
+        <v>44474</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>6000</v>
+      </c>
+      <c r="D3" s="41">
+        <v>7.7</v>
+      </c>
+      <c r="E3" s="18">
+        <f>C3*D3</f>
+        <v>46200</v>
+      </c>
+      <c r="F3" s="18">
+        <f>E3*0.002</f>
+        <v>92.4</v>
+      </c>
+      <c r="G3" s="18">
+        <f>E3*0.00006</f>
+        <v>2.7720000000000002</v>
+      </c>
+      <c r="H3" s="18">
+        <f>E3*0.00001</f>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="I3" s="18">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>6.6943800000000016</v>
+      </c>
+      <c r="J3" s="18">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>46302.328379999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1">
+      <c r="A4" s="49"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <f>SUM(C2:C3)</f>
+        <v>24000</v>
+      </c>
+      <c r="D4" s="17">
+        <f>E4/C4</f>
+        <v>7.55</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>181200</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="0"/>
+        <v>362.4</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
+        <v>10.872</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" si="0"/>
+        <v>26.255880000000008</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" si="0"/>
+        <v>181601.33988000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1">
+      <c r="A5" s="49">
+        <v>44477</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="41">
+        <v>7.55</v>
+      </c>
+      <c r="E5" s="18">
+        <f>C5*D5</f>
+        <v>45300</v>
+      </c>
+      <c r="F5" s="18">
+        <f>E5*0.002</f>
+        <v>90.600000000000009</v>
+      </c>
+      <c r="G5" s="18">
+        <f>E5*0.00006</f>
+        <v>2.718</v>
+      </c>
+      <c r="H5" s="18">
+        <f>E5*0.00001</f>
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="I5" s="18">
+        <f>(F5+G5+H5)*0.07</f>
+        <v>6.5639700000000021</v>
+      </c>
+      <c r="J5" s="18">
+        <f>E5+F5+I5+G5+H5</f>
+        <v>45400.334970000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1">
+      <c r="A6" s="49"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16">
+        <f>SUM(C4:C5)</f>
+        <v>30000</v>
+      </c>
+      <c r="D6" s="17">
+        <f>E6/C6</f>
+        <v>7.55</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
+        <v>226500</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="1"/>
+        <v>13.59</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="1"/>
+        <v>2.2650000000000001</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="1"/>
+        <v>32.81985000000001</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="1"/>
+        <v>227001.67485000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1">
+      <c r="A7" s="49">
+        <v>44504</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="41">
+        <v>6.95</v>
+      </c>
+      <c r="E7" s="18">
+        <f>C7*D7</f>
+        <v>41700</v>
+      </c>
+      <c r="F7" s="18">
+        <f>E7*0.002</f>
+        <v>83.4</v>
+      </c>
+      <c r="G7" s="18">
+        <f>E7*0.00006</f>
+        <v>2.5020000000000002</v>
+      </c>
+      <c r="H7" s="18">
+        <f>E7*0.00001</f>
+        <v>0.41700000000000004</v>
+      </c>
+      <c r="I7" s="18">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>6.0423300000000006</v>
+      </c>
+      <c r="J7" s="18">
+        <f>E7+F7+I7+G7+H7</f>
+        <v>41792.36133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="30">
+        <f>(D7-D6)/D6</f>
+        <v>-7.9470198675496637E-2</v>
+      </c>
+      <c r="C8" s="16">
+        <f>SUM(C6:C7)</f>
+        <v>36000</v>
+      </c>
+      <c r="D8" s="17">
+        <f>E8/C8</f>
+        <v>7.45</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" ref="E8:J9" si="2">SUM(E6:E7)</f>
+        <v>268200</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="2"/>
+        <v>536.4</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="2"/>
+        <v>16.091999999999999</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="2"/>
+        <v>2.6820000000000004</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" si="2"/>
+        <v>38.862180000000009</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="2"/>
+        <v>268794.03618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1">
+      <c r="A9" s="49">
+        <v>44592</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16">
+        <v>27000</v>
+      </c>
+      <c r="D9" s="17">
+        <v>7.45</v>
+      </c>
+      <c r="E9" s="18">
+        <f>C9*D9</f>
+        <v>201150</v>
+      </c>
+      <c r="F9" s="18">
+        <f>E9*0.002</f>
+        <v>402.3</v>
+      </c>
+      <c r="G9" s="18">
+        <f>E9*0.00006</f>
+        <v>12.069000000000001</v>
+      </c>
+      <c r="H9" s="18">
+        <f>E9*0.00001</f>
+        <v>2.0115000000000003</v>
+      </c>
+      <c r="I9" s="18">
+        <f>(F9+G9+H9)*0.07</f>
+        <v>29.146635000000007</v>
+      </c>
+      <c r="J9" s="18">
+        <f>E9+F9+I9+G9+H9</f>
+        <v>201595.52713499998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="12.75">
+      <c r="A10" s="55">
+        <v>45076</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D10" s="46">
+        <v>4.54</v>
+      </c>
+      <c r="E10" s="20">
+        <f>C10*D10</f>
+        <v>22700</v>
+      </c>
+      <c r="F10" s="20">
+        <f>E10*0.002</f>
+        <v>45.4</v>
+      </c>
+      <c r="G10" s="20">
+        <f>E10*0.00006</f>
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="H10" s="20">
+        <f>E10*0.00001</f>
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="I10" s="20">
+        <f>(F10+G10+H10)*0.07</f>
+        <v>3.2892300000000003</v>
+      </c>
+      <c r="J10" s="20">
+        <f>E10+F10+I10+G10+H10</f>
+        <v>22750.27823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="12.75">
+      <c r="A11" s="55"/>
+      <c r="B11" s="12">
+        <f>(D10-D9)/D9</f>
+        <v>-0.39060402684563761</v>
+      </c>
+      <c r="C11" s="10">
+        <f>SUM(C9:C10)</f>
+        <v>32000</v>
+      </c>
+      <c r="D11" s="11">
+        <f>E11/C11</f>
+        <v>6.9953124999999998</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ref="E11:J11" si="3">SUM(E9:E10)</f>
+        <v>223850</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="3"/>
+        <v>447.7</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="3"/>
+        <v>13.431000000000001</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="3"/>
+        <v>2.2385000000000002</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="3"/>
+        <v>32.435865000000007</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="3"/>
+        <v>224345.80536499998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12.75">
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="49">
+        <v>44419</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
+        <v>9000</v>
+      </c>
+      <c r="D13" s="17">
+        <v>7.45</v>
+      </c>
+      <c r="E13" s="18">
+        <f>C13*D13</f>
+        <v>67050</v>
+      </c>
+      <c r="F13" s="18">
+        <f>E13*0.002</f>
+        <v>134.1</v>
+      </c>
+      <c r="G13" s="18">
+        <f>E13*0.000068</f>
+        <v>4.5594000000000001</v>
+      </c>
+      <c r="H13" s="18">
+        <f>E13*0.00001</f>
+        <v>0.6705000000000001</v>
+      </c>
+      <c r="I13" s="18">
+        <f>(F13+G13+H13)*0.07</f>
+        <v>9.7530930000000016</v>
+      </c>
+      <c r="J13" s="18">
+        <f>E13+F13+I13+G13+H13</f>
+        <v>67199.082993000004</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1">
+      <c r="A14" s="49">
+        <v>44592</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <f>C13</f>
+        <v>9000</v>
+      </c>
+      <c r="D14" s="26">
+        <v>7.3</v>
+      </c>
+      <c r="E14" s="17">
+        <f>C14*D14</f>
+        <v>65700</v>
+      </c>
+      <c r="F14" s="27">
+        <f>E14*0.002</f>
+        <v>131.4</v>
+      </c>
+      <c r="G14" s="26">
+        <f>E14*0.000068</f>
+        <v>4.4676</v>
+      </c>
+      <c r="H14" s="26">
+        <f>E14*0.00001</f>
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I14" s="26">
+        <f>(F14+G14+H14)*0.07</f>
+        <v>9.5567220000000024</v>
+      </c>
+      <c r="J14" s="26">
+        <f>E14-F14-G14-H14-I14</f>
+        <v>65553.918678000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="31" customFormat="1" ht="18.75">
+      <c r="A15" s="28">
+        <f>DAYS360(A13,A14)</f>
+        <v>170</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18">
+        <f>E14-E13</f>
+        <v>-1350</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18">
+        <f>J14-J13</f>
+        <v>-1645.1643150000018</v>
+      </c>
+      <c r="K15" s="32"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="12.75">
+      <c r="A16" s="49">
+        <v>45076</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E16" s="18">
+        <f>C16*D16</f>
+        <v>23000</v>
+      </c>
+      <c r="F16" s="18">
+        <f>E16*0.002</f>
+        <v>46</v>
+      </c>
+      <c r="G16" s="18">
+        <f>E16*0.00006</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="H16" s="18">
+        <f>E16*0.00001</f>
+        <v>0.23</v>
+      </c>
+      <c r="I16" s="18">
+        <f>(F16+G16+H16)*0.07</f>
+        <v>3.3327000000000004</v>
+      </c>
+      <c r="J16" s="18">
+        <f>E16+F16+I16+G16+H16</f>
+        <v>23050.9427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="12.75">
+      <c r="A17" s="49">
+        <v>45091</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="16">
+        <f>C16</f>
+        <v>5000</v>
+      </c>
+      <c r="D17" s="26">
+        <v>4.84</v>
+      </c>
+      <c r="E17" s="17">
+        <f>C17*D17</f>
+        <v>24200</v>
+      </c>
+      <c r="F17" s="27">
+        <f>E17*0.002</f>
+        <v>48.4</v>
+      </c>
+      <c r="G17" s="26">
+        <f>E17*0.000068</f>
+        <v>1.6456</v>
+      </c>
+      <c r="H17" s="26">
+        <f>E17*0.00001</f>
+        <v>0.24200000000000002</v>
+      </c>
+      <c r="I17" s="26">
+        <f>(F17+G17+H17)*0.07</f>
+        <v>3.5201320000000003</v>
+      </c>
+      <c r="J17" s="26">
+        <f>E17-F17-G17-H17-I17</f>
+        <v>24146.192267999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="31" customFormat="1" ht="18.75">
+      <c r="A18" s="28">
+        <f>DAYS360(A16,A17)</f>
+        <v>14</v>
+      </c>
+      <c r="B18" s="30">
+        <f>(D17-D16)/D16</f>
+        <v>5.2173913043478314E-2</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18">
+        <f>E17-E16</f>
+        <v>1200</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18">
+        <f>J17-J16</f>
+        <v>1095.2495679999993</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="12.75"/>
+    <row r="20" spans="1:13" ht="12.75"/>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
   <dimension ref="A1:O18"/>
   <sheetViews>
@@ -13342,7 +14377,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
@@ -13818,7 +14853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -13846,7 +14881,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1">
@@ -15387,7 +16422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650D376F-67DD-4980-BF1B-8A055D89D41A}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -15415,7 +16450,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1">
@@ -15707,7 +16742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5868373-E563-434B-9630-0799FB268869}">
   <dimension ref="A1:M14"/>
   <sheetViews>
@@ -15735,7 +16770,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1">
@@ -16253,12 +17288,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0248C1A-0BE1-4664-895A-D29EA068DDA6}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -16281,7 +17316,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1">
@@ -16487,73 +17522,73 @@
         <v>1</v>
       </c>
       <c r="C7" s="10">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D7" s="46">
-        <v>10.4</v>
+        <v>9.65</v>
       </c>
       <c r="E7" s="20">
         <f>C7*D7</f>
-        <v>20800</v>
+        <v>28950</v>
       </c>
       <c r="F7" s="20">
         <f>E7*0.002</f>
-        <v>41.6</v>
+        <v>57.9</v>
       </c>
       <c r="G7" s="20">
         <f>E7*0.00006</f>
-        <v>1.248</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="H7" s="20">
         <f>E7*0.00001</f>
-        <v>0.20800000000000002</v>
+        <v>0.28950000000000004</v>
       </c>
       <c r="I7" s="20">
         <f>(F7+G7+H7)*0.07</f>
-        <v>3.0139200000000002</v>
+        <v>4.1948550000000004</v>
       </c>
       <c r="J7" s="20">
         <f>E7+F7+I7+G7+H7</f>
-        <v>20846.069919999998</v>
+        <v>29014.121355000003</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1">
       <c r="A8" s="55"/>
       <c r="B8" s="12">
         <f>(D7-D6)/D6</f>
-        <v>-0.58064516129032262</v>
+        <v>-0.61088709677419351</v>
       </c>
       <c r="C8" s="10">
         <f>SUM(C6:C7)</f>
-        <v>8000</v>
-      </c>
-      <c r="D8" s="11">
+        <v>9000</v>
+      </c>
+      <c r="D8" s="63">
         <f>E8/C8</f>
-        <v>21.2</v>
+        <v>19.75</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>169600</v>
+        <v>177750</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="2"/>
-        <v>339.20000000000005</v>
+        <v>355.5</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>10.176</v>
+        <v>10.665000000000001</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>1.696</v>
+        <v>1.7775000000000001</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>24.575040000000001</v>
+        <v>25.755975000000003</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>169975.64704000001</v>
+        <v>178143.69847500001</v>
       </c>
     </row>
   </sheetData>
@@ -16564,7 +17599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE0D015-9A6D-40DB-A099-73BBAC254E19}">
   <dimension ref="A1:M35"/>
   <sheetViews>
@@ -16592,7 +17627,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
@@ -17795,287 +18830,6 @@
         <v>2035.2847049999909</v>
       </c>
       <c r="K35" s="12"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D3F41-3308-4891-8361-1BAF4ECDB590}">
-  <dimension ref="A1:N10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="10.125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="14.25">
-      <c r="B1" s="50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="16.5">
-      <c r="A2" s="49">
-        <v>45065</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="41">
-        <v>7.65</v>
-      </c>
-      <c r="E2" s="18">
-        <f>C2*D2</f>
-        <v>76500</v>
-      </c>
-      <c r="F2" s="18">
-        <f>E2*0.002</f>
-        <v>153</v>
-      </c>
-      <c r="G2" s="18">
-        <f>E2*0.00006</f>
-        <v>4.59</v>
-      </c>
-      <c r="H2" s="18">
-        <f>E2*0.00001</f>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="I2" s="18">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>11.084850000000001</v>
-      </c>
-      <c r="J2" s="18">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>76669.439849999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="19" customFormat="1" ht="15">
-      <c r="A3" s="49">
-        <v>45076</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="41">
-        <v>7.65</v>
-      </c>
-      <c r="E3" s="18">
-        <f>C3*D3</f>
-        <v>76500</v>
-      </c>
-      <c r="F3" s="18">
-        <f>E3*0.002</f>
-        <v>153</v>
-      </c>
-      <c r="G3" s="18">
-        <f>E3*0.00006</f>
-        <v>4.59</v>
-      </c>
-      <c r="H3" s="18">
-        <f>E3*0.00001</f>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="I3" s="18">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>11.084850000000001</v>
-      </c>
-      <c r="J3" s="18">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>76669.439849999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="105">
-        <f>SUM(C2:C3)</f>
-        <v>20000</v>
-      </c>
-      <c r="D4" s="52">
-        <f>E4/C4</f>
-        <v>7.65</v>
-      </c>
-      <c r="E4" s="106">
-        <f>SUM(E2:E3)</f>
-        <v>153000</v>
-      </c>
-      <c r="F4" s="106">
-        <f t="shared" ref="F4:J4" si="0">SUM(F2:F3)</f>
-        <v>306</v>
-      </c>
-      <c r="G4" s="106">
-        <f t="shared" si="0"/>
-        <v>9.18</v>
-      </c>
-      <c r="H4" s="106">
-        <f t="shared" si="0"/>
-        <v>1.53</v>
-      </c>
-      <c r="I4" s="106">
-        <f t="shared" si="0"/>
-        <v>22.169700000000002</v>
-      </c>
-      <c r="J4" s="106">
-        <f t="shared" si="0"/>
-        <v>153338.87969999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="62" customFormat="1" ht="21.75">
-      <c r="A6" s="55">
-        <v>44629</v>
-      </c>
-      <c r="C6" s="10">
-        <f>C4</f>
-        <v>20000</v>
-      </c>
-      <c r="D6" s="63">
-        <v>0.1032</v>
-      </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="60">
-        <f>C6*D6</f>
-        <v>2064</v>
-      </c>
-      <c r="J6" s="60">
-        <f>I6*0.9</f>
-        <v>1857.6000000000001</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-    </row>
-    <row r="7" spans="1:14" s="19" customFormat="1" ht="15">
-      <c r="A7" s="55">
-        <v>45065</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <f>C4</f>
-        <v>20000</v>
-      </c>
-      <c r="D7" s="46">
-        <v>7.65</v>
-      </c>
-      <c r="E7" s="20">
-        <f>C7*D7</f>
-        <v>153000</v>
-      </c>
-      <c r="F7" s="20">
-        <f>E7*0.002</f>
-        <v>306</v>
-      </c>
-      <c r="G7" s="20">
-        <f>E7*0.00006</f>
-        <v>9.18</v>
-      </c>
-      <c r="H7" s="20">
-        <f>E7*0.00001</f>
-        <v>1.53</v>
-      </c>
-      <c r="I7" s="20">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>22.169700000000002</v>
-      </c>
-      <c r="J7" s="20">
-        <f>E7+F7+I7+G7+H7</f>
-        <v>153338.87969999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.25">
-      <c r="A8" s="55">
-        <v>44277</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10">
-        <f>C7</f>
-        <v>20000</v>
-      </c>
-      <c r="D8" s="34">
-        <v>7.7</v>
-      </c>
-      <c r="E8" s="11">
-        <f>C8*D8</f>
-        <v>154000</v>
-      </c>
-      <c r="F8" s="35">
-        <f>E8*0.002</f>
-        <v>308</v>
-      </c>
-      <c r="G8" s="34">
-        <f>E8*0.000068</f>
-        <v>10.472</v>
-      </c>
-      <c r="H8" s="34">
-        <f>E8*0.00001</f>
-        <v>1.54</v>
-      </c>
-      <c r="I8" s="34">
-        <f>(F8+G8+H8)*0.07</f>
-        <v>22.400840000000002</v>
-      </c>
-      <c r="J8" s="34">
-        <f>E8-F8-G8-H8-I8</f>
-        <v>153657.58716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.25">
-      <c r="A9" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="20">
-        <f>E8-E7</f>
-        <v>1000</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20">
-        <f>J8-J7</f>
-        <v>318.70746000000509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.25">
-      <c r="C10" s="2"/>
-      <c r="J10" s="53">
-        <f>J6+J9</f>
-        <v>2176.3074600000054</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -18336,31 +19090,31 @@
         <v>3000</v>
       </c>
       <c r="D7" s="11">
-        <v>7.6</v>
+        <v>6.95</v>
       </c>
       <c r="E7" s="20">
         <f>C7*D7</f>
-        <v>22800</v>
+        <v>20850</v>
       </c>
       <c r="F7" s="20">
         <f>E7*0.002</f>
-        <v>45.6</v>
+        <v>41.7</v>
       </c>
       <c r="G7" s="20">
         <f>E7*0.00006</f>
-        <v>1.3680000000000001</v>
+        <v>1.2510000000000001</v>
       </c>
       <c r="H7" s="20">
         <f>E7*0.00001</f>
-        <v>0.22800000000000001</v>
+        <v>0.20850000000000002</v>
       </c>
       <c r="I7" s="20">
         <f>(F7+G7+H7)*0.07</f>
-        <v>3.3037200000000007</v>
+        <v>3.0211650000000003</v>
       </c>
       <c r="J7" s="20">
         <f>E7+F7+I7+G7+H7</f>
-        <v>22850.499719999996</v>
+        <v>20896.180665</v>
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="11"/>
@@ -18370,7 +19124,7 @@
       <c r="A8" s="55"/>
       <c r="B8" s="75">
         <f>(D7-D6)/D6</f>
-        <v>-0.25490196078431371</v>
+        <v>-0.31862745098039208</v>
       </c>
       <c r="C8" s="10">
         <f>SUM(C6:C7)</f>
@@ -18378,31 +19132,31 @@
       </c>
       <c r="D8" s="63">
         <f>E8/C8</f>
-        <v>10</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>390000</v>
+        <v>388050</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="2"/>
-        <v>780</v>
+        <v>776.1</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>23.400000000000002</v>
+        <v>23.283000000000005</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>3.9000000000000008</v>
+        <v>3.8805000000000005</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>56.510999999999996</v>
+        <v>56.228445000000001</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>390863.81099999999</v>
+        <v>388909.49194499996</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="13"/>
@@ -19235,7 +19989,7 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -19766,7 +20520,7 @@
   </sheetPr>
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -20732,31 +21486,31 @@
         <v>1200</v>
       </c>
       <c r="D27" s="46">
-        <v>18.3</v>
+        <v>17</v>
       </c>
       <c r="E27" s="20">
         <f>C27*D27</f>
-        <v>21960</v>
+        <v>20400</v>
       </c>
       <c r="F27" s="20">
         <f>E27*0.002</f>
-        <v>43.92</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="G27" s="20">
         <f>E27*0.00006</f>
-        <v>1.3176000000000001</v>
+        <v>1.224</v>
       </c>
       <c r="H27" s="20">
         <f>E27*0.00001</f>
-        <v>0.21960000000000002</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="I27" s="20">
         <f>(F27+G27+H27)*0.07</f>
-        <v>3.1820040000000005</v>
+        <v>2.9559600000000006</v>
       </c>
       <c r="J27" s="20">
         <f>E27+F27+I27+G27+H27</f>
-        <v>22008.639203999996</v>
+        <v>20445.183959999998</v>
       </c>
       <c r="K27" s="56"/>
       <c r="L27" s="57"/>
@@ -20768,7 +21522,7 @@
       <c r="A28" s="50"/>
       <c r="B28" s="3">
         <f>(D27-D26)/D26</f>
-        <v>-0.54249999999999998</v>
+        <v>-0.57499999999999996</v>
       </c>
       <c r="C28" s="2">
         <f>SUM(C26:C27)</f>
@@ -20776,31 +21530,31 @@
       </c>
       <c r="D28" s="47">
         <f>E28/C28</f>
-        <v>35.799999999999997</v>
+        <v>35.548387096774192</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ref="E28:J28" si="4">SUM(E26:E27)</f>
-        <v>221960</v>
+        <v>220400</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="4"/>
-        <v>443.92</v>
+        <v>440.8</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="4"/>
-        <v>13.317600000000001</v>
+        <v>13.224</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="4"/>
-        <v>2.2195999999999998</v>
+        <v>2.2040000000000002</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="4"/>
-        <v>32.162004000000003</v>
+        <v>31.935960000000005</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="4"/>
-        <v>222451.61920400002</v>
+        <v>220888.16396000001</v>
       </c>
       <c r="K28" s="56"/>
       <c r="L28" s="57"/>
@@ -22569,7 +23323,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -22966,6 +23720,186 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC0A6D1-469B-4A9E-8AB4-B1F9082325E0}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
+    <col min="7" max="7" width="6.75" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="21" customWidth="1"/>
+    <col min="11" max="11" width="5.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="21"/>
+    <col min="13" max="13" width="8.875" style="25"/>
+    <col min="14" max="16384" width="8.875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="A2" s="49">
+        <v>45092</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>9000</v>
+      </c>
+      <c r="D2" s="41">
+        <v>4.96</v>
+      </c>
+      <c r="E2" s="18">
+        <f>C2*D2</f>
+        <v>44640</v>
+      </c>
+      <c r="F2" s="18">
+        <f>E2*0.002</f>
+        <v>89.28</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2*0.00006</f>
+        <v>2.6783999999999999</v>
+      </c>
+      <c r="H2" s="18">
+        <f>E2*0.00001</f>
+        <v>0.44640000000000002</v>
+      </c>
+      <c r="I2" s="18">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>6.4683359999999999</v>
+      </c>
+      <c r="J2" s="18">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>44738.873135999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1">
+      <c r="A3" s="55">
+        <v>44277</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <f>C2</f>
+        <v>9000</v>
+      </c>
+      <c r="D3" s="34">
+        <v>5.2</v>
+      </c>
+      <c r="E3" s="11">
+        <f>C3*D3</f>
+        <v>46800</v>
+      </c>
+      <c r="F3" s="35">
+        <f>E3*0.002</f>
+        <v>93.600000000000009</v>
+      </c>
+      <c r="G3" s="34">
+        <f>E3*0.000068</f>
+        <v>3.1823999999999999</v>
+      </c>
+      <c r="H3" s="34">
+        <f>E3*0.00001</f>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="I3" s="34">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>6.8075280000000014</v>
+      </c>
+      <c r="J3" s="34">
+        <f>E3-F3-G3-H3-I3</f>
+        <v>46695.942072000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="21.75">
+      <c r="A4" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="75">
+        <f>(D3-D2)/D2</f>
+        <v>4.8387096774193589E-2</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="20">
+        <f>E3-E2</f>
+        <v>2160</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
+        <f>J3-J2</f>
+        <v>1957.0689360000106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="12">
+      <c r="A5" s="50"/>
+      <c r="D5" s="47"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1">
+      <c r="A7" s="55"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1">
+      <c r="A8" s="55"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1">
+      <c r="A9" s="55"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FBE3BD-D1CD-48BE-9C86-B7AFE096597B}">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -22993,7 +23927,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1">
@@ -23615,7 +24549,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -23703,7 +24637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9557670-D125-4921-A689-63714DB07995}">
   <dimension ref="A1:M18"/>
   <sheetViews>
@@ -23728,7 +24662,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="19" customFormat="1" ht="16.5">
@@ -24339,7 +25273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC55B7C3-78D7-44E5-8B97-354EA18B466F}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -24364,7 +25298,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="19" customFormat="1" ht="15">
@@ -24638,702 +25572,6 @@
         <v>311490.37855199998</v>
       </c>
       <c r="K8" s="80"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB529E6-7221-4171-9EDF-80891E84F736}">
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="10.125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="16.5">
-      <c r="A2" s="49">
-        <v>44789</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="41">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E2" s="18">
-        <f>C2*D2</f>
-        <v>97000</v>
-      </c>
-      <c r="F2" s="18">
-        <f>E2*0.002</f>
-        <v>194</v>
-      </c>
-      <c r="G2" s="18">
-        <f>E2*0.00006</f>
-        <v>5.82</v>
-      </c>
-      <c r="H2" s="18">
-        <f>E2*0.00001</f>
-        <v>0.97000000000000008</v>
-      </c>
-      <c r="I2" s="18">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>14.055300000000001</v>
-      </c>
-      <c r="J2" s="18">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>97214.845300000015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="77" customFormat="1">
-      <c r="A3" s="81">
-        <v>44818</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="83">
-        <v>5000</v>
-      </c>
-      <c r="D3" s="84">
-        <v>19</v>
-      </c>
-      <c r="E3" s="85">
-        <f>C3*D3</f>
-        <v>95000</v>
-      </c>
-      <c r="F3" s="85">
-        <f>E3*0.002</f>
-        <v>190</v>
-      </c>
-      <c r="G3" s="85">
-        <f>E3*0.000068</f>
-        <v>6.46</v>
-      </c>
-      <c r="H3" s="85">
-        <f>E3*0.00001</f>
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="I3" s="85">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>13.818700000000002</v>
-      </c>
-      <c r="J3" s="85">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>95211.228700000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="77" customFormat="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="86">
-        <f>(D3-D2)/D2</f>
-        <v>-2.0618556701030855E-2</v>
-      </c>
-      <c r="C4" s="83">
-        <f>SUM(C2:C3)</f>
-        <v>10000</v>
-      </c>
-      <c r="D4" s="84">
-        <f>E4/C4</f>
-        <v>19.2</v>
-      </c>
-      <c r="E4" s="83">
-        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>192000</v>
-      </c>
-      <c r="F4" s="83">
-        <f t="shared" si="0"/>
-        <v>384</v>
-      </c>
-      <c r="G4" s="83">
-        <f t="shared" si="0"/>
-        <v>12.280000000000001</v>
-      </c>
-      <c r="H4" s="83">
-        <f t="shared" si="0"/>
-        <v>1.9200000000000002</v>
-      </c>
-      <c r="I4" s="83">
-        <f t="shared" si="0"/>
-        <v>27.874000000000002</v>
-      </c>
-      <c r="J4" s="83">
-        <f t="shared" si="0"/>
-        <v>192426.07400000002</v>
-      </c>
-      <c r="K4" s="80"/>
-    </row>
-    <row r="5" spans="1:14" s="77" customFormat="1">
-      <c r="A5" s="81">
-        <v>44880</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="83">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="84">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E5" s="85">
-        <f>C5*D5</f>
-        <v>186000</v>
-      </c>
-      <c r="F5" s="85">
-        <f>E5*0.002</f>
-        <v>372</v>
-      </c>
-      <c r="G5" s="85">
-        <f>E5*0.000068</f>
-        <v>12.648</v>
-      </c>
-      <c r="H5" s="85">
-        <f>E5*0.00001</f>
-        <v>1.86</v>
-      </c>
-      <c r="I5" s="85">
-        <f>(F5+G5+H5)*0.07</f>
-        <v>27.055560000000007</v>
-      </c>
-      <c r="J5" s="85">
-        <f>E5+F5+I5+G5+H5</f>
-        <v>186413.56355999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="77" customFormat="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="86">
-        <f>(D5-D4)/D4</f>
-        <v>-3.1249999999999889E-2</v>
-      </c>
-      <c r="C6" s="83">
-        <f>SUM(C4:C5)</f>
-        <v>20000</v>
-      </c>
-      <c r="D6" s="84">
-        <f>E6/C6</f>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E6" s="83">
-        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>378000</v>
-      </c>
-      <c r="F6" s="83">
-        <f t="shared" si="1"/>
-        <v>756</v>
-      </c>
-      <c r="G6" s="83">
-        <f t="shared" si="1"/>
-        <v>24.928000000000001</v>
-      </c>
-      <c r="H6" s="83">
-        <f t="shared" si="1"/>
-        <v>3.7800000000000002</v>
-      </c>
-      <c r="I6" s="83">
-        <f t="shared" si="1"/>
-        <v>54.929560000000009</v>
-      </c>
-      <c r="J6" s="83">
-        <f t="shared" si="1"/>
-        <v>378839.63756</v>
-      </c>
-      <c r="K6" s="80"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="81">
-        <v>44950</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="83">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="84">
-        <v>19.5</v>
-      </c>
-      <c r="E7" s="85">
-        <f>C7*D7</f>
-        <v>195000</v>
-      </c>
-      <c r="F7" s="85">
-        <f>E7*0.002</f>
-        <v>390</v>
-      </c>
-      <c r="G7" s="85">
-        <f>E7*0.000068</f>
-        <v>13.26</v>
-      </c>
-      <c r="H7" s="85">
-        <f>E7*0.00001</f>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="I7" s="85">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>28.364700000000003</v>
-      </c>
-      <c r="J7" s="85">
-        <f>E7+F7+I7+G7+H7</f>
-        <v>195433.57470000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="62" customFormat="1" ht="21.75">
-      <c r="A8" s="81"/>
-      <c r="B8" s="86">
-        <f>(D7-D6)/D6</f>
-        <v>3.1746031746031821E-2</v>
-      </c>
-      <c r="C8" s="83">
-        <f>SUM(C6:C7)</f>
-        <v>30000</v>
-      </c>
-      <c r="D8" s="84">
-        <f>E8/C8</f>
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E8" s="83">
-        <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>573000</v>
-      </c>
-      <c r="F8" s="83">
-        <f t="shared" si="2"/>
-        <v>1146</v>
-      </c>
-      <c r="G8" s="83">
-        <f t="shared" si="2"/>
-        <v>38.188000000000002</v>
-      </c>
-      <c r="H8" s="83">
-        <f t="shared" si="2"/>
-        <v>5.73</v>
-      </c>
-      <c r="I8" s="83">
-        <f t="shared" si="2"/>
-        <v>83.294260000000008</v>
-      </c>
-      <c r="J8" s="83">
-        <f t="shared" si="2"/>
-        <v>574273.21226000006</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="81">
-        <v>44964</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="83">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="84">
-        <v>18.3</v>
-      </c>
-      <c r="E9" s="85">
-        <f>C9*D9</f>
-        <v>183000</v>
-      </c>
-      <c r="F9" s="85">
-        <f>E9*0.002</f>
-        <v>366</v>
-      </c>
-      <c r="G9" s="85">
-        <f>E9*0.000068</f>
-        <v>12.443999999999999</v>
-      </c>
-      <c r="H9" s="85">
-        <f>E9*0.00001</f>
-        <v>1.83</v>
-      </c>
-      <c r="I9" s="85">
-        <f>(F9+G9+H9)*0.07</f>
-        <v>26.619180000000004</v>
-      </c>
-      <c r="J9" s="85">
-        <f>E9+F9+I9+G9+H9</f>
-        <v>183406.89317999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="81"/>
-      <c r="B10" s="86">
-        <f>(D9-D8)/D8</f>
-        <v>-4.1884816753926739E-2</v>
-      </c>
-      <c r="C10" s="83">
-        <f>SUM(C8:C9)</f>
-        <v>40000</v>
-      </c>
-      <c r="D10" s="84">
-        <f>E10/C10</f>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E10" s="83">
-        <f t="shared" ref="E10:J10" si="3">SUM(E8:E9)</f>
-        <v>756000</v>
-      </c>
-      <c r="F10" s="83">
-        <f t="shared" si="3"/>
-        <v>1512</v>
-      </c>
-      <c r="G10" s="83">
-        <f t="shared" si="3"/>
-        <v>50.632000000000005</v>
-      </c>
-      <c r="H10" s="83">
-        <f t="shared" si="3"/>
-        <v>7.5600000000000005</v>
-      </c>
-      <c r="I10" s="83">
-        <f t="shared" si="3"/>
-        <v>109.91344000000001</v>
-      </c>
-      <c r="J10" s="83">
-        <f t="shared" si="3"/>
-        <v>757680.10544000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="12.75">
-      <c r="A11" s="81">
-        <v>44986</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="83">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="84">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E11" s="85">
-        <f>C11*D11</f>
-        <v>164000</v>
-      </c>
-      <c r="F11" s="85">
-        <f>E11*0.002</f>
-        <v>328</v>
-      </c>
-      <c r="G11" s="85">
-        <f>E11*0.000068</f>
-        <v>11.151999999999999</v>
-      </c>
-      <c r="H11" s="85">
-        <f>E11*0.00001</f>
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="I11" s="85">
-        <f>(F11+G11+H11)*0.07</f>
-        <v>23.855440000000002</v>
-      </c>
-      <c r="J11" s="85">
-        <f>E11+F11+I11+G11+H11</f>
-        <v>164364.64744000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="12.75">
-      <c r="A12" s="81"/>
-      <c r="B12" s="86">
-        <f>(D11-D10)/D10</f>
-        <v>-0.1322751322751323</v>
-      </c>
-      <c r="C12" s="83">
-        <f>SUM(C10:C11)</f>
-        <v>50000</v>
-      </c>
-      <c r="D12" s="84">
-        <f>E12/C12</f>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E12" s="83">
-        <f t="shared" ref="E12:J12" si="4">SUM(E10:E11)</f>
-        <v>920000</v>
-      </c>
-      <c r="F12" s="83">
-        <f t="shared" si="4"/>
-        <v>1840</v>
-      </c>
-      <c r="G12" s="83">
-        <f t="shared" si="4"/>
-        <v>61.784000000000006</v>
-      </c>
-      <c r="H12" s="83">
-        <f t="shared" si="4"/>
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="I12" s="83">
-        <f t="shared" si="4"/>
-        <v>133.76888000000002</v>
-      </c>
-      <c r="J12" s="83">
-        <f t="shared" si="4"/>
-        <v>922044.75288000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="12.75">
-      <c r="A13" s="81">
-        <v>44994</v>
-      </c>
-      <c r="B13" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="83">
-        <v>5000</v>
-      </c>
-      <c r="D13" s="84">
-        <v>14</v>
-      </c>
-      <c r="E13" s="85">
-        <f>C13*D13</f>
-        <v>70000</v>
-      </c>
-      <c r="F13" s="85">
-        <f>E13*0.002</f>
-        <v>140</v>
-      </c>
-      <c r="G13" s="85">
-        <f>E13*0.000068</f>
-        <v>4.76</v>
-      </c>
-      <c r="H13" s="85">
-        <f>E13*0.00001</f>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="I13" s="85">
-        <f>(F13+G13+H13)*0.07</f>
-        <v>10.1822</v>
-      </c>
-      <c r="J13" s="85">
-        <f>E13+F13+I13+G13+H13</f>
-        <v>70155.642199999987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="12.75">
-      <c r="A14" s="81"/>
-      <c r="B14" s="86">
-        <f>(D13-D12)/D12</f>
-        <v>-0.23913043478260865</v>
-      </c>
-      <c r="C14" s="83">
-        <f>SUM(C12:C13)</f>
-        <v>55000</v>
-      </c>
-      <c r="D14" s="84">
-        <f>E14/C14</f>
-        <v>18</v>
-      </c>
-      <c r="E14" s="83">
-        <f t="shared" ref="E14:J14" si="5">SUM(E12:E13)</f>
-        <v>990000</v>
-      </c>
-      <c r="F14" s="83">
-        <f t="shared" si="5"/>
-        <v>1980</v>
-      </c>
-      <c r="G14" s="83">
-        <f t="shared" si="5"/>
-        <v>66.544000000000011</v>
-      </c>
-      <c r="H14" s="83">
-        <f t="shared" si="5"/>
-        <v>9.9</v>
-      </c>
-      <c r="I14" s="83">
-        <f t="shared" si="5"/>
-        <v>143.95108000000002</v>
-      </c>
-      <c r="J14" s="83">
-        <f t="shared" si="5"/>
-        <v>992200.39508000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="12.75">
-      <c r="A15" s="81">
-        <v>44998</v>
-      </c>
-      <c r="B15" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="83">
-        <v>5000</v>
-      </c>
-      <c r="D15" s="84">
-        <v>12.6</v>
-      </c>
-      <c r="E15" s="85">
-        <f>C15*D15</f>
-        <v>63000</v>
-      </c>
-      <c r="F15" s="85">
-        <f>E15*0.002</f>
-        <v>126</v>
-      </c>
-      <c r="G15" s="85">
-        <f>E15*0.000068</f>
-        <v>4.2839999999999998</v>
-      </c>
-      <c r="H15" s="85">
-        <f>E15*0.00001</f>
-        <v>0.63</v>
-      </c>
-      <c r="I15" s="85">
-        <f>(F15+G15+H15)*0.07</f>
-        <v>9.1639800000000005</v>
-      </c>
-      <c r="J15" s="85">
-        <f>E15+F15+I15+G15+H15</f>
-        <v>63140.077979999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="12.75">
-      <c r="A16" s="81"/>
-      <c r="B16" s="86">
-        <f>(D15-D14)/D14</f>
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="C16" s="83">
-        <f>SUM(C14:C15)</f>
-        <v>60000</v>
-      </c>
-      <c r="D16" s="84">
-        <f>E16/C16</f>
-        <v>17.55</v>
-      </c>
-      <c r="E16" s="83">
-        <f t="shared" ref="E16:J16" si="6">SUM(E14:E15)</f>
-        <v>1053000</v>
-      </c>
-      <c r="F16" s="83">
-        <f t="shared" si="6"/>
-        <v>2106</v>
-      </c>
-      <c r="G16" s="83">
-        <f t="shared" si="6"/>
-        <v>70.828000000000017</v>
-      </c>
-      <c r="H16" s="83">
-        <f t="shared" si="6"/>
-        <v>10.530000000000001</v>
-      </c>
-      <c r="I16" s="83">
-        <f t="shared" si="6"/>
-        <v>153.11506000000003</v>
-      </c>
-      <c r="J16" s="83">
-        <f t="shared" si="6"/>
-        <v>1055340.47306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="76">
-        <v>44964</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="78">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="79">
-        <v>11.7</v>
-      </c>
-      <c r="E17" s="92">
-        <f>C17*D17</f>
-        <v>58500</v>
-      </c>
-      <c r="F17" s="92">
-        <f>E17*0.002</f>
-        <v>117</v>
-      </c>
-      <c r="G17" s="92">
-        <f>E17*0.000068</f>
-        <v>3.9779999999999998</v>
-      </c>
-      <c r="H17" s="92">
-        <f>E17*0.00001</f>
-        <v>0.58500000000000008</v>
-      </c>
-      <c r="I17" s="92">
-        <f>(F17+G17+H17)*0.07</f>
-        <v>8.5094100000000008</v>
-      </c>
-      <c r="J17" s="92">
-        <f>E17+F17+I17+G17+H17</f>
-        <v>58630.072410000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="76"/>
-      <c r="B18" s="80">
-        <f>(D17-D16)/D16</f>
-        <v>-0.33333333333333343</v>
-      </c>
-      <c r="C18" s="78">
-        <f>SUM(C16:C17)</f>
-        <v>65000</v>
-      </c>
-      <c r="D18" s="79">
-        <f>E18/C18</f>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="E18" s="78">
-        <f t="shared" ref="E18:J18" si="7">SUM(E16:E17)</f>
-        <v>1111500</v>
-      </c>
-      <c r="F18" s="78">
-        <f t="shared" si="7"/>
-        <v>2223</v>
-      </c>
-      <c r="G18" s="78">
-        <f t="shared" si="7"/>
-        <v>74.806000000000012</v>
-      </c>
-      <c r="H18" s="78">
-        <f t="shared" si="7"/>
-        <v>11.115000000000002</v>
-      </c>
-      <c r="I18" s="78">
-        <f t="shared" si="7"/>
-        <v>161.62447000000003</v>
-      </c>
-      <c r="J18" s="78">
-        <f t="shared" si="7"/>
-        <v>1113970.54547</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_141A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12812" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A3E8CEB-EBBE-4CEE-BFB1-F92322FB4C81}"/>
+  <xr:revisionPtr revIDLastSave="12931" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BD046C9-C242-4808-B66D-7C8FCE9E2001}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="461" firstSheet="10" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="461" firstSheet="28" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="36">
   <si>
     <t>KCE</t>
   </si>
@@ -2634,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB529E6-7221-4171-9EDF-80891E84F736}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD25"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -3538,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5381,31 +5381,31 @@
         <v>2000</v>
       </c>
       <c r="D52" s="34">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E52" s="11">
         <f>C52*D52</f>
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="F52" s="35">
         <f>E52*0.002</f>
-        <v>44.4</v>
+        <v>44.800000000000004</v>
       </c>
       <c r="G52" s="34">
         <f>E52*0.000068</f>
-        <v>1.5096000000000001</v>
+        <v>1.5231999999999999</v>
       </c>
       <c r="H52" s="34">
         <f>E52*0.00001</f>
-        <v>0.22200000000000003</v>
+        <v>0.224</v>
       </c>
       <c r="I52" s="34">
         <f>(F52+G52+H52)*0.07</f>
-        <v>3.2292120000000004</v>
+        <v>3.2583040000000008</v>
       </c>
       <c r="J52" s="34">
         <f>E52-F52-G52-H52-I52</f>
-        <v>22150.639187999997</v>
+        <v>22350.194496000004</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="31" customFormat="1" ht="18.75">
@@ -5417,7 +5417,7 @@
       <c r="D53" s="11"/>
       <c r="E53" s="20">
         <f>E52-E51</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
@@ -5425,7 +5425,7 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20">
         <f>J52-J51</f>
-        <v>903.50183599999946</v>
+        <v>1103.0571440000058</v>
       </c>
       <c r="K53" s="12"/>
     </row>
@@ -5439,10 +5439,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05574364-77F0-49AB-A1F4-209718CEC5C7}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>
@@ -5460,134 +5460,113 @@
     <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25">
+    <row r="1" spans="1:13" ht="14.25">
       <c r="B1" s="50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="15">
-      <c r="A2" s="55">
-        <v>45078</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
+    <row r="2" spans="1:13" s="19" customFormat="1" ht="15">
+      <c r="A2" s="49">
+        <v>45103</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
         <v>400</v>
       </c>
-      <c r="D2" s="46">
-        <v>61</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="D2" s="41">
+        <v>53</v>
+      </c>
+      <c r="E2" s="18">
         <f>C2*D2</f>
-        <v>24400</v>
-      </c>
-      <c r="F2" s="20">
+        <v>21200</v>
+      </c>
+      <c r="F2" s="18">
         <f>E2*0.002</f>
-        <v>48.800000000000004</v>
-      </c>
-      <c r="G2" s="20">
+        <v>42.4</v>
+      </c>
+      <c r="G2" s="18">
         <f>E2*0.00006</f>
-        <v>1.464</v>
-      </c>
-      <c r="H2" s="20">
+        <v>1.272</v>
+      </c>
+      <c r="H2" s="18">
         <f>E2*0.00001</f>
-        <v>0.24400000000000002</v>
-      </c>
-      <c r="I2" s="20">
+        <v>0.21200000000000002</v>
+      </c>
+      <c r="I2" s="18">
         <f>(F2+G2+H2)*0.07</f>
-        <v>3.5355600000000007</v>
-      </c>
-      <c r="J2" s="20">
+        <v>3.0718800000000002</v>
+      </c>
+      <c r="J2" s="18">
         <f>E2+F2+I2+G2+H2</f>
-        <v>24454.043559999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="12.75">
-      <c r="A3" s="66">
-        <v>44952</v>
+        <v>21246.955880000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="12.75">
+      <c r="A3" s="8">
+        <v>45085</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="10">
+        <f>C2</f>
         <v>400</v>
       </c>
-      <c r="D3" s="11">
-        <v>57</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="D3" s="34">
+        <v>55.75</v>
+      </c>
+      <c r="E3" s="11">
         <f>C3*D3</f>
-        <v>22800</v>
-      </c>
-      <c r="F3" s="20">
+        <v>22300</v>
+      </c>
+      <c r="F3" s="35">
         <f>E3*0.002</f>
-        <v>45.6</v>
-      </c>
-      <c r="G3" s="20">
-        <f>E3*0.00006</f>
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="H3" s="20">
+        <v>44.6</v>
+      </c>
+      <c r="G3" s="34">
+        <f>E3*0.000068</f>
+        <v>1.5164</v>
+      </c>
+      <c r="H3" s="34">
         <f>E3*0.00001</f>
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="I3" s="20">
+        <v>0.22300000000000003</v>
+      </c>
+      <c r="I3" s="34">
         <f>(F3+G3+H3)*0.07</f>
-        <v>3.3037200000000007</v>
-      </c>
-      <c r="J3" s="20">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>22850.499719999996</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="62" customFormat="1" ht="21.75">
-      <c r="A4" s="55"/>
+        <v>3.2437580000000001</v>
+      </c>
+      <c r="J3" s="34">
+        <f>E3-F3-G3-H3-I3</f>
+        <v>22250.416841999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="31" customFormat="1" ht="21.75">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="75">
         <f>(D3-D2)/D2</f>
-        <v>-6.5573770491803282E-2</v>
-      </c>
-      <c r="C4" s="10">
-        <f>SUM(C2:C3)</f>
-        <v>800</v>
-      </c>
-      <c r="D4" s="63">
-        <f>E4/C4</f>
-        <v>59</v>
-      </c>
-      <c r="E4" s="10">
-        <f>SUM(E2:E3)</f>
-        <v>47200</v>
-      </c>
-      <c r="F4" s="10">
-        <f>SUM(F2:F3)</f>
-        <v>94.4</v>
-      </c>
-      <c r="G4" s="10">
-        <f>SUM(G2:G3)</f>
-        <v>2.8319999999999999</v>
-      </c>
-      <c r="H4" s="10">
-        <f>SUM(H2:H3)</f>
-        <v>0.47200000000000003</v>
-      </c>
-      <c r="I4" s="10">
-        <f>SUM(I2:I3)</f>
-        <v>6.8392800000000014</v>
-      </c>
-      <c r="J4" s="10">
-        <f>SUM(J2:J3)</f>
-        <v>47304.543279999998</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-    </row>
-    <row r="5" spans="1:14" s="77" customFormat="1" ht="14.25">
+        <v>5.1886792452830191E-2</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="20">
+        <f>E3-E2</f>
+        <v>1100</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
+        <f>J3-J2</f>
+        <v>1003.4609619999974</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" s="77" customFormat="1" ht="14.25">
       <c r="A5" s="81"/>
       <c r="B5" s="82"/>
       <c r="C5" s="83"/>
@@ -5599,7 +5578,7 @@
       <c r="I5" s="85"/>
       <c r="J5" s="85"/>
     </row>
-    <row r="6" spans="1:14" s="19" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="16.5">
       <c r="A6" s="49">
         <v>45078</v>
       </c>
@@ -5637,7 +5616,7 @@
         <v>24454.043559999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" ht="12.75">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="12.75">
       <c r="A7" s="14">
         <v>45085</v>
       </c>
@@ -5676,7 +5655,7 @@
         <v>25543.079424</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="31" customFormat="1" ht="21">
+    <row r="8" spans="1:13" s="31" customFormat="1" ht="21">
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
@@ -5700,7 +5679,7 @@
       </c>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="14.25">
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="14.25">
       <c r="A9" s="49"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -5712,7 +5691,7 @@
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="1:14" s="31" customFormat="1" ht="18.75">
+    <row r="10" spans="1:13" s="31" customFormat="1" ht="18.75">
       <c r="A10" s="28"/>
       <c r="B10" s="30"/>
       <c r="C10" s="16"/>
@@ -5740,7 +5719,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6176,29 +6155,84 @@
         <v>267593.66382000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="12.75">
-      <c r="A13" s="55"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:14" ht="12.75">
-      <c r="A14" s="55"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+    <row r="13" spans="1:14" s="21" customFormat="1" ht="12.75">
+      <c r="A13" s="8">
+        <v>44944</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="E13" s="20">
+        <f>C13*D13</f>
+        <v>81000</v>
+      </c>
+      <c r="F13" s="20">
+        <f>E13*0.002</f>
+        <v>162</v>
+      </c>
+      <c r="G13" s="20">
+        <f>E13*0.000068</f>
+        <v>5.508</v>
+      </c>
+      <c r="H13" s="20">
+        <f>E13*0.00001</f>
+        <v>0.81</v>
+      </c>
+      <c r="I13" s="20">
+        <f>(F13+G13+H13)*0.07</f>
+        <v>11.782260000000003</v>
+      </c>
+      <c r="J13" s="20">
+        <f>E13+F13+I13+G13+H13</f>
+        <v>81180.100260000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="21" customFormat="1" ht="12.75">
+      <c r="A14" s="44"/>
+      <c r="B14" s="25">
+        <f>(D13-D12)/D12</f>
+        <v>-8.9887640449438283E-2</v>
+      </c>
+      <c r="C14" s="22">
+        <f>SUM(C12:C13)</f>
+        <v>40000</v>
+      </c>
+      <c r="D14" s="64">
+        <f>E14/C14</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E14" s="22">
+        <f t="shared" ref="E14:J14" si="3">SUM(E12:E13)</f>
+        <v>348000</v>
+      </c>
+      <c r="F14" s="22">
+        <f t="shared" si="3"/>
+        <v>696</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="3"/>
+        <v>23.663999999999998</v>
+      </c>
+      <c r="H14" s="22">
+        <f t="shared" si="3"/>
+        <v>3.4800000000000004</v>
+      </c>
+      <c r="I14" s="22">
+        <f t="shared" si="3"/>
+        <v>50.620080000000002</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="3"/>
+        <v>348773.76407999999</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:14" s="62" customFormat="1" ht="21.75">
       <c r="A15" s="55">
@@ -8257,10 +8291,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61165D-6E4D-45AE-A027-1F0635508A9D}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -8635,111 +8669,188 @@
         <v>261578.08889999997</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12.75"/>
-    <row r="12" spans="1:13" s="13" customFormat="1" ht="12.75">
-      <c r="A12" s="8">
+    <row r="11" spans="1:13" ht="12.75">
+      <c r="A11" s="55">
+        <v>45098</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1800</v>
+      </c>
+      <c r="D11" s="46">
+        <v>12.5</v>
+      </c>
+      <c r="E11" s="20">
+        <f>C11*D11</f>
+        <v>22500</v>
+      </c>
+      <c r="F11" s="20">
+        <f>E11*0.002</f>
+        <v>45</v>
+      </c>
+      <c r="G11" s="20">
+        <f>E11*0.00006</f>
+        <v>1.35</v>
+      </c>
+      <c r="H11" s="20">
+        <f>E11*0.00001</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I11" s="20">
+        <f>(F11+G11+H11)*0.07</f>
+        <v>3.2602500000000005</v>
+      </c>
+      <c r="J11" s="20">
+        <f>E11+F11+I11+G11+H11</f>
+        <v>22549.835249999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12.75">
+      <c r="A12" s="55"/>
+      <c r="B12" s="12">
+        <f>(D11-D10)/D10</f>
+        <v>-0.56896551724137934</v>
+      </c>
+      <c r="C12" s="10">
+        <f>SUM(C10:C11)</f>
+        <v>10800</v>
+      </c>
+      <c r="D12" s="63">
+        <f>E12/C12</f>
+        <v>26.25</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" ref="E12:J12" si="4">SUM(E10:E11)</f>
+        <v>283500</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="4"/>
+        <v>567.00000000000011</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="4"/>
+        <v>17.010000000000002</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="4"/>
+        <v>2.8350000000000004</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="4"/>
+        <v>41.079150000000006</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="4"/>
+        <v>284127.92414999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.75"/>
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="12.75">
+      <c r="A14" s="8">
         <v>44740</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
         <f>C9</f>
         <v>1800</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D14" s="63">
         <f>D9</f>
         <v>17</v>
       </c>
-      <c r="E12" s="20">
-        <f>C12*D12</f>
+      <c r="E14" s="20">
+        <f>C14*D14</f>
         <v>30600</v>
       </c>
-      <c r="F12" s="20">
-        <f>E12*0.002</f>
+      <c r="F14" s="20">
+        <f>E14*0.002</f>
         <v>61.2</v>
       </c>
-      <c r="G12" s="20">
-        <f>E12*0.000068</f>
+      <c r="G14" s="20">
+        <f>E14*0.000068</f>
         <v>2.0808</v>
       </c>
-      <c r="H12" s="20">
-        <f>E12*0.00001</f>
+      <c r="H14" s="20">
+        <f>E14*0.00001</f>
         <v>0.30600000000000005</v>
       </c>
-      <c r="I12" s="20">
-        <f>(F12+G12+H12)*0.07</f>
+      <c r="I14" s="20">
+        <f>(F14+G14+H14)*0.07</f>
         <v>4.4510760000000005</v>
       </c>
-      <c r="J12" s="20">
-        <f>E12+F12+I12+G12+H12</f>
+      <c r="J14" s="20">
+        <f>E14+F14+I14+G14+H14</f>
         <v>30668.037876000002</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12.75">
-      <c r="A13" s="55">
+    <row r="15" spans="1:13" ht="12.75">
+      <c r="A15" s="55">
         <v>44741</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10">
-        <f>C12</f>
+      <c r="C15" s="10">
+        <f>C14</f>
         <v>1800</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D15" s="34">
         <v>17.899999999999999</v>
       </c>
-      <c r="E13" s="11">
-        <f>C13*D13</f>
+      <c r="E15" s="11">
+        <f>C15*D15</f>
         <v>32219.999999999996</v>
       </c>
-      <c r="F13" s="35">
-        <f>E13*0.002</f>
+      <c r="F15" s="35">
+        <f>E15*0.002</f>
         <v>64.44</v>
       </c>
-      <c r="G13" s="34">
-        <f>E13*0.000068</f>
+      <c r="G15" s="34">
+        <f>E15*0.000068</f>
         <v>2.1909599999999996</v>
       </c>
-      <c r="H13" s="34">
-        <f>E13*0.00001</f>
+      <c r="H15" s="34">
+        <f>E15*0.00001</f>
         <v>0.32219999999999999</v>
       </c>
-      <c r="I13" s="34">
-        <f>(F13+G13+H13)*0.07</f>
+      <c r="I15" s="34">
+        <f>(F15+G15+H15)*0.07</f>
         <v>4.6867212</v>
       </c>
-      <c r="J13" s="34">
-        <f>E13-F13-G13-H13-I13</f>
+      <c r="J15" s="34">
+        <f>E15-F15-G15-H15-I15</f>
         <v>32148.360118799999</v>
       </c>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:13" ht="12.75">
-      <c r="A14" s="9">
-        <f>DAYS360(A12,A13)</f>
-        <v>1</v>
-      </c>
-      <c r="B14" s="12">
-        <f>(D13-D12)/D12</f>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75">
+      <c r="A16" s="9">
+        <f>DAYS360(A14,A15)</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="12">
+        <f>(D15-D14)/D14</f>
         <v>5.2941176470588151E-2</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="20">
-        <f>E13-E12</f>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="20">
+        <f>E15-E14</f>
         <v>1619.9999999999964</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20">
-        <f>J13-J12</f>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
+        <f>J15-J14</f>
         <v>1480.3222427999972</v>
       </c>
-      <c r="M14" s="21"/>
+      <c r="M16" s="21"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -8751,10 +8862,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9A6BF-841A-4E49-8659-89A8DE11562A}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -9316,8 +9427,81 @@
         <v>306566.57848200004</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12.75">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:10" ht="12.75">
+      <c r="A17" s="55">
+        <v>45096</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>900</v>
+      </c>
+      <c r="D17" s="46">
+        <v>33</v>
+      </c>
+      <c r="E17" s="61">
+        <f>C17*D17</f>
+        <v>29700</v>
+      </c>
+      <c r="F17" s="20">
+        <f>E17*0.002</f>
+        <v>59.4</v>
+      </c>
+      <c r="G17" s="20">
+        <f>E17*0.00006</f>
+        <v>1.782</v>
+      </c>
+      <c r="H17" s="20">
+        <f>E17*0.00001</f>
+        <v>0.29700000000000004</v>
+      </c>
+      <c r="I17" s="20">
+        <f>(F17+G17+H17)*0.07</f>
+        <v>4.3035300000000003</v>
+      </c>
+      <c r="J17" s="61">
+        <f>E17+F17+I17+G17+H17</f>
+        <v>29765.78253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75">
+      <c r="B18" s="12">
+        <f>(D17-D16)/D16</f>
+        <v>-0.35294117647058826</v>
+      </c>
+      <c r="C18" s="10">
+        <f>SUM(C16:C17)</f>
+        <v>6900</v>
+      </c>
+      <c r="D18" s="63">
+        <f>E18/C18</f>
+        <v>48.652173913043477</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" ref="E18:J18" si="3">SUM(E16:E17)</f>
+        <v>335700</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="3"/>
+        <v>668.7</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="3"/>
+        <v>20.061</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="3"/>
+        <v>3.3435000000000006</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="3"/>
+        <v>48.44731500000001</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="3"/>
+        <v>336332.36101200007</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -9629,8 +9813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -11596,72 +11780,72 @@
         <v>1</v>
       </c>
       <c r="C58" s="10">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D58" s="63">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="E58" s="20">
         <f>C58*D58</f>
-        <v>20100</v>
+        <v>24000</v>
       </c>
       <c r="F58" s="20">
         <f>E58*0.002</f>
-        <v>40.200000000000003</v>
+        <v>48</v>
       </c>
       <c r="G58" s="20">
         <f>E58*0.000068</f>
-        <v>1.3668</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="H58" s="20">
         <f>E58*0.00001</f>
-        <v>0.20100000000000001</v>
+        <v>0.24000000000000002</v>
       </c>
       <c r="I58" s="20">
         <f>(F58+G58+H58)*0.07</f>
-        <v>2.9237460000000004</v>
+        <v>3.4910400000000004</v>
       </c>
       <c r="J58" s="20">
         <f>E58+F58+I58+G58+H58</f>
-        <v>20144.691546000002</v>
+        <v>24053.363040000004</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="B59" s="12">
         <f>(D58-D57)/D57</f>
-        <v>-0.55629139072847678</v>
+        <v>-0.60264900662251653</v>
       </c>
       <c r="C59" s="22">
         <f>SUM(C57:C58)</f>
-        <v>81000</v>
+        <v>82000</v>
       </c>
       <c r="D59" s="64">
         <f>E59/C59</f>
-        <v>14.78888888888889</v>
+        <v>14.65609756097561</v>
       </c>
       <c r="E59" s="24">
         <f t="shared" ref="E59:J59" si="18">SUM(E57:E58)</f>
-        <v>1197900</v>
+        <v>1201800</v>
       </c>
       <c r="F59" s="24">
         <f t="shared" si="18"/>
-        <v>2395.7999999999997</v>
+        <v>2403.6</v>
       </c>
       <c r="G59" s="24">
         <f t="shared" si="18"/>
-        <v>81.4572</v>
+        <v>81.722400000000007</v>
       </c>
       <c r="H59" s="24">
         <f t="shared" si="18"/>
-        <v>11.979000000000001</v>
+        <v>12.018000000000001</v>
       </c>
       <c r="I59" s="24">
         <f t="shared" si="18"/>
-        <v>174.246534</v>
+        <v>174.813828</v>
       </c>
       <c r="J59" s="24">
         <f t="shared" si="18"/>
-        <v>1200563.4827339998</v>
+        <v>1204472.1542279997</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="12.75"/>
@@ -13723,7 +13907,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -14061,70 +14245,70 @@
         <v>5000</v>
       </c>
       <c r="D10" s="46">
-        <v>4.54</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E10" s="20">
         <f>C10*D10</f>
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="F10" s="20">
         <f>E10*0.002</f>
-        <v>45.4</v>
+        <v>44</v>
       </c>
       <c r="G10" s="20">
         <f>E10*0.00006</f>
-        <v>1.3620000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="H10" s="20">
         <f>E10*0.00001</f>
-        <v>0.22700000000000001</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="I10" s="20">
         <f>(F10+G10+H10)*0.07</f>
-        <v>3.2892300000000003</v>
+        <v>3.1878000000000002</v>
       </c>
       <c r="J10" s="20">
         <f>E10+F10+I10+G10+H10</f>
-        <v>22750.27823</v>
+        <v>22048.727800000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="12.75">
       <c r="A11" s="55"/>
       <c r="B11" s="12">
         <f>(D10-D9)/D9</f>
-        <v>-0.39060402684563761</v>
+        <v>-0.40939597315436238</v>
       </c>
       <c r="C11" s="10">
         <f>SUM(C9:C10)</f>
         <v>32000</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="63">
         <f>E11/C11</f>
-        <v>6.9953124999999998</v>
+        <v>6.9734375000000002</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" ref="E11:J11" si="3">SUM(E9:E10)</f>
-        <v>223850</v>
+        <v>223150</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="3"/>
-        <v>447.7</v>
+        <v>446.3</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="3"/>
-        <v>13.431000000000001</v>
+        <v>13.389000000000001</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="3"/>
-        <v>2.2385000000000002</v>
+        <v>2.2315000000000005</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" si="3"/>
-        <v>32.435865000000007</v>
+        <v>32.334435000000006</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="3"/>
-        <v>224345.80536499998</v>
+        <v>223644.25493499998</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.75">
@@ -14712,73 +14896,73 @@
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D11" s="46">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="E11" s="61">
         <f>C11*D11</f>
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="F11" s="20">
         <f>E11*0.002</f>
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G11" s="20">
         <f>E11*0.00006</f>
-        <v>1.8</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="H11" s="20">
         <f>E11*0.00001</f>
-        <v>0.30000000000000004</v>
+        <v>0.19</v>
       </c>
       <c r="I11" s="20">
         <f>(F11+G11+H11)*0.07</f>
-        <v>4.3470000000000004</v>
+        <v>2.7531000000000003</v>
       </c>
       <c r="J11" s="61">
         <f>E11+F11+I11+G11+H11</f>
-        <v>30066.447</v>
+        <v>19042.0831</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="12.75">
       <c r="A12" s="55"/>
       <c r="B12" s="12">
         <f>(D11-D10)/D10</f>
-        <v>-9.0909090909090912E-2</v>
+        <v>-0.13636363636363635</v>
       </c>
       <c r="C12" s="10">
         <f>SUM(C9:C11)</f>
-        <v>48000</v>
-      </c>
-      <c r="D12" s="11">
+        <v>47000</v>
+      </c>
+      <c r="D12" s="63">
         <f>E12/C12</f>
         <v>11</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" ref="E12:J12" si="2">SUM(E9:E11)</f>
-        <v>528000</v>
+        <v>517000</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="2"/>
-        <v>1050</v>
+        <v>1028</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="2"/>
-        <v>31.500000000000004</v>
+        <v>30.840000000000003</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="2"/>
-        <v>5.25</v>
+        <v>5.1400000000000006</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="2"/>
-        <v>76.072499999999991</v>
+        <v>74.4786</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="2"/>
-        <v>529020.33830399998</v>
+        <v>517995.97440399998</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="13" customFormat="1">
@@ -17525,38 +17709,38 @@
         <v>3000</v>
       </c>
       <c r="D7" s="46">
-        <v>9.65</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E7" s="20">
         <f>C7*D7</f>
-        <v>28950</v>
+        <v>24900.000000000004</v>
       </c>
       <c r="F7" s="20">
         <f>E7*0.002</f>
-        <v>57.9</v>
+        <v>49.800000000000011</v>
       </c>
       <c r="G7" s="20">
         <f>E7*0.00006</f>
-        <v>1.7370000000000001</v>
+        <v>1.4940000000000002</v>
       </c>
       <c r="H7" s="20">
         <f>E7*0.00001</f>
-        <v>0.28950000000000004</v>
+        <v>0.24900000000000005</v>
       </c>
       <c r="I7" s="20">
         <f>(F7+G7+H7)*0.07</f>
-        <v>4.1948550000000004</v>
+        <v>3.6080100000000015</v>
       </c>
       <c r="J7" s="20">
         <f>E7+F7+I7+G7+H7</f>
-        <v>29014.121355000003</v>
+        <v>24955.151010000001</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1">
       <c r="A8" s="55"/>
       <c r="B8" s="12">
         <f>(D7-D6)/D6</f>
-        <v>-0.61088709677419351</v>
+        <v>-0.66532258064516125</v>
       </c>
       <c r="C8" s="10">
         <f>SUM(C6:C7)</f>
@@ -17564,31 +17748,31 @@
       </c>
       <c r="D8" s="63">
         <f>E8/C8</f>
-        <v>19.75</v>
+        <v>19.3</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>177750</v>
+        <v>173700</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="2"/>
-        <v>355.5</v>
+        <v>347.40000000000003</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>10.665000000000001</v>
+        <v>10.422000000000001</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>1.7775000000000001</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>25.755975000000003</v>
+        <v>25.169130000000003</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>178143.69847500001</v>
+        <v>174084.72813</v>
       </c>
     </row>
   </sheetData>
@@ -17604,7 +17788,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -18331,34 +18515,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="10">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D20" s="11">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="E20" s="20">
         <f>C20*D20</f>
-        <v>37500</v>
+        <v>23400</v>
       </c>
       <c r="F20" s="20">
         <f>E20*0.002</f>
-        <v>75</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="G20" s="20">
         <f>E20*0.000068</f>
-        <v>2.5499999999999998</v>
+        <v>1.5911999999999999</v>
       </c>
       <c r="H20" s="20">
         <f>E20*0.00001</f>
-        <v>0.37500000000000006</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="I20" s="20">
         <f>(F20+G20+H20)*0.07</f>
-        <v>5.4547500000000007</v>
+        <v>3.4037640000000007</v>
       </c>
       <c r="J20" s="20">
         <f>E20+F20+I20+G20+H20</f>
-        <v>37583.37975</v>
+        <v>23452.028963999997</v>
       </c>
       <c r="M20" s="21"/>
     </row>
@@ -18366,39 +18550,39 @@
       <c r="A21" s="44"/>
       <c r="B21" s="25">
         <f>(D20-D19)/D19</f>
-        <v>-0.56445993031358888</v>
+        <v>-0.59233449477351918</v>
       </c>
       <c r="C21" s="22">
         <f>SUM(C19:C20)</f>
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="D21" s="64">
         <f>E21/C21</f>
-        <v>26</v>
+        <v>26.7</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" ref="E21:J21" si="4">SUM(E19:E20)</f>
-        <v>468000</v>
+        <v>453900</v>
       </c>
       <c r="F21" s="22">
         <f t="shared" si="4"/>
-        <v>936</v>
+        <v>907.8</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="4"/>
-        <v>31.823999999999995</v>
+        <v>30.865199999999994</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="4"/>
-        <v>4.68</v>
+        <v>4.5389999999999997</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="4"/>
-        <v>68.075280000000006</v>
+        <v>66.024293999999998</v>
       </c>
       <c r="J21" s="22">
         <f t="shared" si="4"/>
-        <v>469040.57928000006</v>
+        <v>454909.22849400004</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="25"/>
@@ -18844,7 +19028,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -19990,7 +20174,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -20449,43 +20633,46 @@
         <v>10000</v>
       </c>
       <c r="D14" s="34">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E14" s="11">
         <f>C14*D14</f>
-        <v>113000</v>
+        <v>110000</v>
       </c>
       <c r="F14" s="35">
         <f>E14*0.002</f>
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G14" s="34">
         <f>E14*0.000068</f>
-        <v>7.6840000000000002</v>
+        <v>7.4799999999999995</v>
       </c>
       <c r="H14" s="34">
         <f>E14*0.00001</f>
-        <v>1.1300000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I14" s="34">
         <f>(F14+G14+H14)*0.07</f>
-        <v>16.436980000000002</v>
+        <v>16.000600000000002</v>
       </c>
       <c r="J14" s="34">
         <f>E14-F14-G14-H14-I14</f>
-        <v>112748.74902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1">
+        <v>109755.4194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="12.75">
       <c r="A15" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="25">
+        <f>(D14-D13)/D13</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="20">
         <f>E14-E13</f>
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
@@ -20493,7 +20680,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20">
         <f>J14-J13</f>
-        <v>7516.1845199999952</v>
+        <v>4522.8548999999912</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1">
@@ -20502,7 +20689,7 @@
       <c r="D16" s="47"/>
       <c r="J16" s="53">
         <f>J12+J15</f>
-        <v>10967.684519999995</v>
+        <v>7974.3548999999912</v>
       </c>
     </row>
   </sheetData>
@@ -21483,34 +21670,34 @@
         <v>1</v>
       </c>
       <c r="C27" s="10">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="D27" s="46">
-        <v>17</v>
+        <v>16.2</v>
       </c>
       <c r="E27" s="20">
         <f>C27*D27</f>
-        <v>20400</v>
+        <v>24300</v>
       </c>
       <c r="F27" s="20">
         <f>E27*0.002</f>
-        <v>40.800000000000004</v>
+        <v>48.6</v>
       </c>
       <c r="G27" s="20">
         <f>E27*0.00006</f>
-        <v>1.224</v>
+        <v>1.458</v>
       </c>
       <c r="H27" s="20">
         <f>E27*0.00001</f>
-        <v>0.20400000000000001</v>
+        <v>0.24300000000000002</v>
       </c>
       <c r="I27" s="20">
         <f>(F27+G27+H27)*0.07</f>
-        <v>2.9559600000000006</v>
+        <v>3.5210700000000004</v>
       </c>
       <c r="J27" s="20">
         <f>E27+F27+I27+G27+H27</f>
-        <v>20445.183959999998</v>
+        <v>24353.822069999995</v>
       </c>
       <c r="K27" s="56"/>
       <c r="L27" s="57"/>
@@ -21522,39 +21709,39 @@
       <c r="A28" s="50"/>
       <c r="B28" s="3">
         <f>(D27-D26)/D26</f>
-        <v>-0.57499999999999996</v>
+        <v>-0.59499999999999997</v>
       </c>
       <c r="C28" s="2">
         <f>SUM(C26:C27)</f>
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="D28" s="47">
         <f>E28/C28</f>
-        <v>35.548387096774192</v>
+        <v>34.507692307692309</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ref="E28:J28" si="4">SUM(E26:E27)</f>
-        <v>220400</v>
+        <v>224300</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="4"/>
-        <v>440.8</v>
+        <v>448.6</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="4"/>
-        <v>13.224</v>
+        <v>13.458</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="4"/>
-        <v>2.2040000000000002</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="4"/>
-        <v>31.935960000000005</v>
+        <v>32.501070000000006</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="4"/>
-        <v>220888.16396000001</v>
+        <v>224796.80207000001</v>
       </c>
       <c r="K28" s="56"/>
       <c r="L28" s="57"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_141A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13090" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6014FE25-1E92-4ACA-8A3D-40C7A7149E2E}"/>
+  <xr:revisionPtr revIDLastSave="13146" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{247DA02B-FB91-49BA-9CA6-43835FE52B5F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="461" firstSheet="17" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="461" firstSheet="27" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -31,10 +31,10 @@
     <sheet name="JASIF" sheetId="46" r:id="rId16"/>
     <sheet name="JMART" sheetId="204" r:id="rId17"/>
     <sheet name="JMT" sheetId="205" r:id="rId18"/>
-    <sheet name="KTC" sheetId="211" r:id="rId19"/>
-    <sheet name="MCS" sheetId="20" r:id="rId20"/>
-    <sheet name="NER" sheetId="117" r:id="rId21"/>
-    <sheet name="ORI" sheetId="184" r:id="rId22"/>
+    <sheet name="MCS" sheetId="20" r:id="rId19"/>
+    <sheet name="NER" sheetId="117" r:id="rId20"/>
+    <sheet name="ORI" sheetId="184" r:id="rId21"/>
+    <sheet name="PTG" sheetId="216" r:id="rId22"/>
     <sheet name="RCL" sheetId="161" r:id="rId23"/>
     <sheet name="SCC" sheetId="152" r:id="rId24"/>
     <sheet name="SENA" sheetId="183" r:id="rId25"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="38">
   <si>
     <t>KCE</t>
   </si>
@@ -137,9 +137,6 @@
     <t>JMT</t>
   </si>
   <si>
-    <t>KTC</t>
-  </si>
-  <si>
     <t>MCS</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>ORI</t>
+  </si>
+  <si>
+    <t>PTG</t>
   </si>
   <si>
     <t>RCL</t>
@@ -3538,7 +3538,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5238,73 +5238,73 @@
         <v>1</v>
       </c>
       <c r="C47" s="10">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D47" s="46">
-        <v>10.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E47" s="20">
         <f>C47*D47</f>
-        <v>21200</v>
+        <v>27599.999999999996</v>
       </c>
       <c r="F47" s="20">
         <f>E47*0.002</f>
-        <v>42.4</v>
+        <v>55.199999999999996</v>
       </c>
       <c r="G47" s="20">
         <f>E47*0.000068</f>
-        <v>1.4416</v>
+        <v>1.8767999999999998</v>
       </c>
       <c r="H47" s="20">
         <f>E47*0.00001</f>
-        <v>0.21200000000000002</v>
+        <v>0.27599999999999997</v>
       </c>
       <c r="I47" s="20">
         <f>(F47+G47+H47)*0.07</f>
-        <v>3.0837520000000005</v>
+        <v>4.0146960000000007</v>
       </c>
       <c r="J47" s="20">
         <f>E47+F47+I47+G47+H47</f>
-        <v>21247.137351999998</v>
+        <v>27661.367495999995</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="21" customFormat="1" ht="12.75">
       <c r="A48" s="44"/>
       <c r="B48" s="80">
         <f>(D47-D46)/D46</f>
-        <v>-0.27891156462585032</v>
+        <v>-0.37414965986394561</v>
       </c>
       <c r="C48" s="22">
         <f>SUM(C46:C47)</f>
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="D48" s="33">
         <f>E48/C48</f>
-        <v>14.44375</v>
+        <v>14.2</v>
       </c>
       <c r="E48" s="22">
         <f t="shared" ref="E48:J48" si="13">SUM(E46:E47)</f>
-        <v>462200</v>
+        <v>468600</v>
       </c>
       <c r="F48" s="22">
         <f t="shared" si="13"/>
-        <v>924.4</v>
+        <v>937.2</v>
       </c>
       <c r="G48" s="22">
         <f t="shared" si="13"/>
-        <v>31.429600000000001</v>
+        <v>31.864799999999999</v>
       </c>
       <c r="H48" s="22">
         <f t="shared" si="13"/>
-        <v>4.6219999999999999</v>
+        <v>4.6859999999999999</v>
       </c>
       <c r="I48" s="22">
         <f t="shared" si="13"/>
-        <v>67.231612000000013</v>
+        <v>68.162556000000009</v>
       </c>
       <c r="J48" s="22">
         <f t="shared" si="13"/>
-        <v>463227.683212</v>
+        <v>469641.91335600003</v>
       </c>
       <c r="K48" s="25"/>
     </row>
@@ -10030,299 +10030,2253 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA82FC05-8676-4966-982E-6C94A5C97DE9}">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="10.625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25">
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="15">
-      <c r="A2" s="49">
-        <v>45092</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:13" s="15" customFormat="1">
+      <c r="A2" s="14">
+        <v>42608</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="16">
-        <v>900</v>
-      </c>
-      <c r="D2" s="68">
-        <v>50</v>
-      </c>
-      <c r="E2" s="18">
+        <v>20000</v>
+      </c>
+      <c r="D2" s="40">
+        <v>14</v>
+      </c>
+      <c r="E2" s="26">
         <f>C2*D2</f>
-        <v>45000</v>
-      </c>
-      <c r="F2" s="18">
+        <v>280000</v>
+      </c>
+      <c r="F2" s="26">
         <f>E2*0.002</f>
+        <v>560</v>
+      </c>
+      <c r="G2" s="26">
+        <f>E2*0.000068</f>
+        <v>19.04</v>
+      </c>
+      <c r="H2" s="26">
+        <f>E2*0.00001</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="I2" s="26">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>40.7288</v>
+      </c>
+      <c r="J2" s="17">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>280622.56879999995</v>
+      </c>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1">
+      <c r="A3" s="14">
+        <v>42633</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="17">
+        <v>13.1</v>
+      </c>
+      <c r="E3" s="18">
+        <f>C3*D3</f>
+        <v>131000</v>
+      </c>
+      <c r="F3" s="18">
+        <f>E3*0.002</f>
+        <v>262</v>
+      </c>
+      <c r="G3" s="18">
+        <f>E3*0.000068</f>
+        <v>8.9079999999999995</v>
+      </c>
+      <c r="H3" s="18">
+        <f>E3*0.00001</f>
+        <v>1.31</v>
+      </c>
+      <c r="I3" s="18">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>19.055260000000004</v>
+      </c>
+      <c r="J3" s="18">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>131291.27325999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="C4" s="5">
+        <f>SUM(C2:C3)</f>
+        <v>30000</v>
+      </c>
+      <c r="D4" s="6">
+        <f>E4/C4</f>
+        <v>13.7</v>
+      </c>
+      <c r="E4" s="37">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>411000</v>
+      </c>
+      <c r="F4" s="37">
+        <f t="shared" si="0"/>
+        <v>822</v>
+      </c>
+      <c r="G4" s="37">
+        <f t="shared" si="0"/>
+        <v>27.948</v>
+      </c>
+      <c r="H4" s="37">
+        <f t="shared" si="0"/>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I4" s="37">
+        <f t="shared" si="0"/>
+        <v>59.784060000000004</v>
+      </c>
+      <c r="J4" s="37">
+        <f t="shared" si="0"/>
+        <v>411913.84205999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="13" customFormat="1">
+      <c r="A5" s="14">
+        <v>42656</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="17">
+        <v>12.5</v>
+      </c>
+      <c r="E5" s="18">
+        <f>C5*D5</f>
+        <v>125000</v>
+      </c>
+      <c r="F5" s="18">
+        <f>E5*0.002</f>
+        <v>250</v>
+      </c>
+      <c r="G5" s="18">
+        <f>E5*0.000068</f>
+        <v>8.5</v>
+      </c>
+      <c r="H5" s="18">
+        <f>E5*0.00001</f>
+        <v>1.25</v>
+      </c>
+      <c r="I5" s="18">
+        <f>(F5+G5+H5)*0.07</f>
+        <v>18.182500000000001</v>
+      </c>
+      <c r="J5" s="18">
+        <f>E5+F5+I5+G5+H5</f>
+        <v>125277.9325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="42"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
+        <f>SUM(C4:C5)</f>
+        <v>40000</v>
+      </c>
+      <c r="D6" s="6">
+        <f>E6/C6</f>
+        <v>13.4</v>
+      </c>
+      <c r="E6" s="37">
+        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
+        <v>536000</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" si="1"/>
+        <v>1072</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" si="1"/>
+        <v>36.448</v>
+      </c>
+      <c r="H6" s="37">
+        <f t="shared" si="1"/>
+        <v>5.36</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="1"/>
+        <v>77.966560000000001</v>
+      </c>
+      <c r="J6" s="37">
+        <f t="shared" si="1"/>
+        <v>537191.77455999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A7" s="14">
+        <v>42681</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16">
+        <v>40000</v>
+      </c>
+      <c r="D7" s="26">
+        <v>15.63</v>
+      </c>
+      <c r="E7" s="17">
+        <f>C7*D7</f>
+        <v>625200</v>
+      </c>
+      <c r="F7" s="27">
+        <f>E7*0.002</f>
+        <v>1250.4000000000001</v>
+      </c>
+      <c r="G7" s="26">
+        <f>E7*0.000068</f>
+        <v>42.513599999999997</v>
+      </c>
+      <c r="H7" s="26">
+        <f>E7*0.00001</f>
+        <v>6.2520000000000007</v>
+      </c>
+      <c r="I7" s="26">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>90.941592000000014</v>
+      </c>
+      <c r="J7" s="26">
+        <f>E7-F7-G7-H7-I7</f>
+        <v>623809.89280800009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="E8" s="23">
+        <f>E7-E6</f>
+        <v>89200</v>
+      </c>
+      <c r="J8" s="23">
+        <f>J7-J6</f>
+        <v>86618.118248000159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A9" s="14">
+        <v>42662</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="26">
+        <v>15</v>
+      </c>
+      <c r="E9" s="17">
+        <f>C9*D9</f>
+        <v>150000</v>
+      </c>
+      <c r="F9" s="27">
+        <f>E9*0.002</f>
+        <v>300</v>
+      </c>
+      <c r="G9" s="26">
+        <f>E9*0.000068</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H9" s="26">
+        <f>E9*0.00001</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="I9" s="26">
+        <f>(F9+G9+H9)*0.07</f>
+        <v>21.819000000000003</v>
+      </c>
+      <c r="J9" s="26">
+        <f>E9-F9-G9-H9-I9</f>
+        <v>149666.481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="13" customFormat="1">
+      <c r="A10" s="8">
+        <v>42572</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <f>C9</f>
+        <v>10000</v>
+      </c>
+      <c r="D10" s="34">
+        <v>14.5</v>
+      </c>
+      <c r="E10" s="11">
+        <f>C10*D10</f>
+        <v>145000</v>
+      </c>
+      <c r="F10" s="35">
+        <f>E10*0.002</f>
+        <v>290</v>
+      </c>
+      <c r="G10" s="34">
+        <f>E10*0.000068</f>
+        <v>9.86</v>
+      </c>
+      <c r="H10" s="34">
+        <f>E10*0.00001</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="I10" s="34">
+        <f>(F10+G10+H10)*0.07</f>
+        <v>21.091700000000003</v>
+      </c>
+      <c r="J10" s="11">
+        <f>E10+F10+I10+G10+H10</f>
+        <v>145322.40169999999</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="1:13" s="13" customFormat="1">
+      <c r="A11" s="8">
+        <f>DAYS360(A10,A9)</f>
+        <v>88</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34">
+        <f>E9-E10</f>
+        <v>5000</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="34">
+        <f>J9-J10</f>
+        <v>4344.0793000000122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A12" s="14">
+        <v>42664</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="26">
+        <v>15.4</v>
+      </c>
+      <c r="E12" s="17">
+        <f>C12*D12</f>
+        <v>154000</v>
+      </c>
+      <c r="F12" s="27">
+        <f>E12*0.002</f>
+        <v>308</v>
+      </c>
+      <c r="G12" s="26">
+        <f>E12*0.000068</f>
+        <v>10.472</v>
+      </c>
+      <c r="H12" s="26">
+        <f>E12*0.00001</f>
+        <v>1.54</v>
+      </c>
+      <c r="I12" s="26">
+        <f>(F12+G12+H12)*0.07</f>
+        <v>22.400840000000002</v>
+      </c>
+      <c r="J12" s="26">
+        <f>E12-F12-G12-H12-I12</f>
+        <v>153657.58716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="13" customFormat="1">
+      <c r="A13" s="8">
+        <v>42572</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <f>C12</f>
+        <v>10000</v>
+      </c>
+      <c r="D13" s="34">
+        <v>14.9</v>
+      </c>
+      <c r="E13" s="11">
+        <f>C13*D13</f>
+        <v>149000</v>
+      </c>
+      <c r="F13" s="35">
+        <f>E13*0.002</f>
+        <v>298</v>
+      </c>
+      <c r="G13" s="34">
+        <f>E13*0.000068</f>
+        <v>10.132</v>
+      </c>
+      <c r="H13" s="34">
+        <f>E13*0.00001</f>
+        <v>1.4900000000000002</v>
+      </c>
+      <c r="I13" s="34">
+        <f>(F13+G13+H13)*0.07</f>
+        <v>21.673540000000003</v>
+      </c>
+      <c r="J13" s="11">
+        <f>E13+F13+I13+G13+H13</f>
+        <v>149331.29553999999</v>
+      </c>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1">
+      <c r="A14" s="8">
+        <f>DAYS360(A13,A12)</f>
         <v>90</v>
       </c>
-      <c r="G2" s="18">
-        <f>E2*0.00006</f>
-        <v>2.7</v>
-      </c>
-      <c r="H2" s="18">
-        <f>E2*0.00001</f>
-        <v>0.45</v>
-      </c>
-      <c r="I2" s="18">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>6.5205000000000011</v>
-      </c>
-      <c r="J2" s="18">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>45099.670499999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="12.75">
-      <c r="A3" s="66">
-        <v>44952</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>600</v>
-      </c>
-      <c r="D3" s="11">
-        <v>45</v>
-      </c>
-      <c r="E3" s="20">
-        <f>C3*D3</f>
-        <v>27000</v>
-      </c>
-      <c r="F3" s="20">
-        <f>E3*0.002</f>
-        <v>54</v>
-      </c>
-      <c r="G3" s="20">
-        <f>E3*0.00006</f>
+      <c r="C14" s="10"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34">
+        <f>E12-E13</f>
+        <v>5000</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="34">
+        <f>J12-J13</f>
+        <v>4326.2916200000036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A15" s="14">
+        <v>42668</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="26">
+        <v>15.9</v>
+      </c>
+      <c r="E15" s="17">
+        <f>C15*D15</f>
+        <v>159000</v>
+      </c>
+      <c r="F15" s="27">
+        <f>E15*0.002</f>
+        <v>318</v>
+      </c>
+      <c r="G15" s="26">
+        <f>E15*0.000068</f>
+        <v>10.811999999999999</v>
+      </c>
+      <c r="H15" s="26">
+        <f>E15*0.00001</f>
+        <v>1.59</v>
+      </c>
+      <c r="I15" s="26">
+        <f>(F15+G15+H15)*0.07</f>
+        <v>23.128140000000002</v>
+      </c>
+      <c r="J15" s="26">
+        <f>E15-F15-G15-H15-I15</f>
+        <v>158646.46986000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="13" customFormat="1">
+      <c r="A16" s="8">
+        <v>42674</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <f>C15</f>
+        <v>10000</v>
+      </c>
+      <c r="D16" s="34">
+        <v>15.4</v>
+      </c>
+      <c r="E16" s="11">
+        <f>C16*D16</f>
+        <v>154000</v>
+      </c>
+      <c r="F16" s="35">
+        <f>E16*0.002</f>
+        <v>308</v>
+      </c>
+      <c r="G16" s="34">
+        <f>E16*0.000068</f>
+        <v>10.472</v>
+      </c>
+      <c r="H16" s="34">
+        <f>E16*0.00001</f>
+        <v>1.54</v>
+      </c>
+      <c r="I16" s="34">
+        <f>(F16+G16+H16)*0.07</f>
+        <v>22.400840000000002</v>
+      </c>
+      <c r="J16" s="11">
+        <f>E16+F16+I16+G16+H16</f>
+        <v>154342.41284</v>
+      </c>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="1:13" s="13" customFormat="1">
+      <c r="A17" s="8">
+        <f>DAYS360(A15,A16)</f>
+        <v>6</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34">
+        <f>E15-E16</f>
+        <v>5000</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="34">
+        <f>J15-J16</f>
+        <v>4304.0570200000075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A18" s="14">
+        <v>42681</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="26">
+        <v>16.2</v>
+      </c>
+      <c r="E18" s="17">
+        <f>C18*D18</f>
+        <v>162000</v>
+      </c>
+      <c r="F18" s="27">
+        <f>E18*0.002</f>
+        <v>324</v>
+      </c>
+      <c r="G18" s="26">
+        <f>E18*0.000068</f>
+        <v>11.016</v>
+      </c>
+      <c r="H18" s="26">
+        <f>E18*0.00001</f>
         <v>1.62</v>
       </c>
-      <c r="H3" s="20">
-        <f>E3*0.00001</f>
-        <v>0.27</v>
-      </c>
-      <c r="I3" s="20">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>3.9123000000000006</v>
-      </c>
-      <c r="J3" s="20">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>27059.802299999999</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="62" customFormat="1" ht="21.75">
-      <c r="A4" s="55"/>
-      <c r="B4" s="75">
-        <f>(D3-D2)/D2</f>
-        <v>-0.1</v>
-      </c>
-      <c r="C4" s="10">
-        <f>SUM(C2:C3)</f>
-        <v>1500</v>
-      </c>
-      <c r="D4" s="63">
-        <f>E4/C4</f>
+      <c r="I18" s="26">
+        <f>(F18+G18+H18)*0.07</f>
+        <v>23.564520000000005</v>
+      </c>
+      <c r="J18" s="26">
+        <f>E18-F18-G18-H18-I18</f>
+        <v>161639.79947999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="13" customFormat="1">
+      <c r="A19" s="8">
+        <v>42674</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <f>C18</f>
+        <v>10000</v>
+      </c>
+      <c r="D19" s="34">
+        <v>15.7</v>
+      </c>
+      <c r="E19" s="11">
+        <f>C19*D19</f>
+        <v>157000</v>
+      </c>
+      <c r="F19" s="35">
+        <f>E19*0.002</f>
+        <v>314</v>
+      </c>
+      <c r="G19" s="34">
+        <f>E19*0.000068</f>
+        <v>10.676</v>
+      </c>
+      <c r="H19" s="34">
+        <f>E19*0.00001</f>
+        <v>1.57</v>
+      </c>
+      <c r="I19" s="34">
+        <f>(F19+G19+H19)*0.07</f>
+        <v>22.837220000000002</v>
+      </c>
+      <c r="J19" s="11">
+        <f>E19+F19+I19+G19+H19</f>
+        <v>157349.08322</v>
+      </c>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="1:13" s="13" customFormat="1">
+      <c r="A20" s="8">
+        <f>DAYS360(A18,A19)</f>
+        <v>-6</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34">
+        <f>E18-E19</f>
+        <v>5000</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="34">
+        <f>J18-J19</f>
+        <v>4290.7162599999865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="13" customFormat="1">
+      <c r="A21" s="14">
+        <v>42674</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="26">
+        <v>15.4</v>
+      </c>
+      <c r="E21" s="17">
+        <f>C21*D21</f>
+        <v>154000</v>
+      </c>
+      <c r="F21" s="27">
+        <f>E21*0.002</f>
+        <v>308</v>
+      </c>
+      <c r="G21" s="26">
+        <f>E21*0.000068</f>
+        <v>10.472</v>
+      </c>
+      <c r="H21" s="26">
+        <f>E21*0.00001</f>
+        <v>1.54</v>
+      </c>
+      <c r="I21" s="26">
+        <f>(F21+G21+H21)*0.07</f>
+        <v>22.400840000000002</v>
+      </c>
+      <c r="J21" s="17">
+        <f>E21+F21+I21+G21+H21</f>
+        <v>154342.41284</v>
+      </c>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A22" s="14">
+        <v>42677</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="26">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E22" s="17">
+        <f>C22*D22</f>
+        <v>161000</v>
+      </c>
+      <c r="F22" s="27">
+        <f>E22*0.002</f>
+        <v>322</v>
+      </c>
+      <c r="G22" s="26">
+        <f>E22*0.000068</f>
+        <v>10.948</v>
+      </c>
+      <c r="H22" s="26">
+        <f>E22*0.00001</f>
+        <v>1.61</v>
+      </c>
+      <c r="I22" s="26">
+        <f>(F22+G22+H22)*0.07</f>
+        <v>23.419060000000002</v>
+      </c>
+      <c r="J22" s="26">
+        <f>E22-F22-G22-H22-I22</f>
+        <v>160642.02294000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="13" customFormat="1">
+      <c r="A23" s="14">
+        <f>DAYS360(A21,A22)</f>
+        <v>3</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26">
+        <f>E22-E21</f>
+        <v>7000</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="26">
+        <f>J22-J21</f>
+        <v>6299.6101000000199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="15" customFormat="1">
+      <c r="A24" s="14">
+        <v>42685</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16">
+        <v>20000</v>
+      </c>
+      <c r="D24" s="40">
+        <v>18.2</v>
+      </c>
+      <c r="E24" s="26">
+        <f>C24*D24</f>
+        <v>364000</v>
+      </c>
+      <c r="F24" s="26">
+        <f>E24*0.002</f>
+        <v>728</v>
+      </c>
+      <c r="G24" s="26">
+        <f>E24*0.000068</f>
+        <v>24.751999999999999</v>
+      </c>
+      <c r="H24" s="26">
+        <f>E24*0.00001</f>
+        <v>3.64</v>
+      </c>
+      <c r="I24" s="26">
+        <f>(F24+G24+H24)*0.07</f>
+        <v>52.94744</v>
+      </c>
+      <c r="J24" s="17">
+        <f>E24+F24+I24+G24+H24</f>
+        <v>364809.33944000001</v>
+      </c>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:13" s="13" customFormat="1">
+      <c r="A25" s="14">
+        <v>42688</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="17">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E25" s="18">
+        <f>C25*D25</f>
+        <v>179000</v>
+      </c>
+      <c r="F25" s="18">
+        <f>E25*0.002</f>
+        <v>358</v>
+      </c>
+      <c r="G25" s="18">
+        <f>E25*0.000068</f>
+        <v>12.172000000000001</v>
+      </c>
+      <c r="H25" s="18">
+        <f>E25*0.00001</f>
+        <v>1.79</v>
+      </c>
+      <c r="I25" s="18">
+        <f>(F25+G25+H25)*0.07</f>
+        <v>26.037340000000004</v>
+      </c>
+      <c r="J25" s="18">
+        <f>E25+F25+I25+G25+H25</f>
+        <v>179397.99934000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="42"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5">
+        <f>SUM(C24:C25)</f>
+        <v>30000</v>
+      </c>
+      <c r="D26" s="6">
+        <f>E26/C26</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E26" s="37">
+        <f t="shared" ref="E26:J26" si="2">SUM(E24:E25)</f>
+        <v>543000</v>
+      </c>
+      <c r="F26" s="37">
+        <f t="shared" si="2"/>
+        <v>1086</v>
+      </c>
+      <c r="G26" s="37">
+        <f t="shared" si="2"/>
+        <v>36.923999999999999</v>
+      </c>
+      <c r="H26" s="37">
+        <f t="shared" si="2"/>
+        <v>5.43</v>
+      </c>
+      <c r="I26" s="37">
+        <f t="shared" si="2"/>
+        <v>78.984780000000001</v>
+      </c>
+      <c r="J26" s="37">
+        <f t="shared" si="2"/>
+        <v>544207.33877999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="13" customFormat="1">
+      <c r="A27" s="14">
+        <v>42688</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="17">
+        <v>17.7</v>
+      </c>
+      <c r="E27" s="18">
+        <f>C27*D27</f>
+        <v>177000</v>
+      </c>
+      <c r="F27" s="18">
+        <f>E27*0.002</f>
+        <v>354</v>
+      </c>
+      <c r="G27" s="18">
+        <f>E27*0.000068</f>
+        <v>12.036</v>
+      </c>
+      <c r="H27" s="18">
+        <f>E27*0.00001</f>
+        <v>1.7700000000000002</v>
+      </c>
+      <c r="I27" s="18">
+        <f>(F27+G27+H27)*0.07</f>
+        <v>25.746420000000001</v>
+      </c>
+      <c r="J27" s="18">
+        <f>E27+F27+I27+G27+H27</f>
+        <v>177393.55241999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="42"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5">
+        <f>SUM(C26:C27)</f>
+        <v>40000</v>
+      </c>
+      <c r="D28" s="6">
+        <f>E28/C28</f>
+        <v>18</v>
+      </c>
+      <c r="E28" s="37">
+        <f t="shared" ref="E28:J28" si="3">SUM(E26:E27)</f>
+        <v>720000</v>
+      </c>
+      <c r="F28" s="37">
+        <f t="shared" si="3"/>
+        <v>1440</v>
+      </c>
+      <c r="G28" s="37">
+        <f t="shared" si="3"/>
+        <v>48.96</v>
+      </c>
+      <c r="H28" s="37">
+        <f t="shared" si="3"/>
+        <v>7.2</v>
+      </c>
+      <c r="I28" s="37">
+        <f t="shared" si="3"/>
+        <v>104.7312</v>
+      </c>
+      <c r="J28" s="37">
+        <f t="shared" si="3"/>
+        <v>721600.89119999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="13" customFormat="1">
+      <c r="A29" s="14">
+        <v>42688</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="17">
+        <v>17.5</v>
+      </c>
+      <c r="E29" s="18">
+        <f>C29*D29</f>
+        <v>175000</v>
+      </c>
+      <c r="F29" s="18">
+        <f>E29*0.002</f>
+        <v>350</v>
+      </c>
+      <c r="G29" s="18">
+        <f>E29*0.000068</f>
+        <v>11.9</v>
+      </c>
+      <c r="H29" s="18">
+        <f>E29*0.00001</f>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="I29" s="18">
+        <f>(F29+G29+H29)*0.07</f>
+        <v>25.455500000000001</v>
+      </c>
+      <c r="J29" s="18">
+        <f>E29+F29+I29+G29+H29</f>
+        <v>175389.10550000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="42"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5">
+        <f>SUM(C28:C29)</f>
+        <v>50000</v>
+      </c>
+      <c r="D30" s="6">
+        <f>E30/C30</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E30" s="37">
+        <f t="shared" ref="E30:J30" si="4">SUM(E28:E29)</f>
+        <v>895000</v>
+      </c>
+      <c r="F30" s="37">
+        <f t="shared" si="4"/>
+        <v>1790</v>
+      </c>
+      <c r="G30" s="37">
+        <f t="shared" si="4"/>
+        <v>60.86</v>
+      </c>
+      <c r="H30" s="37">
+        <f t="shared" si="4"/>
+        <v>8.9500000000000011</v>
+      </c>
+      <c r="I30" s="37">
+        <f t="shared" si="4"/>
+        <v>130.1867</v>
+      </c>
+      <c r="J30" s="37">
+        <f t="shared" si="4"/>
+        <v>896989.99670000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="13" customFormat="1">
+      <c r="A31" s="14">
+        <v>42688</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="17">
+        <v>17.3</v>
+      </c>
+      <c r="E31" s="18">
+        <f>C31*D31</f>
+        <v>173000</v>
+      </c>
+      <c r="F31" s="18">
+        <f>E31*0.002</f>
+        <v>346</v>
+      </c>
+      <c r="G31" s="18">
+        <f>E31*0.000068</f>
+        <v>11.763999999999999</v>
+      </c>
+      <c r="H31" s="18">
+        <f>E31*0.00001</f>
+        <v>1.7300000000000002</v>
+      </c>
+      <c r="I31" s="18">
+        <f>(F31+G31+H31)*0.07</f>
+        <v>25.164580000000004</v>
+      </c>
+      <c r="J31" s="18">
+        <f>E31+F31+I31+G31+H31</f>
+        <v>173384.65858000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="42"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5">
+        <f>SUM(C30:C31)</f>
+        <v>60000</v>
+      </c>
+      <c r="D32" s="6">
+        <f>E32/C32</f>
+        <v>17.8</v>
+      </c>
+      <c r="E32" s="37">
+        <f t="shared" ref="E32:J32" si="5">SUM(E30:E31)</f>
+        <v>1068000</v>
+      </c>
+      <c r="F32" s="37">
+        <f t="shared" si="5"/>
+        <v>2136</v>
+      </c>
+      <c r="G32" s="37">
+        <f t="shared" si="5"/>
+        <v>72.623999999999995</v>
+      </c>
+      <c r="H32" s="37">
+        <f t="shared" si="5"/>
+        <v>10.680000000000001</v>
+      </c>
+      <c r="I32" s="37">
+        <f t="shared" si="5"/>
+        <v>155.35128</v>
+      </c>
+      <c r="J32" s="37">
+        <f t="shared" si="5"/>
+        <v>1070374.6552800001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="13" customFormat="1">
+      <c r="A33" s="14">
+        <v>42691</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="17">
+        <v>15.3</v>
+      </c>
+      <c r="E33" s="18">
+        <f>C33*D33</f>
+        <v>153000</v>
+      </c>
+      <c r="F33" s="18">
+        <f>E33*0.002</f>
+        <v>306</v>
+      </c>
+      <c r="G33" s="18">
+        <f>E33*0.000068</f>
+        <v>10.404</v>
+      </c>
+      <c r="H33" s="18">
+        <f>E33*0.00001</f>
+        <v>1.53</v>
+      </c>
+      <c r="I33" s="18">
+        <f>(F33+G33+H33)*0.07</f>
+        <v>22.255379999999999</v>
+      </c>
+      <c r="J33" s="18">
+        <f>E33+F33+I33+G33+H33</f>
+        <v>153340.18938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="42"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5">
+        <f>SUM(C32:C33)</f>
+        <v>70000</v>
+      </c>
+      <c r="D34" s="6">
+        <f>E34/C34</f>
+        <v>17.442857142857143</v>
+      </c>
+      <c r="E34" s="37">
+        <f t="shared" ref="E34:J34" si="6">SUM(E32:E33)</f>
+        <v>1221000</v>
+      </c>
+      <c r="F34" s="37">
+        <f t="shared" si="6"/>
+        <v>2442</v>
+      </c>
+      <c r="G34" s="37">
+        <f t="shared" si="6"/>
+        <v>83.027999999999992</v>
+      </c>
+      <c r="H34" s="37">
+        <f t="shared" si="6"/>
+        <v>12.21</v>
+      </c>
+      <c r="I34" s="37">
+        <f t="shared" si="6"/>
+        <v>177.60666000000001</v>
+      </c>
+      <c r="J34" s="37">
+        <f t="shared" si="6"/>
+        <v>1223714.8446599999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="13" customFormat="1">
+      <c r="A35" s="14">
+        <v>42720</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D35" s="17">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E35" s="18">
+        <f>C35*D35</f>
+        <v>171000</v>
+      </c>
+      <c r="F35" s="18">
+        <f>E35*0.002</f>
+        <v>342</v>
+      </c>
+      <c r="G35" s="18">
+        <f>E35*0.000068</f>
+        <v>11.628</v>
+      </c>
+      <c r="H35" s="18">
+        <f>E35*0.00001</f>
+        <v>1.7100000000000002</v>
+      </c>
+      <c r="I35" s="18">
+        <f>(F35+G35+H35)*0.07</f>
+        <v>24.873660000000001</v>
+      </c>
+      <c r="J35" s="18">
+        <f>E35+F35+I35+G35+H35</f>
+        <v>171380.21166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="42"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5">
+        <f>SUM(C34:C35)</f>
+        <v>80000</v>
+      </c>
+      <c r="D36" s="6">
+        <f>E36/C36</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E36" s="37">
+        <f t="shared" ref="E36:J36" si="7">SUM(E34:E35)</f>
+        <v>1392000</v>
+      </c>
+      <c r="F36" s="37">
+        <f t="shared" si="7"/>
+        <v>2784</v>
+      </c>
+      <c r="G36" s="37">
+        <f t="shared" si="7"/>
+        <v>94.655999999999992</v>
+      </c>
+      <c r="H36" s="37">
+        <f t="shared" si="7"/>
+        <v>13.920000000000002</v>
+      </c>
+      <c r="I36" s="37">
+        <f t="shared" si="7"/>
+        <v>202.48032000000001</v>
+      </c>
+      <c r="J36" s="37">
+        <f t="shared" si="7"/>
+        <v>1395095.05632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="15" customFormat="1">
+      <c r="A38" s="14">
+        <v>42685</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="16">
+        <v>20000</v>
+      </c>
+      <c r="D38" s="40">
+        <v>18.2</v>
+      </c>
+      <c r="E38" s="26">
+        <f t="shared" ref="E38:E44" si="8">C38*D38</f>
+        <v>364000</v>
+      </c>
+      <c r="F38" s="26">
+        <f t="shared" ref="F38:F44" si="9">E38*0.002</f>
+        <v>728</v>
+      </c>
+      <c r="G38" s="26">
+        <f t="shared" ref="G38:G44" si="10">E38*0.000068</f>
+        <v>24.751999999999999</v>
+      </c>
+      <c r="H38" s="26">
+        <f t="shared" ref="H38:H44" si="11">E38*0.00001</f>
+        <v>3.64</v>
+      </c>
+      <c r="I38" s="26">
+        <f t="shared" ref="I38:I44" si="12">(F38+G38+H38)*0.07</f>
+        <v>52.94744</v>
+      </c>
+      <c r="J38" s="17">
+        <f t="shared" ref="J38:J44" si="13">E38+F38+I38+G38+H38</f>
+        <v>364809.33944000001</v>
+      </c>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="1:11" s="13" customFormat="1">
+      <c r="A39" s="14">
+        <v>42688</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="17">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" si="8"/>
+        <v>179000</v>
+      </c>
+      <c r="F39" s="18">
+        <f t="shared" si="9"/>
+        <v>358</v>
+      </c>
+      <c r="G39" s="18">
+        <f t="shared" si="10"/>
+        <v>12.172000000000001</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="11"/>
+        <v>1.79</v>
+      </c>
+      <c r="I39" s="18">
+        <f t="shared" si="12"/>
+        <v>26.037340000000004</v>
+      </c>
+      <c r="J39" s="18">
+        <f t="shared" si="13"/>
+        <v>179397.99934000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="13" customFormat="1">
+      <c r="A40" s="14">
+        <v>42688</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D40" s="17">
+        <v>17.7</v>
+      </c>
+      <c r="E40" s="18">
+        <f t="shared" si="8"/>
+        <v>177000</v>
+      </c>
+      <c r="F40" s="18">
+        <f t="shared" si="9"/>
+        <v>354</v>
+      </c>
+      <c r="G40" s="18">
+        <f t="shared" si="10"/>
+        <v>12.036</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" si="11"/>
+        <v>1.7700000000000002</v>
+      </c>
+      <c r="I40" s="18">
+        <f t="shared" si="12"/>
+        <v>25.746420000000001</v>
+      </c>
+      <c r="J40" s="18">
+        <f t="shared" si="13"/>
+        <v>177393.55241999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="13" customFormat="1">
+      <c r="A41" s="14">
+        <v>42688</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="17">
+        <v>17.5</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="8"/>
+        <v>175000</v>
+      </c>
+      <c r="F41" s="18">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="G41" s="18">
+        <f t="shared" si="10"/>
+        <v>11.9</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="11"/>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="I41" s="18">
+        <f t="shared" si="12"/>
+        <v>25.455500000000001</v>
+      </c>
+      <c r="J41" s="18">
+        <f t="shared" si="13"/>
+        <v>175389.10550000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="13" customFormat="1">
+      <c r="A42" s="14">
+        <v>42688</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D42" s="17">
+        <v>17.3</v>
+      </c>
+      <c r="E42" s="18">
+        <f t="shared" si="8"/>
+        <v>173000</v>
+      </c>
+      <c r="F42" s="18">
+        <f t="shared" si="9"/>
+        <v>346</v>
+      </c>
+      <c r="G42" s="18">
+        <f t="shared" si="10"/>
+        <v>11.763999999999999</v>
+      </c>
+      <c r="H42" s="18">
+        <f t="shared" si="11"/>
+        <v>1.7300000000000002</v>
+      </c>
+      <c r="I42" s="18">
+        <f t="shared" si="12"/>
+        <v>25.164580000000004</v>
+      </c>
+      <c r="J42" s="18">
+        <f t="shared" si="13"/>
+        <v>173384.65858000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="13" customFormat="1">
+      <c r="A43" s="14">
+        <v>42691</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D43" s="17">
+        <v>15.3</v>
+      </c>
+      <c r="E43" s="18">
+        <f t="shared" si="8"/>
+        <v>153000</v>
+      </c>
+      <c r="F43" s="18">
+        <f t="shared" si="9"/>
+        <v>306</v>
+      </c>
+      <c r="G43" s="18">
+        <f t="shared" si="10"/>
+        <v>10.404</v>
+      </c>
+      <c r="H43" s="18">
+        <f t="shared" si="11"/>
+        <v>1.53</v>
+      </c>
+      <c r="I43" s="18">
+        <f t="shared" si="12"/>
+        <v>22.255379999999999</v>
+      </c>
+      <c r="J43" s="18">
+        <f t="shared" si="13"/>
+        <v>153340.18938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="13" customFormat="1">
+      <c r="A44" s="14">
+        <v>42720</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D44" s="17">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E44" s="18">
+        <f t="shared" si="8"/>
+        <v>171000</v>
+      </c>
+      <c r="F44" s="18">
+        <f t="shared" si="9"/>
+        <v>342</v>
+      </c>
+      <c r="G44" s="18">
+        <f t="shared" si="10"/>
+        <v>11.628</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="11"/>
+        <v>1.7100000000000002</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="12"/>
+        <v>24.873660000000001</v>
+      </c>
+      <c r="J44" s="18">
+        <f t="shared" si="13"/>
+        <v>171380.21166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="C45" s="22">
+        <f>SUM(C38:C44)</f>
+        <v>80000</v>
+      </c>
+      <c r="D45" s="21">
+        <f>E45/C45</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E45" s="22">
+        <f t="shared" ref="E45:J45" si="14">SUM(E38:E44)</f>
+        <v>1392000</v>
+      </c>
+      <c r="F45" s="22">
+        <f t="shared" si="14"/>
+        <v>2784</v>
+      </c>
+      <c r="G45" s="22">
+        <f t="shared" si="14"/>
+        <v>94.655999999999992</v>
+      </c>
+      <c r="H45" s="22">
+        <f t="shared" si="14"/>
+        <v>13.920000000000002</v>
+      </c>
+      <c r="I45" s="22">
+        <f t="shared" si="14"/>
+        <v>202.48032000000001</v>
+      </c>
+      <c r="J45" s="22">
+        <f t="shared" si="14"/>
+        <v>1395095.05632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="13" customFormat="1">
+      <c r="A47" s="14">
+        <v>42720</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="16">
+        <v>75000</v>
+      </c>
+      <c r="D47" s="40">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E47" s="18">
+        <f>C47*D47</f>
+        <v>1267500</v>
+      </c>
+      <c r="F47" s="18">
+        <f>E47*0.002</f>
+        <v>2535</v>
+      </c>
+      <c r="G47" s="18">
+        <f>E47*0.000068</f>
+        <v>86.19</v>
+      </c>
+      <c r="H47" s="18">
+        <f>E47*0.00001</f>
+        <v>12.675000000000001</v>
+      </c>
+      <c r="I47" s="18">
+        <f>(F47+G47+H47)*0.07</f>
+        <v>184.37055000000004</v>
+      </c>
+      <c r="J47" s="18">
+        <f>E47+F47+I47+G47+H47</f>
+        <v>1270318.2355500001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="13" customFormat="1">
+      <c r="A48" s="14">
+        <v>44271</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D48" s="40">
+        <v>13.7</v>
+      </c>
+      <c r="E48" s="18">
+        <f>C48*D48</f>
+        <v>68500</v>
+      </c>
+      <c r="F48" s="18">
+        <f>E48*0.002</f>
+        <v>137</v>
+      </c>
+      <c r="G48" s="18">
+        <f>E48*0.000068</f>
+        <v>4.6580000000000004</v>
+      </c>
+      <c r="H48" s="18">
+        <f>E48*0.00001</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="I48" s="18">
+        <f>(F48+G48+H48)*0.07</f>
+        <v>9.96401</v>
+      </c>
+      <c r="J48" s="18">
+        <f>E48+F48+I48+G48+H48</f>
+        <v>68652.30700999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="42"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5">
+        <f>SUM(C47:C48)</f>
+        <v>80000</v>
+      </c>
+      <c r="D49" s="65">
+        <f>E49/C49</f>
+        <v>16.7</v>
+      </c>
+      <c r="E49" s="37">
+        <f t="shared" ref="E49:J49" si="15">SUM(E47:E48)</f>
+        <v>1336000</v>
+      </c>
+      <c r="F49" s="37">
+        <f t="shared" si="15"/>
+        <v>2672</v>
+      </c>
+      <c r="G49" s="37">
+        <f t="shared" si="15"/>
+        <v>90.847999999999999</v>
+      </c>
+      <c r="H49" s="37">
+        <f t="shared" si="15"/>
+        <v>13.360000000000001</v>
+      </c>
+      <c r="I49" s="37">
+        <f t="shared" si="15"/>
+        <v>194.33456000000004</v>
+      </c>
+      <c r="J49" s="37">
+        <f t="shared" si="15"/>
+        <v>1338970.54256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="13" customFormat="1">
+      <c r="A50" s="14">
+        <v>44351</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="16">
+        <v>70000</v>
+      </c>
+      <c r="D50" s="40">
+        <v>16.7</v>
+      </c>
+      <c r="E50" s="18">
+        <f>C50*D50</f>
+        <v>1169000</v>
+      </c>
+      <c r="F50" s="18">
+        <f>E50*0.002</f>
+        <v>2338</v>
+      </c>
+      <c r="G50" s="18">
+        <f>E50*0.000068</f>
+        <v>79.492000000000004</v>
+      </c>
+      <c r="H50" s="18">
+        <f>E50*0.00001</f>
+        <v>11.690000000000001</v>
+      </c>
+      <c r="I50" s="18">
+        <f>(F50+G50+H50)*0.07</f>
+        <v>170.04274000000004</v>
+      </c>
+      <c r="J50" s="18">
+        <f>E50+F50+I50+G50+H50</f>
+        <v>1171599.22474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="13" customFormat="1">
+      <c r="A51" s="14">
+        <v>44557</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="16">
+        <v>60000</v>
+      </c>
+      <c r="D51" s="40">
+        <v>16.7</v>
+      </c>
+      <c r="E51" s="18">
+        <f>C51*D51</f>
+        <v>1002000</v>
+      </c>
+      <c r="F51" s="18">
+        <f>E51*0.002</f>
+        <v>2004</v>
+      </c>
+      <c r="G51" s="18">
+        <f>E51*0.000068</f>
+        <v>68.135999999999996</v>
+      </c>
+      <c r="H51" s="18">
+        <f>E51*0.00001</f>
+        <v>10.020000000000001</v>
+      </c>
+      <c r="I51" s="18">
+        <f>(F51+G51+H51)*0.07</f>
+        <v>145.75092000000001</v>
+      </c>
+      <c r="J51" s="18">
+        <f>E51+F51+I51+G51+H51</f>
+        <v>1004227.9069200001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="13" customFormat="1">
+      <c r="A52" s="14">
+        <v>44588</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="16">
+        <v>55000</v>
+      </c>
+      <c r="D52" s="40">
+        <v>16.7</v>
+      </c>
+      <c r="E52" s="18">
+        <f>C52*D52</f>
+        <v>918500</v>
+      </c>
+      <c r="F52" s="18">
+        <f>E52*0.002</f>
+        <v>1837</v>
+      </c>
+      <c r="G52" s="18">
+        <f>E52*0.000068</f>
+        <v>62.457999999999998</v>
+      </c>
+      <c r="H52" s="18">
+        <f>E52*0.00001</f>
+        <v>9.1850000000000005</v>
+      </c>
+      <c r="I52" s="18">
+        <f>(F52+G52+H52)*0.07</f>
+        <v>133.60501000000002</v>
+      </c>
+      <c r="J52" s="18">
+        <f>E52+F52+I52+G52+H52</f>
+        <v>920542.2480100001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="13" customFormat="1">
+      <c r="A53" s="14">
+        <v>44595</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="16">
+        <v>50000</v>
+      </c>
+      <c r="D53" s="40">
+        <v>16.7</v>
+      </c>
+      <c r="E53" s="18">
+        <f>C53*D53</f>
+        <v>835000</v>
+      </c>
+      <c r="F53" s="18">
+        <f>E53*0.002</f>
+        <v>1670</v>
+      </c>
+      <c r="G53" s="18">
+        <f>E53*0.000068</f>
+        <v>56.78</v>
+      </c>
+      <c r="H53" s="18">
+        <f>E53*0.00001</f>
+        <v>8.3500000000000014</v>
+      </c>
+      <c r="I53" s="18">
+        <f>(F53+G53+H53)*0.07</f>
+        <v>121.45910000000001</v>
+      </c>
+      <c r="J53" s="18">
+        <f>E53+F53+I53+G53+H53</f>
+        <v>836856.58909999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="13" customFormat="1">
+      <c r="A54" s="14">
+        <v>44669</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="16">
+        <v>25000</v>
+      </c>
+      <c r="D54" s="40">
+        <v>12.8</v>
+      </c>
+      <c r="E54" s="18">
+        <f>C54*D54</f>
+        <v>320000</v>
+      </c>
+      <c r="F54" s="18">
+        <f>E54*0.002</f>
+        <v>640</v>
+      </c>
+      <c r="G54" s="18">
+        <f>E54*0.000068</f>
+        <v>21.76</v>
+      </c>
+      <c r="H54" s="18">
+        <f>E54*0.00001</f>
+        <v>3.2</v>
+      </c>
+      <c r="I54" s="18">
+        <f>(F54+G54+H54)*0.07</f>
+        <v>46.547200000000004</v>
+      </c>
+      <c r="J54" s="18">
+        <f>E54+F54+I54+G54+H54</f>
+        <v>320711.50719999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="42"/>
+      <c r="B55" s="12">
+        <f>(D54-D53)/D53</f>
+        <v>-0.23353293413173645</v>
+      </c>
+      <c r="C55" s="5">
+        <f>SUM(C53:C54)</f>
+        <v>75000</v>
+      </c>
+      <c r="D55" s="65">
+        <f>E55/C55</f>
+        <v>15.4</v>
+      </c>
+      <c r="E55" s="37">
+        <f t="shared" ref="E55:J55" si="16">SUM(E53:E54)</f>
+        <v>1155000</v>
+      </c>
+      <c r="F55" s="37">
+        <f t="shared" si="16"/>
+        <v>2310</v>
+      </c>
+      <c r="G55" s="37">
+        <f t="shared" si="16"/>
+        <v>78.540000000000006</v>
+      </c>
+      <c r="H55" s="37">
+        <f t="shared" si="16"/>
+        <v>11.55</v>
+      </c>
+      <c r="I55" s="37">
+        <f t="shared" si="16"/>
+        <v>168.00630000000001</v>
+      </c>
+      <c r="J55" s="37">
+        <f t="shared" si="16"/>
+        <v>1157568.0962999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="13" customFormat="1" ht="12.75">
+      <c r="A56" s="14">
+        <v>45063</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D56" s="40">
+        <v>7.6</v>
+      </c>
+      <c r="E56" s="18">
+        <f>C56*D56</f>
+        <v>22800</v>
+      </c>
+      <c r="F56" s="18">
+        <f>E56*0.002</f>
+        <v>45.6</v>
+      </c>
+      <c r="G56" s="18">
+        <f>E56*0.000068</f>
+        <v>1.5504</v>
+      </c>
+      <c r="H56" s="18">
+        <f>E56*0.00001</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I56" s="18">
+        <f>(F56+G56+H56)*0.07</f>
+        <v>3.3164880000000005</v>
+      </c>
+      <c r="J56" s="18">
+        <f>E56+F56+I56+G56+H56</f>
+        <v>22850.694887999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="12.75">
+      <c r="A57" s="42"/>
+      <c r="B57" s="30">
+        <f>(D56-D55)/D55</f>
+        <v>-0.50649350649350655</v>
+      </c>
+      <c r="C57" s="5">
+        <f>SUM(C55:C56)</f>
+        <v>78000</v>
+      </c>
+      <c r="D57" s="65">
+        <f>E57/C57</f>
+        <v>15.1</v>
+      </c>
+      <c r="E57" s="37">
+        <f t="shared" ref="E57:J57" si="17">SUM(E55:E56)</f>
+        <v>1177800</v>
+      </c>
+      <c r="F57" s="37">
+        <f t="shared" si="17"/>
+        <v>2355.6</v>
+      </c>
+      <c r="G57" s="37">
+        <f t="shared" si="17"/>
+        <v>80.090400000000002</v>
+      </c>
+      <c r="H57" s="37">
+        <f t="shared" si="17"/>
+        <v>11.778</v>
+      </c>
+      <c r="I57" s="37">
+        <f t="shared" si="17"/>
+        <v>171.322788</v>
+      </c>
+      <c r="J57" s="37">
+        <f t="shared" si="17"/>
+        <v>1180418.7911879998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="13" customFormat="1">
+      <c r="A58" s="8">
+        <v>44740</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="10">
+        <v>4000</v>
+      </c>
+      <c r="D58" s="63">
+        <v>6</v>
+      </c>
+      <c r="E58" s="20">
+        <f>C58*D58</f>
+        <v>24000</v>
+      </c>
+      <c r="F58" s="20">
+        <f>E58*0.002</f>
         <v>48</v>
       </c>
-      <c r="E4" s="10">
-        <f>SUM(E2:E3)</f>
-        <v>72000</v>
-      </c>
-      <c r="F4" s="10">
-        <f>SUM(F2:F3)</f>
-        <v>144</v>
-      </c>
-      <c r="G4" s="10">
-        <f>SUM(G2:G3)</f>
-        <v>4.32</v>
-      </c>
-      <c r="H4" s="10">
-        <f>SUM(H2:H3)</f>
-        <v>0.72</v>
-      </c>
-      <c r="I4" s="10">
-        <f>SUM(I2:I3)</f>
-        <v>10.432800000000002</v>
-      </c>
-      <c r="J4" s="10">
-        <f>SUM(J2:J3)</f>
-        <v>72159.472799999989</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-    </row>
-    <row r="5" spans="1:14" s="77" customFormat="1" ht="14.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-    </row>
-    <row r="6" spans="1:14" s="19" customFormat="1" ht="15">
-      <c r="A6" s="49">
-        <v>45092</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16">
-        <v>900</v>
-      </c>
-      <c r="D6" s="68">
-        <v>50</v>
-      </c>
-      <c r="E6" s="18">
-        <f>C6*D6</f>
-        <v>45000</v>
-      </c>
-      <c r="F6" s="18">
-        <f>E6*0.002</f>
-        <v>90</v>
-      </c>
-      <c r="G6" s="18">
-        <f>E6*0.00006</f>
-        <v>2.7</v>
-      </c>
-      <c r="H6" s="18">
-        <f>E6*0.00001</f>
-        <v>0.45</v>
-      </c>
-      <c r="I6" s="18">
-        <f>(F6+G6+H6)*0.07</f>
-        <v>6.5205000000000011</v>
-      </c>
-      <c r="J6" s="18">
-        <f>E6+F6+I6+G6+H6</f>
-        <v>45099.670499999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" ht="12.75">
-      <c r="A7" s="8">
-        <v>45085</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="G58" s="20">
+        <f>E58*0.000068</f>
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="H58" s="20">
+        <f>E58*0.00001</f>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="I58" s="20">
+        <f>(F58+G58+H58)*0.07</f>
+        <v>3.4910400000000004</v>
+      </c>
+      <c r="J58" s="20">
+        <f>E58+F58+I58+G58+H58</f>
+        <v>24053.363040000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="12">
+        <f>(D58-D57)/D57</f>
+        <v>-0.60264900662251653</v>
+      </c>
+      <c r="C59" s="22">
+        <f>SUM(C57:C58)</f>
+        <v>82000</v>
+      </c>
+      <c r="D59" s="64">
+        <f>E59/C59</f>
+        <v>14.65609756097561</v>
+      </c>
+      <c r="E59" s="24">
+        <f t="shared" ref="E59:J59" si="18">SUM(E57:E58)</f>
+        <v>1201800</v>
+      </c>
+      <c r="F59" s="24">
+        <f t="shared" si="18"/>
+        <v>2403.6</v>
+      </c>
+      <c r="G59" s="24">
+        <f t="shared" si="18"/>
+        <v>81.722400000000007</v>
+      </c>
+      <c r="H59" s="24">
+        <f t="shared" si="18"/>
+        <v>12.018000000000001</v>
+      </c>
+      <c r="I59" s="24">
+        <f t="shared" si="18"/>
+        <v>174.813828</v>
+      </c>
+      <c r="J59" s="24">
+        <f t="shared" si="18"/>
+        <v>1204472.1542279997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="12.75"/>
+    <row r="61" spans="1:10" s="13" customFormat="1">
+      <c r="A61" s="14">
+        <v>44672</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="16">
+        <v>15000</v>
+      </c>
+      <c r="D61" s="40">
+        <v>12.1</v>
+      </c>
+      <c r="E61" s="18">
+        <f>C61*D61</f>
+        <v>181500</v>
+      </c>
+      <c r="F61" s="18">
+        <f>E61*0.002</f>
+        <v>363</v>
+      </c>
+      <c r="G61" s="18">
+        <f>E61*0.000068</f>
+        <v>12.342000000000001</v>
+      </c>
+      <c r="H61" s="18">
+        <f>E61*0.00001</f>
+        <v>1.8150000000000002</v>
+      </c>
+      <c r="I61" s="18">
+        <f>(F61+G61+H61)*0.07</f>
+        <v>26.40099</v>
+      </c>
+      <c r="J61" s="18">
+        <f>E61+F61+I61+G61+H61</f>
+        <v>181903.55799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="49">
+        <v>44679</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10">
-        <f>C6</f>
-        <v>900</v>
-      </c>
-      <c r="D7" s="34">
-        <v>52.5</v>
-      </c>
-      <c r="E7" s="11">
-        <f>C7*D7</f>
-        <v>47250</v>
-      </c>
-      <c r="F7" s="35">
-        <f>E7*0.002</f>
-        <v>94.5</v>
-      </c>
-      <c r="G7" s="34">
-        <f>E7*0.000068</f>
-        <v>3.2130000000000001</v>
-      </c>
-      <c r="H7" s="34">
-        <f>E7*0.00001</f>
-        <v>0.47250000000000003</v>
-      </c>
-      <c r="I7" s="34">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>6.8729849999999999</v>
-      </c>
-      <c r="J7" s="34">
-        <f>E7-F7-G7-H7-I7</f>
-        <v>47144.941514999991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="31" customFormat="1" ht="21.75">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="75">
-        <f>(D7-D6)/D6</f>
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="20">
-        <f>E7-E6</f>
-        <v>2250</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20">
-        <f>J7-J6</f>
-        <v>2045.2710149999984</v>
-      </c>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="14.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:14" s="31" customFormat="1" ht="18.75">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="C62" s="16">
+        <f>C61</f>
+        <v>15000</v>
+      </c>
+      <c r="D62" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="E62" s="17">
+        <f>C62*D62</f>
+        <v>187500</v>
+      </c>
+      <c r="F62" s="27">
+        <f>E62*0.002</f>
+        <v>375</v>
+      </c>
+      <c r="G62" s="26">
+        <f>E62*0.000068</f>
+        <v>12.75</v>
+      </c>
+      <c r="H62" s="26">
+        <f>E62*0.00001</f>
+        <v>1.8750000000000002</v>
+      </c>
+      <c r="I62" s="26">
+        <f>(F62+G62+H62)*0.07</f>
+        <v>27.273750000000003</v>
+      </c>
+      <c r="J62" s="26">
+        <f>E62-F62-G62-H62-I62</f>
+        <v>187083.10125000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="28">
+        <f>DAYS360(A61,A62)</f>
+        <v>7</v>
+      </c>
+      <c r="B63" s="30">
+        <f>(D62-D61)/D61</f>
+        <v>3.305785123966945E-2</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18">
+        <f>E62-E61</f>
+        <v>6000</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18">
+        <f>J62-J61</f>
+        <v>5179.5432600000058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="13" customFormat="1">
+      <c r="A64" s="14">
+        <v>44740</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="16">
+        <f>C56</f>
+        <v>3000</v>
+      </c>
+      <c r="D64" s="40">
+        <f>D56</f>
+        <v>7.6</v>
+      </c>
+      <c r="E64" s="18">
+        <f>C64*D64</f>
+        <v>22800</v>
+      </c>
+      <c r="F64" s="18">
+        <f>E64*0.002</f>
+        <v>45.6</v>
+      </c>
+      <c r="G64" s="18">
+        <f>E64*0.000068</f>
+        <v>1.5504</v>
+      </c>
+      <c r="H64" s="18">
+        <f>E64*0.00001</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I64" s="18">
+        <f>(F64+G64+H64)*0.07</f>
+        <v>3.3164880000000005</v>
+      </c>
+      <c r="J64" s="18">
+        <f>E64+F64+I64+G64+H64</f>
+        <v>22850.694887999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="49">
+        <v>44741</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="16">
+        <f>C64</f>
+        <v>3000</v>
+      </c>
+      <c r="D65" s="26">
+        <v>11.7</v>
+      </c>
+      <c r="E65" s="17">
+        <f>C65*D65</f>
+        <v>35100</v>
+      </c>
+      <c r="F65" s="27">
+        <f>E65*0.002</f>
+        <v>70.2</v>
+      </c>
+      <c r="G65" s="26">
+        <f>E65*0.000068</f>
+        <v>2.3868</v>
+      </c>
+      <c r="H65" s="26">
+        <f>E65*0.00001</f>
+        <v>0.35100000000000003</v>
+      </c>
+      <c r="I65" s="26">
+        <f>(F65+G65+H65)*0.07</f>
+        <v>5.1056460000000001</v>
+      </c>
+      <c r="J65" s="26">
+        <f>E65-F65-G65-H65-I65</f>
+        <v>35021.956553999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="28">
+        <f>DAYS360(A64,A65)</f>
+        <v>1</v>
+      </c>
+      <c r="B66" s="30">
+        <f>(D65-D64)/D64</f>
+        <v>0.53947368421052633</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18">
+        <f>E65-E64</f>
+        <v>12300</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18">
+        <f>J65-J64</f>
+        <v>12171.261665999999</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -12169,2258 +14123,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:M66"/>
-  <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="10.625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="15" customFormat="1">
-      <c r="A2" s="14">
-        <v>42608</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
-        <v>20000</v>
-      </c>
-      <c r="D2" s="40">
-        <v>14</v>
-      </c>
-      <c r="E2" s="26">
-        <f>C2*D2</f>
-        <v>280000</v>
-      </c>
-      <c r="F2" s="26">
-        <f>E2*0.002</f>
-        <v>560</v>
-      </c>
-      <c r="G2" s="26">
-        <f>E2*0.000068</f>
-        <v>19.04</v>
-      </c>
-      <c r="H2" s="26">
-        <f>E2*0.00001</f>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="I2" s="26">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>40.7288</v>
-      </c>
-      <c r="J2" s="17">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>280622.56879999995</v>
-      </c>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1">
-      <c r="A3" s="14">
-        <v>42633</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="17">
-        <v>13.1</v>
-      </c>
-      <c r="E3" s="18">
-        <f>C3*D3</f>
-        <v>131000</v>
-      </c>
-      <c r="F3" s="18">
-        <f>E3*0.002</f>
-        <v>262</v>
-      </c>
-      <c r="G3" s="18">
-        <f>E3*0.000068</f>
-        <v>8.9079999999999995</v>
-      </c>
-      <c r="H3" s="18">
-        <f>E3*0.00001</f>
-        <v>1.31</v>
-      </c>
-      <c r="I3" s="18">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>19.055260000000004</v>
-      </c>
-      <c r="J3" s="18">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>131291.27325999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="C4" s="5">
-        <f>SUM(C2:C3)</f>
-        <v>30000</v>
-      </c>
-      <c r="D4" s="6">
-        <f>E4/C4</f>
-        <v>13.7</v>
-      </c>
-      <c r="E4" s="37">
-        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>411000</v>
-      </c>
-      <c r="F4" s="37">
-        <f t="shared" si="0"/>
-        <v>822</v>
-      </c>
-      <c r="G4" s="37">
-        <f t="shared" si="0"/>
-        <v>27.948</v>
-      </c>
-      <c r="H4" s="37">
-        <f t="shared" si="0"/>
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="I4" s="37">
-        <f t="shared" si="0"/>
-        <v>59.784060000000004</v>
-      </c>
-      <c r="J4" s="37">
-        <f t="shared" si="0"/>
-        <v>411913.84205999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="13" customFormat="1">
-      <c r="A5" s="14">
-        <v>42656</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="17">
-        <v>12.5</v>
-      </c>
-      <c r="E5" s="18">
-        <f>C5*D5</f>
-        <v>125000</v>
-      </c>
-      <c r="F5" s="18">
-        <f>E5*0.002</f>
-        <v>250</v>
-      </c>
-      <c r="G5" s="18">
-        <f>E5*0.000068</f>
-        <v>8.5</v>
-      </c>
-      <c r="H5" s="18">
-        <f>E5*0.00001</f>
-        <v>1.25</v>
-      </c>
-      <c r="I5" s="18">
-        <f>(F5+G5+H5)*0.07</f>
-        <v>18.182500000000001</v>
-      </c>
-      <c r="J5" s="18">
-        <f>E5+F5+I5+G5+H5</f>
-        <v>125277.9325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="42"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5">
-        <f>SUM(C4:C5)</f>
-        <v>40000</v>
-      </c>
-      <c r="D6" s="6">
-        <f>E6/C6</f>
-        <v>13.4</v>
-      </c>
-      <c r="E6" s="37">
-        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>536000</v>
-      </c>
-      <c r="F6" s="37">
-        <f t="shared" si="1"/>
-        <v>1072</v>
-      </c>
-      <c r="G6" s="37">
-        <f t="shared" si="1"/>
-        <v>36.448</v>
-      </c>
-      <c r="H6" s="37">
-        <f t="shared" si="1"/>
-        <v>5.36</v>
-      </c>
-      <c r="I6" s="37">
-        <f t="shared" si="1"/>
-        <v>77.966560000000001</v>
-      </c>
-      <c r="J6" s="37">
-        <f t="shared" si="1"/>
-        <v>537191.77455999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A7" s="14">
-        <v>42681</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16">
-        <v>40000</v>
-      </c>
-      <c r="D7" s="26">
-        <v>15.63</v>
-      </c>
-      <c r="E7" s="17">
-        <f>C7*D7</f>
-        <v>625200</v>
-      </c>
-      <c r="F7" s="27">
-        <f>E7*0.002</f>
-        <v>1250.4000000000001</v>
-      </c>
-      <c r="G7" s="26">
-        <f>E7*0.000068</f>
-        <v>42.513599999999997</v>
-      </c>
-      <c r="H7" s="26">
-        <f>E7*0.00001</f>
-        <v>6.2520000000000007</v>
-      </c>
-      <c r="I7" s="26">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>90.941592000000014</v>
-      </c>
-      <c r="J7" s="26">
-        <f>E7-F7-G7-H7-I7</f>
-        <v>623809.89280800009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="E8" s="23">
-        <f>E7-E6</f>
-        <v>89200</v>
-      </c>
-      <c r="J8" s="23">
-        <f>J7-J6</f>
-        <v>86618.118248000159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A9" s="14">
-        <v>42662</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="26">
-        <v>15</v>
-      </c>
-      <c r="E9" s="17">
-        <f>C9*D9</f>
-        <v>150000</v>
-      </c>
-      <c r="F9" s="27">
-        <f>E9*0.002</f>
-        <v>300</v>
-      </c>
-      <c r="G9" s="26">
-        <f>E9*0.000068</f>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H9" s="26">
-        <f>E9*0.00001</f>
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="I9" s="26">
-        <f>(F9+G9+H9)*0.07</f>
-        <v>21.819000000000003</v>
-      </c>
-      <c r="J9" s="26">
-        <f>E9-F9-G9-H9-I9</f>
-        <v>149666.481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="13" customFormat="1">
-      <c r="A10" s="8">
-        <v>42572</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10">
-        <f>C9</f>
-        <v>10000</v>
-      </c>
-      <c r="D10" s="34">
-        <v>14.5</v>
-      </c>
-      <c r="E10" s="11">
-        <f>C10*D10</f>
-        <v>145000</v>
-      </c>
-      <c r="F10" s="35">
-        <f>E10*0.002</f>
-        <v>290</v>
-      </c>
-      <c r="G10" s="34">
-        <f>E10*0.000068</f>
-        <v>9.86</v>
-      </c>
-      <c r="H10" s="34">
-        <f>E10*0.00001</f>
-        <v>1.4500000000000002</v>
-      </c>
-      <c r="I10" s="34">
-        <f>(F10+G10+H10)*0.07</f>
-        <v>21.091700000000003</v>
-      </c>
-      <c r="J10" s="11">
-        <f>E10+F10+I10+G10+H10</f>
-        <v>145322.40169999999</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-    </row>
-    <row r="11" spans="1:13" s="13" customFormat="1">
-      <c r="A11" s="8">
-        <f>DAYS360(A10,A9)</f>
-        <v>88</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34">
-        <f>E9-E10</f>
-        <v>5000</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="34">
-        <f>J9-J10</f>
-        <v>4344.0793000000122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A12" s="14">
-        <v>42664</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="26">
-        <v>15.4</v>
-      </c>
-      <c r="E12" s="17">
-        <f>C12*D12</f>
-        <v>154000</v>
-      </c>
-      <c r="F12" s="27">
-        <f>E12*0.002</f>
-        <v>308</v>
-      </c>
-      <c r="G12" s="26">
-        <f>E12*0.000068</f>
-        <v>10.472</v>
-      </c>
-      <c r="H12" s="26">
-        <f>E12*0.00001</f>
-        <v>1.54</v>
-      </c>
-      <c r="I12" s="26">
-        <f>(F12+G12+H12)*0.07</f>
-        <v>22.400840000000002</v>
-      </c>
-      <c r="J12" s="26">
-        <f>E12-F12-G12-H12-I12</f>
-        <v>153657.58716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="13" customFormat="1">
-      <c r="A13" s="8">
-        <v>42572</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
-        <f>C12</f>
-        <v>10000</v>
-      </c>
-      <c r="D13" s="34">
-        <v>14.9</v>
-      </c>
-      <c r="E13" s="11">
-        <f>C13*D13</f>
-        <v>149000</v>
-      </c>
-      <c r="F13" s="35">
-        <f>E13*0.002</f>
-        <v>298</v>
-      </c>
-      <c r="G13" s="34">
-        <f>E13*0.000068</f>
-        <v>10.132</v>
-      </c>
-      <c r="H13" s="34">
-        <f>E13*0.00001</f>
-        <v>1.4900000000000002</v>
-      </c>
-      <c r="I13" s="34">
-        <f>(F13+G13+H13)*0.07</f>
-        <v>21.673540000000003</v>
-      </c>
-      <c r="J13" s="11">
-        <f>E13+F13+I13+G13+H13</f>
-        <v>149331.29553999999</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-    </row>
-    <row r="14" spans="1:13" s="13" customFormat="1">
-      <c r="A14" s="8">
-        <f>DAYS360(A13,A12)</f>
-        <v>90</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34">
-        <f>E12-E13</f>
-        <v>5000</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="34">
-        <f>J12-J13</f>
-        <v>4326.2916200000036</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="14">
-        <v>42668</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D15" s="26">
-        <v>15.9</v>
-      </c>
-      <c r="E15" s="17">
-        <f>C15*D15</f>
-        <v>159000</v>
-      </c>
-      <c r="F15" s="27">
-        <f>E15*0.002</f>
-        <v>318</v>
-      </c>
-      <c r="G15" s="26">
-        <f>E15*0.000068</f>
-        <v>10.811999999999999</v>
-      </c>
-      <c r="H15" s="26">
-        <f>E15*0.00001</f>
-        <v>1.59</v>
-      </c>
-      <c r="I15" s="26">
-        <f>(F15+G15+H15)*0.07</f>
-        <v>23.128140000000002</v>
-      </c>
-      <c r="J15" s="26">
-        <f>E15-F15-G15-H15-I15</f>
-        <v>158646.46986000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="13" customFormat="1">
-      <c r="A16" s="8">
-        <v>42674</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10">
-        <f>C15</f>
-        <v>10000</v>
-      </c>
-      <c r="D16" s="34">
-        <v>15.4</v>
-      </c>
-      <c r="E16" s="11">
-        <f>C16*D16</f>
-        <v>154000</v>
-      </c>
-      <c r="F16" s="35">
-        <f>E16*0.002</f>
-        <v>308</v>
-      </c>
-      <c r="G16" s="34">
-        <f>E16*0.000068</f>
-        <v>10.472</v>
-      </c>
-      <c r="H16" s="34">
-        <f>E16*0.00001</f>
-        <v>1.54</v>
-      </c>
-      <c r="I16" s="34">
-        <f>(F16+G16+H16)*0.07</f>
-        <v>22.400840000000002</v>
-      </c>
-      <c r="J16" s="11">
-        <f>E16+F16+I16+G16+H16</f>
-        <v>154342.41284</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-    </row>
-    <row r="17" spans="1:13" s="13" customFormat="1">
-      <c r="A17" s="8">
-        <f>DAYS360(A15,A16)</f>
-        <v>6</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34">
-        <f>E15-E16</f>
-        <v>5000</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="34">
-        <f>J15-J16</f>
-        <v>4304.0570200000075</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A18" s="14">
-        <v>42681</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D18" s="26">
-        <v>16.2</v>
-      </c>
-      <c r="E18" s="17">
-        <f>C18*D18</f>
-        <v>162000</v>
-      </c>
-      <c r="F18" s="27">
-        <f>E18*0.002</f>
-        <v>324</v>
-      </c>
-      <c r="G18" s="26">
-        <f>E18*0.000068</f>
-        <v>11.016</v>
-      </c>
-      <c r="H18" s="26">
-        <f>E18*0.00001</f>
-        <v>1.62</v>
-      </c>
-      <c r="I18" s="26">
-        <f>(F18+G18+H18)*0.07</f>
-        <v>23.564520000000005</v>
-      </c>
-      <c r="J18" s="26">
-        <f>E18-F18-G18-H18-I18</f>
-        <v>161639.79947999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="13" customFormat="1">
-      <c r="A19" s="8">
-        <v>42674</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10">
-        <f>C18</f>
-        <v>10000</v>
-      </c>
-      <c r="D19" s="34">
-        <v>15.7</v>
-      </c>
-      <c r="E19" s="11">
-        <f>C19*D19</f>
-        <v>157000</v>
-      </c>
-      <c r="F19" s="35">
-        <f>E19*0.002</f>
-        <v>314</v>
-      </c>
-      <c r="G19" s="34">
-        <f>E19*0.000068</f>
-        <v>10.676</v>
-      </c>
-      <c r="H19" s="34">
-        <f>E19*0.00001</f>
-        <v>1.57</v>
-      </c>
-      <c r="I19" s="34">
-        <f>(F19+G19+H19)*0.07</f>
-        <v>22.837220000000002</v>
-      </c>
-      <c r="J19" s="11">
-        <f>E19+F19+I19+G19+H19</f>
-        <v>157349.08322</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-    </row>
-    <row r="20" spans="1:13" s="13" customFormat="1">
-      <c r="A20" s="8">
-        <f>DAYS360(A18,A19)</f>
-        <v>-6</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34">
-        <f>E18-E19</f>
-        <v>5000</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="34">
-        <f>J18-J19</f>
-        <v>4290.7162599999865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="13" customFormat="1">
-      <c r="A21" s="14">
-        <v>42674</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D21" s="26">
-        <v>15.4</v>
-      </c>
-      <c r="E21" s="17">
-        <f>C21*D21</f>
-        <v>154000</v>
-      </c>
-      <c r="F21" s="27">
-        <f>E21*0.002</f>
-        <v>308</v>
-      </c>
-      <c r="G21" s="26">
-        <f>E21*0.000068</f>
-        <v>10.472</v>
-      </c>
-      <c r="H21" s="26">
-        <f>E21*0.00001</f>
-        <v>1.54</v>
-      </c>
-      <c r="I21" s="26">
-        <f>(F21+G21+H21)*0.07</f>
-        <v>22.400840000000002</v>
-      </c>
-      <c r="J21" s="17">
-        <f>E21+F21+I21+G21+H21</f>
-        <v>154342.41284</v>
-      </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-    </row>
-    <row r="22" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A22" s="14">
-        <v>42677</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D22" s="26">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="E22" s="17">
-        <f>C22*D22</f>
-        <v>161000</v>
-      </c>
-      <c r="F22" s="27">
-        <f>E22*0.002</f>
-        <v>322</v>
-      </c>
-      <c r="G22" s="26">
-        <f>E22*0.000068</f>
-        <v>10.948</v>
-      </c>
-      <c r="H22" s="26">
-        <f>E22*0.00001</f>
-        <v>1.61</v>
-      </c>
-      <c r="I22" s="26">
-        <f>(F22+G22+H22)*0.07</f>
-        <v>23.419060000000002</v>
-      </c>
-      <c r="J22" s="26">
-        <f>E22-F22-G22-H22-I22</f>
-        <v>160642.02294000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="13" customFormat="1">
-      <c r="A23" s="14">
-        <f>DAYS360(A21,A22)</f>
-        <v>3</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26">
-        <f>E22-E21</f>
-        <v>7000</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="26">
-        <f>J22-J21</f>
-        <v>6299.6101000000199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="15" customFormat="1">
-      <c r="A24" s="14">
-        <v>42685</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="16">
-        <v>20000</v>
-      </c>
-      <c r="D24" s="40">
-        <v>18.2</v>
-      </c>
-      <c r="E24" s="26">
-        <f>C24*D24</f>
-        <v>364000</v>
-      </c>
-      <c r="F24" s="26">
-        <f>E24*0.002</f>
-        <v>728</v>
-      </c>
-      <c r="G24" s="26">
-        <f>E24*0.000068</f>
-        <v>24.751999999999999</v>
-      </c>
-      <c r="H24" s="26">
-        <f>E24*0.00001</f>
-        <v>3.64</v>
-      </c>
-      <c r="I24" s="26">
-        <f>(F24+G24+H24)*0.07</f>
-        <v>52.94744</v>
-      </c>
-      <c r="J24" s="17">
-        <f>E24+F24+I24+G24+H24</f>
-        <v>364809.33944000001</v>
-      </c>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:13" s="13" customFormat="1">
-      <c r="A25" s="14">
-        <v>42688</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D25" s="17">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E25" s="18">
-        <f>C25*D25</f>
-        <v>179000</v>
-      </c>
-      <c r="F25" s="18">
-        <f>E25*0.002</f>
-        <v>358</v>
-      </c>
-      <c r="G25" s="18">
-        <f>E25*0.000068</f>
-        <v>12.172000000000001</v>
-      </c>
-      <c r="H25" s="18">
-        <f>E25*0.00001</f>
-        <v>1.79</v>
-      </c>
-      <c r="I25" s="18">
-        <f>(F25+G25+H25)*0.07</f>
-        <v>26.037340000000004</v>
-      </c>
-      <c r="J25" s="18">
-        <f>E25+F25+I25+G25+H25</f>
-        <v>179397.99934000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="42"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5">
-        <f>SUM(C24:C25)</f>
-        <v>30000</v>
-      </c>
-      <c r="D26" s="6">
-        <f>E26/C26</f>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="E26" s="37">
-        <f t="shared" ref="E26:J26" si="2">SUM(E24:E25)</f>
-        <v>543000</v>
-      </c>
-      <c r="F26" s="37">
-        <f t="shared" si="2"/>
-        <v>1086</v>
-      </c>
-      <c r="G26" s="37">
-        <f t="shared" si="2"/>
-        <v>36.923999999999999</v>
-      </c>
-      <c r="H26" s="37">
-        <f t="shared" si="2"/>
-        <v>5.43</v>
-      </c>
-      <c r="I26" s="37">
-        <f t="shared" si="2"/>
-        <v>78.984780000000001</v>
-      </c>
-      <c r="J26" s="37">
-        <f t="shared" si="2"/>
-        <v>544207.33877999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="13" customFormat="1">
-      <c r="A27" s="14">
-        <v>42688</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D27" s="17">
-        <v>17.7</v>
-      </c>
-      <c r="E27" s="18">
-        <f>C27*D27</f>
-        <v>177000</v>
-      </c>
-      <c r="F27" s="18">
-        <f>E27*0.002</f>
-        <v>354</v>
-      </c>
-      <c r="G27" s="18">
-        <f>E27*0.000068</f>
-        <v>12.036</v>
-      </c>
-      <c r="H27" s="18">
-        <f>E27*0.00001</f>
-        <v>1.7700000000000002</v>
-      </c>
-      <c r="I27" s="18">
-        <f>(F27+G27+H27)*0.07</f>
-        <v>25.746420000000001</v>
-      </c>
-      <c r="J27" s="18">
-        <f>E27+F27+I27+G27+H27</f>
-        <v>177393.55241999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="42"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5">
-        <f>SUM(C26:C27)</f>
-        <v>40000</v>
-      </c>
-      <c r="D28" s="6">
-        <f>E28/C28</f>
-        <v>18</v>
-      </c>
-      <c r="E28" s="37">
-        <f t="shared" ref="E28:J28" si="3">SUM(E26:E27)</f>
-        <v>720000</v>
-      </c>
-      <c r="F28" s="37">
-        <f t="shared" si="3"/>
-        <v>1440</v>
-      </c>
-      <c r="G28" s="37">
-        <f t="shared" si="3"/>
-        <v>48.96</v>
-      </c>
-      <c r="H28" s="37">
-        <f t="shared" si="3"/>
-        <v>7.2</v>
-      </c>
-      <c r="I28" s="37">
-        <f t="shared" si="3"/>
-        <v>104.7312</v>
-      </c>
-      <c r="J28" s="37">
-        <f t="shared" si="3"/>
-        <v>721600.89119999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="13" customFormat="1">
-      <c r="A29" s="14">
-        <v>42688</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D29" s="17">
-        <v>17.5</v>
-      </c>
-      <c r="E29" s="18">
-        <f>C29*D29</f>
-        <v>175000</v>
-      </c>
-      <c r="F29" s="18">
-        <f>E29*0.002</f>
-        <v>350</v>
-      </c>
-      <c r="G29" s="18">
-        <f>E29*0.000068</f>
-        <v>11.9</v>
-      </c>
-      <c r="H29" s="18">
-        <f>E29*0.00001</f>
-        <v>1.7500000000000002</v>
-      </c>
-      <c r="I29" s="18">
-        <f>(F29+G29+H29)*0.07</f>
-        <v>25.455500000000001</v>
-      </c>
-      <c r="J29" s="18">
-        <f>E29+F29+I29+G29+H29</f>
-        <v>175389.10550000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="42"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5">
-        <f>SUM(C28:C29)</f>
-        <v>50000</v>
-      </c>
-      <c r="D30" s="6">
-        <f>E30/C30</f>
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E30" s="37">
-        <f t="shared" ref="E30:J30" si="4">SUM(E28:E29)</f>
-        <v>895000</v>
-      </c>
-      <c r="F30" s="37">
-        <f t="shared" si="4"/>
-        <v>1790</v>
-      </c>
-      <c r="G30" s="37">
-        <f t="shared" si="4"/>
-        <v>60.86</v>
-      </c>
-      <c r="H30" s="37">
-        <f t="shared" si="4"/>
-        <v>8.9500000000000011</v>
-      </c>
-      <c r="I30" s="37">
-        <f t="shared" si="4"/>
-        <v>130.1867</v>
-      </c>
-      <c r="J30" s="37">
-        <f t="shared" si="4"/>
-        <v>896989.99670000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="13" customFormat="1">
-      <c r="A31" s="14">
-        <v>42688</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D31" s="17">
-        <v>17.3</v>
-      </c>
-      <c r="E31" s="18">
-        <f>C31*D31</f>
-        <v>173000</v>
-      </c>
-      <c r="F31" s="18">
-        <f>E31*0.002</f>
-        <v>346</v>
-      </c>
-      <c r="G31" s="18">
-        <f>E31*0.000068</f>
-        <v>11.763999999999999</v>
-      </c>
-      <c r="H31" s="18">
-        <f>E31*0.00001</f>
-        <v>1.7300000000000002</v>
-      </c>
-      <c r="I31" s="18">
-        <f>(F31+G31+H31)*0.07</f>
-        <v>25.164580000000004</v>
-      </c>
-      <c r="J31" s="18">
-        <f>E31+F31+I31+G31+H31</f>
-        <v>173384.65858000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="42"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5">
-        <f>SUM(C30:C31)</f>
-        <v>60000</v>
-      </c>
-      <c r="D32" s="6">
-        <f>E32/C32</f>
-        <v>17.8</v>
-      </c>
-      <c r="E32" s="37">
-        <f t="shared" ref="E32:J32" si="5">SUM(E30:E31)</f>
-        <v>1068000</v>
-      </c>
-      <c r="F32" s="37">
-        <f t="shared" si="5"/>
-        <v>2136</v>
-      </c>
-      <c r="G32" s="37">
-        <f t="shared" si="5"/>
-        <v>72.623999999999995</v>
-      </c>
-      <c r="H32" s="37">
-        <f t="shared" si="5"/>
-        <v>10.680000000000001</v>
-      </c>
-      <c r="I32" s="37">
-        <f t="shared" si="5"/>
-        <v>155.35128</v>
-      </c>
-      <c r="J32" s="37">
-        <f t="shared" si="5"/>
-        <v>1070374.6552800001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="13" customFormat="1">
-      <c r="A33" s="14">
-        <v>42691</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D33" s="17">
-        <v>15.3</v>
-      </c>
-      <c r="E33" s="18">
-        <f>C33*D33</f>
-        <v>153000</v>
-      </c>
-      <c r="F33" s="18">
-        <f>E33*0.002</f>
-        <v>306</v>
-      </c>
-      <c r="G33" s="18">
-        <f>E33*0.000068</f>
-        <v>10.404</v>
-      </c>
-      <c r="H33" s="18">
-        <f>E33*0.00001</f>
-        <v>1.53</v>
-      </c>
-      <c r="I33" s="18">
-        <f>(F33+G33+H33)*0.07</f>
-        <v>22.255379999999999</v>
-      </c>
-      <c r="J33" s="18">
-        <f>E33+F33+I33+G33+H33</f>
-        <v>153340.18938</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="42"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5">
-        <f>SUM(C32:C33)</f>
-        <v>70000</v>
-      </c>
-      <c r="D34" s="6">
-        <f>E34/C34</f>
-        <v>17.442857142857143</v>
-      </c>
-      <c r="E34" s="37">
-        <f t="shared" ref="E34:J34" si="6">SUM(E32:E33)</f>
-        <v>1221000</v>
-      </c>
-      <c r="F34" s="37">
-        <f t="shared" si="6"/>
-        <v>2442</v>
-      </c>
-      <c r="G34" s="37">
-        <f t="shared" si="6"/>
-        <v>83.027999999999992</v>
-      </c>
-      <c r="H34" s="37">
-        <f t="shared" si="6"/>
-        <v>12.21</v>
-      </c>
-      <c r="I34" s="37">
-        <f t="shared" si="6"/>
-        <v>177.60666000000001</v>
-      </c>
-      <c r="J34" s="37">
-        <f t="shared" si="6"/>
-        <v>1223714.8446599999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="13" customFormat="1">
-      <c r="A35" s="14">
-        <v>42720</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D35" s="17">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="E35" s="18">
-        <f>C35*D35</f>
-        <v>171000</v>
-      </c>
-      <c r="F35" s="18">
-        <f>E35*0.002</f>
-        <v>342</v>
-      </c>
-      <c r="G35" s="18">
-        <f>E35*0.000068</f>
-        <v>11.628</v>
-      </c>
-      <c r="H35" s="18">
-        <f>E35*0.00001</f>
-        <v>1.7100000000000002</v>
-      </c>
-      <c r="I35" s="18">
-        <f>(F35+G35+H35)*0.07</f>
-        <v>24.873660000000001</v>
-      </c>
-      <c r="J35" s="18">
-        <f>E35+F35+I35+G35+H35</f>
-        <v>171380.21166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="42"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5">
-        <f>SUM(C34:C35)</f>
-        <v>80000</v>
-      </c>
-      <c r="D36" s="6">
-        <f>E36/C36</f>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E36" s="37">
-        <f t="shared" ref="E36:J36" si="7">SUM(E34:E35)</f>
-        <v>1392000</v>
-      </c>
-      <c r="F36" s="37">
-        <f t="shared" si="7"/>
-        <v>2784</v>
-      </c>
-      <c r="G36" s="37">
-        <f t="shared" si="7"/>
-        <v>94.655999999999992</v>
-      </c>
-      <c r="H36" s="37">
-        <f t="shared" si="7"/>
-        <v>13.920000000000002</v>
-      </c>
-      <c r="I36" s="37">
-        <f t="shared" si="7"/>
-        <v>202.48032000000001</v>
-      </c>
-      <c r="J36" s="37">
-        <f t="shared" si="7"/>
-        <v>1395095.05632</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="15" customFormat="1">
-      <c r="A38" s="14">
-        <v>42685</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="16">
-        <v>20000</v>
-      </c>
-      <c r="D38" s="40">
-        <v>18.2</v>
-      </c>
-      <c r="E38" s="26">
-        <f t="shared" ref="E38:E44" si="8">C38*D38</f>
-        <v>364000</v>
-      </c>
-      <c r="F38" s="26">
-        <f t="shared" ref="F38:F44" si="9">E38*0.002</f>
-        <v>728</v>
-      </c>
-      <c r="G38" s="26">
-        <f t="shared" ref="G38:G44" si="10">E38*0.000068</f>
-        <v>24.751999999999999</v>
-      </c>
-      <c r="H38" s="26">
-        <f t="shared" ref="H38:H44" si="11">E38*0.00001</f>
-        <v>3.64</v>
-      </c>
-      <c r="I38" s="26">
-        <f t="shared" ref="I38:I44" si="12">(F38+G38+H38)*0.07</f>
-        <v>52.94744</v>
-      </c>
-      <c r="J38" s="17">
-        <f t="shared" ref="J38:J44" si="13">E38+F38+I38+G38+H38</f>
-        <v>364809.33944000001</v>
-      </c>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="1:11" s="13" customFormat="1">
-      <c r="A39" s="14">
-        <v>42688</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D39" s="17">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E39" s="18">
-        <f t="shared" si="8"/>
-        <v>179000</v>
-      </c>
-      <c r="F39" s="18">
-        <f t="shared" si="9"/>
-        <v>358</v>
-      </c>
-      <c r="G39" s="18">
-        <f t="shared" si="10"/>
-        <v>12.172000000000001</v>
-      </c>
-      <c r="H39" s="18">
-        <f t="shared" si="11"/>
-        <v>1.79</v>
-      </c>
-      <c r="I39" s="18">
-        <f t="shared" si="12"/>
-        <v>26.037340000000004</v>
-      </c>
-      <c r="J39" s="18">
-        <f t="shared" si="13"/>
-        <v>179397.99934000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="13" customFormat="1">
-      <c r="A40" s="14">
-        <v>42688</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D40" s="17">
-        <v>17.7</v>
-      </c>
-      <c r="E40" s="18">
-        <f t="shared" si="8"/>
-        <v>177000</v>
-      </c>
-      <c r="F40" s="18">
-        <f t="shared" si="9"/>
-        <v>354</v>
-      </c>
-      <c r="G40" s="18">
-        <f t="shared" si="10"/>
-        <v>12.036</v>
-      </c>
-      <c r="H40" s="18">
-        <f t="shared" si="11"/>
-        <v>1.7700000000000002</v>
-      </c>
-      <c r="I40" s="18">
-        <f t="shared" si="12"/>
-        <v>25.746420000000001</v>
-      </c>
-      <c r="J40" s="18">
-        <f t="shared" si="13"/>
-        <v>177393.55241999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="13" customFormat="1">
-      <c r="A41" s="14">
-        <v>42688</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D41" s="17">
-        <v>17.5</v>
-      </c>
-      <c r="E41" s="18">
-        <f t="shared" si="8"/>
-        <v>175000</v>
-      </c>
-      <c r="F41" s="18">
-        <f t="shared" si="9"/>
-        <v>350</v>
-      </c>
-      <c r="G41" s="18">
-        <f t="shared" si="10"/>
-        <v>11.9</v>
-      </c>
-      <c r="H41" s="18">
-        <f t="shared" si="11"/>
-        <v>1.7500000000000002</v>
-      </c>
-      <c r="I41" s="18">
-        <f t="shared" si="12"/>
-        <v>25.455500000000001</v>
-      </c>
-      <c r="J41" s="18">
-        <f t="shared" si="13"/>
-        <v>175389.10550000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="13" customFormat="1">
-      <c r="A42" s="14">
-        <v>42688</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D42" s="17">
-        <v>17.3</v>
-      </c>
-      <c r="E42" s="18">
-        <f t="shared" si="8"/>
-        <v>173000</v>
-      </c>
-      <c r="F42" s="18">
-        <f t="shared" si="9"/>
-        <v>346</v>
-      </c>
-      <c r="G42" s="18">
-        <f t="shared" si="10"/>
-        <v>11.763999999999999</v>
-      </c>
-      <c r="H42" s="18">
-        <f t="shared" si="11"/>
-        <v>1.7300000000000002</v>
-      </c>
-      <c r="I42" s="18">
-        <f t="shared" si="12"/>
-        <v>25.164580000000004</v>
-      </c>
-      <c r="J42" s="18">
-        <f t="shared" si="13"/>
-        <v>173384.65858000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="13" customFormat="1">
-      <c r="A43" s="14">
-        <v>42691</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D43" s="17">
-        <v>15.3</v>
-      </c>
-      <c r="E43" s="18">
-        <f t="shared" si="8"/>
-        <v>153000</v>
-      </c>
-      <c r="F43" s="18">
-        <f t="shared" si="9"/>
-        <v>306</v>
-      </c>
-      <c r="G43" s="18">
-        <f t="shared" si="10"/>
-        <v>10.404</v>
-      </c>
-      <c r="H43" s="18">
-        <f t="shared" si="11"/>
-        <v>1.53</v>
-      </c>
-      <c r="I43" s="18">
-        <f t="shared" si="12"/>
-        <v>22.255379999999999</v>
-      </c>
-      <c r="J43" s="18">
-        <f t="shared" si="13"/>
-        <v>153340.18938</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="13" customFormat="1">
-      <c r="A44" s="14">
-        <v>42720</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D44" s="17">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="E44" s="18">
-        <f t="shared" si="8"/>
-        <v>171000</v>
-      </c>
-      <c r="F44" s="18">
-        <f t="shared" si="9"/>
-        <v>342</v>
-      </c>
-      <c r="G44" s="18">
-        <f t="shared" si="10"/>
-        <v>11.628</v>
-      </c>
-      <c r="H44" s="18">
-        <f t="shared" si="11"/>
-        <v>1.7100000000000002</v>
-      </c>
-      <c r="I44" s="18">
-        <f t="shared" si="12"/>
-        <v>24.873660000000001</v>
-      </c>
-      <c r="J44" s="18">
-        <f t="shared" si="13"/>
-        <v>171380.21166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="C45" s="22">
-        <f>SUM(C38:C44)</f>
-        <v>80000</v>
-      </c>
-      <c r="D45" s="21">
-        <f>E45/C45</f>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E45" s="22">
-        <f t="shared" ref="E45:J45" si="14">SUM(E38:E44)</f>
-        <v>1392000</v>
-      </c>
-      <c r="F45" s="22">
-        <f t="shared" si="14"/>
-        <v>2784</v>
-      </c>
-      <c r="G45" s="22">
-        <f t="shared" si="14"/>
-        <v>94.655999999999992</v>
-      </c>
-      <c r="H45" s="22">
-        <f t="shared" si="14"/>
-        <v>13.920000000000002</v>
-      </c>
-      <c r="I45" s="22">
-        <f t="shared" si="14"/>
-        <v>202.48032000000001</v>
-      </c>
-      <c r="J45" s="22">
-        <f t="shared" si="14"/>
-        <v>1395095.05632</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="13" customFormat="1">
-      <c r="A47" s="14">
-        <v>42720</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="16">
-        <v>75000</v>
-      </c>
-      <c r="D47" s="40">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="E47" s="18">
-        <f>C47*D47</f>
-        <v>1267500</v>
-      </c>
-      <c r="F47" s="18">
-        <f>E47*0.002</f>
-        <v>2535</v>
-      </c>
-      <c r="G47" s="18">
-        <f>E47*0.000068</f>
-        <v>86.19</v>
-      </c>
-      <c r="H47" s="18">
-        <f>E47*0.00001</f>
-        <v>12.675000000000001</v>
-      </c>
-      <c r="I47" s="18">
-        <f>(F47+G47+H47)*0.07</f>
-        <v>184.37055000000004</v>
-      </c>
-      <c r="J47" s="18">
-        <f>E47+F47+I47+G47+H47</f>
-        <v>1270318.2355500001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="13" customFormat="1">
-      <c r="A48" s="14">
-        <v>44271</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="16">
-        <v>5000</v>
-      </c>
-      <c r="D48" s="40">
-        <v>13.7</v>
-      </c>
-      <c r="E48" s="18">
-        <f>C48*D48</f>
-        <v>68500</v>
-      </c>
-      <c r="F48" s="18">
-        <f>E48*0.002</f>
-        <v>137</v>
-      </c>
-      <c r="G48" s="18">
-        <f>E48*0.000068</f>
-        <v>4.6580000000000004</v>
-      </c>
-      <c r="H48" s="18">
-        <f>E48*0.00001</f>
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="I48" s="18">
-        <f>(F48+G48+H48)*0.07</f>
-        <v>9.96401</v>
-      </c>
-      <c r="J48" s="18">
-        <f>E48+F48+I48+G48+H48</f>
-        <v>68652.30700999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="42"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5">
-        <f>SUM(C47:C48)</f>
-        <v>80000</v>
-      </c>
-      <c r="D49" s="65">
-        <f>E49/C49</f>
-        <v>16.7</v>
-      </c>
-      <c r="E49" s="37">
-        <f t="shared" ref="E49:J49" si="15">SUM(E47:E48)</f>
-        <v>1336000</v>
-      </c>
-      <c r="F49" s="37">
-        <f t="shared" si="15"/>
-        <v>2672</v>
-      </c>
-      <c r="G49" s="37">
-        <f t="shared" si="15"/>
-        <v>90.847999999999999</v>
-      </c>
-      <c r="H49" s="37">
-        <f t="shared" si="15"/>
-        <v>13.360000000000001</v>
-      </c>
-      <c r="I49" s="37">
-        <f t="shared" si="15"/>
-        <v>194.33456000000004</v>
-      </c>
-      <c r="J49" s="37">
-        <f t="shared" si="15"/>
-        <v>1338970.54256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="13" customFormat="1">
-      <c r="A50" s="14">
-        <v>44351</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="16">
-        <v>70000</v>
-      </c>
-      <c r="D50" s="40">
-        <v>16.7</v>
-      </c>
-      <c r="E50" s="18">
-        <f>C50*D50</f>
-        <v>1169000</v>
-      </c>
-      <c r="F50" s="18">
-        <f>E50*0.002</f>
-        <v>2338</v>
-      </c>
-      <c r="G50" s="18">
-        <f>E50*0.000068</f>
-        <v>79.492000000000004</v>
-      </c>
-      <c r="H50" s="18">
-        <f>E50*0.00001</f>
-        <v>11.690000000000001</v>
-      </c>
-      <c r="I50" s="18">
-        <f>(F50+G50+H50)*0.07</f>
-        <v>170.04274000000004</v>
-      </c>
-      <c r="J50" s="18">
-        <f>E50+F50+I50+G50+H50</f>
-        <v>1171599.22474</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="13" customFormat="1">
-      <c r="A51" s="14">
-        <v>44557</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="16">
-        <v>60000</v>
-      </c>
-      <c r="D51" s="40">
-        <v>16.7</v>
-      </c>
-      <c r="E51" s="18">
-        <f>C51*D51</f>
-        <v>1002000</v>
-      </c>
-      <c r="F51" s="18">
-        <f>E51*0.002</f>
-        <v>2004</v>
-      </c>
-      <c r="G51" s="18">
-        <f>E51*0.000068</f>
-        <v>68.135999999999996</v>
-      </c>
-      <c r="H51" s="18">
-        <f>E51*0.00001</f>
-        <v>10.020000000000001</v>
-      </c>
-      <c r="I51" s="18">
-        <f>(F51+G51+H51)*0.07</f>
-        <v>145.75092000000001</v>
-      </c>
-      <c r="J51" s="18">
-        <f>E51+F51+I51+G51+H51</f>
-        <v>1004227.9069200001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="13" customFormat="1">
-      <c r="A52" s="14">
-        <v>44588</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="16">
-        <v>55000</v>
-      </c>
-      <c r="D52" s="40">
-        <v>16.7</v>
-      </c>
-      <c r="E52" s="18">
-        <f>C52*D52</f>
-        <v>918500</v>
-      </c>
-      <c r="F52" s="18">
-        <f>E52*0.002</f>
-        <v>1837</v>
-      </c>
-      <c r="G52" s="18">
-        <f>E52*0.000068</f>
-        <v>62.457999999999998</v>
-      </c>
-      <c r="H52" s="18">
-        <f>E52*0.00001</f>
-        <v>9.1850000000000005</v>
-      </c>
-      <c r="I52" s="18">
-        <f>(F52+G52+H52)*0.07</f>
-        <v>133.60501000000002</v>
-      </c>
-      <c r="J52" s="18">
-        <f>E52+F52+I52+G52+H52</f>
-        <v>920542.2480100001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="13" customFormat="1">
-      <c r="A53" s="14">
-        <v>44595</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="16">
-        <v>50000</v>
-      </c>
-      <c r="D53" s="40">
-        <v>16.7</v>
-      </c>
-      <c r="E53" s="18">
-        <f>C53*D53</f>
-        <v>835000</v>
-      </c>
-      <c r="F53" s="18">
-        <f>E53*0.002</f>
-        <v>1670</v>
-      </c>
-      <c r="G53" s="18">
-        <f>E53*0.000068</f>
-        <v>56.78</v>
-      </c>
-      <c r="H53" s="18">
-        <f>E53*0.00001</f>
-        <v>8.3500000000000014</v>
-      </c>
-      <c r="I53" s="18">
-        <f>(F53+G53+H53)*0.07</f>
-        <v>121.45910000000001</v>
-      </c>
-      <c r="J53" s="18">
-        <f>E53+F53+I53+G53+H53</f>
-        <v>836856.58909999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="13" customFormat="1">
-      <c r="A54" s="14">
-        <v>44669</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="16">
-        <v>25000</v>
-      </c>
-      <c r="D54" s="40">
-        <v>12.8</v>
-      </c>
-      <c r="E54" s="18">
-        <f>C54*D54</f>
-        <v>320000</v>
-      </c>
-      <c r="F54" s="18">
-        <f>E54*0.002</f>
-        <v>640</v>
-      </c>
-      <c r="G54" s="18">
-        <f>E54*0.000068</f>
-        <v>21.76</v>
-      </c>
-      <c r="H54" s="18">
-        <f>E54*0.00001</f>
-        <v>3.2</v>
-      </c>
-      <c r="I54" s="18">
-        <f>(F54+G54+H54)*0.07</f>
-        <v>46.547200000000004</v>
-      </c>
-      <c r="J54" s="18">
-        <f>E54+F54+I54+G54+H54</f>
-        <v>320711.50719999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="42"/>
-      <c r="B55" s="12">
-        <f>(D54-D53)/D53</f>
-        <v>-0.23353293413173645</v>
-      </c>
-      <c r="C55" s="5">
-        <f>SUM(C53:C54)</f>
-        <v>75000</v>
-      </c>
-      <c r="D55" s="65">
-        <f>E55/C55</f>
-        <v>15.4</v>
-      </c>
-      <c r="E55" s="37">
-        <f t="shared" ref="E55:J55" si="16">SUM(E53:E54)</f>
-        <v>1155000</v>
-      </c>
-      <c r="F55" s="37">
-        <f t="shared" si="16"/>
-        <v>2310</v>
-      </c>
-      <c r="G55" s="37">
-        <f t="shared" si="16"/>
-        <v>78.540000000000006</v>
-      </c>
-      <c r="H55" s="37">
-        <f t="shared" si="16"/>
-        <v>11.55</v>
-      </c>
-      <c r="I55" s="37">
-        <f t="shared" si="16"/>
-        <v>168.00630000000001</v>
-      </c>
-      <c r="J55" s="37">
-        <f t="shared" si="16"/>
-        <v>1157568.0962999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="13" customFormat="1" ht="12.75">
-      <c r="A56" s="14">
-        <v>45063</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D56" s="40">
-        <v>7.6</v>
-      </c>
-      <c r="E56" s="18">
-        <f>C56*D56</f>
-        <v>22800</v>
-      </c>
-      <c r="F56" s="18">
-        <f>E56*0.002</f>
-        <v>45.6</v>
-      </c>
-      <c r="G56" s="18">
-        <f>E56*0.000068</f>
-        <v>1.5504</v>
-      </c>
-      <c r="H56" s="18">
-        <f>E56*0.00001</f>
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="I56" s="18">
-        <f>(F56+G56+H56)*0.07</f>
-        <v>3.3164880000000005</v>
-      </c>
-      <c r="J56" s="18">
-        <f>E56+F56+I56+G56+H56</f>
-        <v>22850.694887999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="12.75">
-      <c r="A57" s="42"/>
-      <c r="B57" s="30">
-        <f>(D56-D55)/D55</f>
-        <v>-0.50649350649350655</v>
-      </c>
-      <c r="C57" s="5">
-        <f>SUM(C55:C56)</f>
-        <v>78000</v>
-      </c>
-      <c r="D57" s="65">
-        <f>E57/C57</f>
-        <v>15.1</v>
-      </c>
-      <c r="E57" s="37">
-        <f t="shared" ref="E57:J57" si="17">SUM(E55:E56)</f>
-        <v>1177800</v>
-      </c>
-      <c r="F57" s="37">
-        <f t="shared" si="17"/>
-        <v>2355.6</v>
-      </c>
-      <c r="G57" s="37">
-        <f t="shared" si="17"/>
-        <v>80.090400000000002</v>
-      </c>
-      <c r="H57" s="37">
-        <f t="shared" si="17"/>
-        <v>11.778</v>
-      </c>
-      <c r="I57" s="37">
-        <f t="shared" si="17"/>
-        <v>171.322788</v>
-      </c>
-      <c r="J57" s="37">
-        <f t="shared" si="17"/>
-        <v>1180418.7911879998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="13" customFormat="1">
-      <c r="A58" s="8">
-        <v>44740</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="10">
-        <v>4000</v>
-      </c>
-      <c r="D58" s="63">
-        <v>6</v>
-      </c>
-      <c r="E58" s="20">
-        <f>C58*D58</f>
-        <v>24000</v>
-      </c>
-      <c r="F58" s="20">
-        <f>E58*0.002</f>
-        <v>48</v>
-      </c>
-      <c r="G58" s="20">
-        <f>E58*0.000068</f>
-        <v>1.6319999999999999</v>
-      </c>
-      <c r="H58" s="20">
-        <f>E58*0.00001</f>
-        <v>0.24000000000000002</v>
-      </c>
-      <c r="I58" s="20">
-        <f>(F58+G58+H58)*0.07</f>
-        <v>3.4910400000000004</v>
-      </c>
-      <c r="J58" s="20">
-        <f>E58+F58+I58+G58+H58</f>
-        <v>24053.363040000004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="B59" s="12">
-        <f>(D58-D57)/D57</f>
-        <v>-0.60264900662251653</v>
-      </c>
-      <c r="C59" s="22">
-        <f>SUM(C57:C58)</f>
-        <v>82000</v>
-      </c>
-      <c r="D59" s="64">
-        <f>E59/C59</f>
-        <v>14.65609756097561</v>
-      </c>
-      <c r="E59" s="24">
-        <f t="shared" ref="E59:J59" si="18">SUM(E57:E58)</f>
-        <v>1201800</v>
-      </c>
-      <c r="F59" s="24">
-        <f t="shared" si="18"/>
-        <v>2403.6</v>
-      </c>
-      <c r="G59" s="24">
-        <f t="shared" si="18"/>
-        <v>81.722400000000007</v>
-      </c>
-      <c r="H59" s="24">
-        <f t="shared" si="18"/>
-        <v>12.018000000000001</v>
-      </c>
-      <c r="I59" s="24">
-        <f t="shared" si="18"/>
-        <v>174.813828</v>
-      </c>
-      <c r="J59" s="24">
-        <f t="shared" si="18"/>
-        <v>1204472.1542279997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="12.75"/>
-    <row r="61" spans="1:10" s="13" customFormat="1">
-      <c r="A61" s="14">
-        <v>44672</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="16">
-        <v>15000</v>
-      </c>
-      <c r="D61" s="40">
-        <v>12.1</v>
-      </c>
-      <c r="E61" s="18">
-        <f>C61*D61</f>
-        <v>181500</v>
-      </c>
-      <c r="F61" s="18">
-        <f>E61*0.002</f>
-        <v>363</v>
-      </c>
-      <c r="G61" s="18">
-        <f>E61*0.000068</f>
-        <v>12.342000000000001</v>
-      </c>
-      <c r="H61" s="18">
-        <f>E61*0.00001</f>
-        <v>1.8150000000000002</v>
-      </c>
-      <c r="I61" s="18">
-        <f>(F61+G61+H61)*0.07</f>
-        <v>26.40099</v>
-      </c>
-      <c r="J61" s="18">
-        <f>E61+F61+I61+G61+H61</f>
-        <v>181903.55799</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="49">
-        <v>44679</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="16">
-        <f>C61</f>
-        <v>15000</v>
-      </c>
-      <c r="D62" s="26">
-        <v>12.5</v>
-      </c>
-      <c r="E62" s="17">
-        <f>C62*D62</f>
-        <v>187500</v>
-      </c>
-      <c r="F62" s="27">
-        <f>E62*0.002</f>
-        <v>375</v>
-      </c>
-      <c r="G62" s="26">
-        <f>E62*0.000068</f>
-        <v>12.75</v>
-      </c>
-      <c r="H62" s="26">
-        <f>E62*0.00001</f>
-        <v>1.8750000000000002</v>
-      </c>
-      <c r="I62" s="26">
-        <f>(F62+G62+H62)*0.07</f>
-        <v>27.273750000000003</v>
-      </c>
-      <c r="J62" s="26">
-        <f>E62-F62-G62-H62-I62</f>
-        <v>187083.10125000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="28">
-        <f>DAYS360(A61,A62)</f>
-        <v>7</v>
-      </c>
-      <c r="B63" s="30">
-        <f>(D62-D61)/D61</f>
-        <v>3.305785123966945E-2</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="18">
-        <f>E62-E61</f>
-        <v>6000</v>
-      </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18">
-        <f>J62-J61</f>
-        <v>5179.5432600000058</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="13" customFormat="1">
-      <c r="A64" s="14">
-        <v>44740</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="16">
-        <f>C56</f>
-        <v>3000</v>
-      </c>
-      <c r="D64" s="40">
-        <f>D56</f>
-        <v>7.6</v>
-      </c>
-      <c r="E64" s="18">
-        <f>C64*D64</f>
-        <v>22800</v>
-      </c>
-      <c r="F64" s="18">
-        <f>E64*0.002</f>
-        <v>45.6</v>
-      </c>
-      <c r="G64" s="18">
-        <f>E64*0.000068</f>
-        <v>1.5504</v>
-      </c>
-      <c r="H64" s="18">
-        <f>E64*0.00001</f>
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="I64" s="18">
-        <f>(F64+G64+H64)*0.07</f>
-        <v>3.3164880000000005</v>
-      </c>
-      <c r="J64" s="18">
-        <f>E64+F64+I64+G64+H64</f>
-        <v>22850.694887999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="49">
-        <v>44741</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="16">
-        <f>C64</f>
-        <v>3000</v>
-      </c>
-      <c r="D65" s="26">
-        <v>11.7</v>
-      </c>
-      <c r="E65" s="17">
-        <f>C65*D65</f>
-        <v>35100</v>
-      </c>
-      <c r="F65" s="27">
-        <f>E65*0.002</f>
-        <v>70.2</v>
-      </c>
-      <c r="G65" s="26">
-        <f>E65*0.000068</f>
-        <v>2.3868</v>
-      </c>
-      <c r="H65" s="26">
-        <f>E65*0.00001</f>
-        <v>0.35100000000000003</v>
-      </c>
-      <c r="I65" s="26">
-        <f>(F65+G65+H65)*0.07</f>
-        <v>5.1056460000000001</v>
-      </c>
-      <c r="J65" s="26">
-        <f>E65-F65-G65-H65-I65</f>
-        <v>35021.956553999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="28">
-        <f>DAYS360(A64,A65)</f>
-        <v>1</v>
-      </c>
-      <c r="B66" s="30">
-        <f>(D65-D64)/D64</f>
-        <v>0.53947368421052633</v>
-      </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="18">
-        <f>E65-E64</f>
-        <v>12300</v>
-      </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18">
-        <f>J65-J64</f>
-        <v>12171.261665999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C5701E-1EA3-43D6-ACCE-96288D740D8D}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -14448,7 +14150,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
@@ -15051,7 +14753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
   <dimension ref="A1:O18"/>
   <sheetViews>
@@ -15079,7 +14781,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
@@ -15546,6 +15248,209 @@
       <c r="K18" s="32"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E8F5AF-E88A-4677-AEAF-7B4DD5AE4F27}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
+    <col min="7" max="7" width="6.75" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="21" customWidth="1"/>
+    <col min="11" max="11" width="5.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="21"/>
+    <col min="13" max="13" width="8.875" style="25"/>
+    <col min="14" max="16384" width="8.875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="49">
+        <v>45119</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>3600</v>
+      </c>
+      <c r="D2" s="41">
+        <v>11.4</v>
+      </c>
+      <c r="E2" s="18">
+        <f>C2*D2</f>
+        <v>41040</v>
+      </c>
+      <c r="F2" s="18">
+        <f>E2*0.002</f>
+        <v>82.08</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2*0.00006</f>
+        <v>2.4624000000000001</v>
+      </c>
+      <c r="H2" s="18">
+        <f>E2*0.00001</f>
+        <v>0.41040000000000004</v>
+      </c>
+      <c r="I2" s="18">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>5.9466960000000002</v>
+      </c>
+      <c r="J2" s="18">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>41130.899495999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="A3" s="55">
+        <v>45086</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <f>C2</f>
+        <v>3600</v>
+      </c>
+      <c r="D3" s="34">
+        <v>12.1</v>
+      </c>
+      <c r="E3" s="11">
+        <f>C3*D3</f>
+        <v>43560</v>
+      </c>
+      <c r="F3" s="35">
+        <f>E3*0.002</f>
+        <v>87.12</v>
+      </c>
+      <c r="G3" s="34">
+        <f>E3*0.000068</f>
+        <v>2.9620799999999998</v>
+      </c>
+      <c r="H3" s="34">
+        <f>E3*0.00001</f>
+        <v>0.43560000000000004</v>
+      </c>
+      <c r="I3" s="34">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>6.3362376000000005</v>
+      </c>
+      <c r="J3" s="34">
+        <f>E3-F3-G3-H3-I3</f>
+        <v>43463.146082400002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1">
+      <c r="A4" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12">
+        <f>(D3-D2)/D2</f>
+        <v>6.1403508771929759E-2</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="20">
+        <f>E3-E2</f>
+        <v>2520</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
+        <f>J3-J2</f>
+        <v>2332.2465864000042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="13" customFormat="1">
+      <c r="A5" s="55"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" s="31" customFormat="1" ht="18.75">
+      <c r="A6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1">
+      <c r="A8" s="55"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1">
+      <c r="A9" s="55"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:13" s="31" customFormat="1" ht="18.75">
+      <c r="A10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -18306,7 +18211,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -19036,31 +18941,31 @@
         <v>2000</v>
       </c>
       <c r="D20" s="11">
-        <v>11.7</v>
+        <v>10</v>
       </c>
       <c r="E20" s="20">
         <f>C20*D20</f>
-        <v>23400</v>
+        <v>20000</v>
       </c>
       <c r="F20" s="20">
         <f>E20*0.002</f>
-        <v>46.800000000000004</v>
+        <v>40</v>
       </c>
       <c r="G20" s="20">
         <f>E20*0.000068</f>
-        <v>1.5911999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="H20" s="20">
         <f>E20*0.00001</f>
-        <v>0.23400000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="20">
         <f>(F20+G20+H20)*0.07</f>
-        <v>3.4037640000000007</v>
+        <v>2.9092000000000002</v>
       </c>
       <c r="J20" s="20">
         <f>E20+F20+I20+G20+H20</f>
-        <v>23452.028963999997</v>
+        <v>20044.4692</v>
       </c>
       <c r="M20" s="21"/>
     </row>
@@ -19068,7 +18973,7 @@
       <c r="A21" s="44"/>
       <c r="B21" s="25">
         <f>(D20-D19)/D19</f>
-        <v>-0.59233449477351918</v>
+        <v>-0.65156794425087106</v>
       </c>
       <c r="C21" s="22">
         <f>SUM(C19:C20)</f>
@@ -19076,31 +18981,31 @@
       </c>
       <c r="D21" s="64">
         <f>E21/C21</f>
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" ref="E21:J21" si="4">SUM(E19:E20)</f>
-        <v>453900</v>
+        <v>450500</v>
       </c>
       <c r="F21" s="22">
         <f t="shared" si="4"/>
-        <v>907.8</v>
+        <v>901</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="4"/>
-        <v>30.865199999999994</v>
+        <v>30.633999999999993</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="4"/>
-        <v>4.5389999999999997</v>
+        <v>4.5049999999999999</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="4"/>
-        <v>66.024293999999998</v>
+        <v>65.529730000000001</v>
       </c>
       <c r="J21" s="22">
         <f t="shared" si="4"/>
-        <v>454909.22849400004</v>
+        <v>451501.66873000003</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="25"/>
@@ -20013,7 +19918,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>
@@ -20301,7 +20206,7 @@
   </sheetPr>
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_141A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13788" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{503FB799-E31D-41DE-97E2-15429CC7D855}"/>
+  <xr:revisionPtr revIDLastSave="13794" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15A5ED86-EC69-4C44-8AE4-E39C3E2AC399}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="461" firstSheet="21" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="461" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -20797,8 +20797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D30CFA7-C46B-4885-A4A3-CF2E8439A3D7}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>
@@ -21020,8 +21020,8 @@
         <v>45170</v>
       </c>
       <c r="C8" s="10">
-        <f>C3</f>
-        <v>10000</v>
+        <f>C4</f>
+        <v>20000</v>
       </c>
       <c r="D8" s="63">
         <v>0.1009</v>
@@ -21032,11 +21032,11 @@
       <c r="H8" s="11"/>
       <c r="I8" s="60">
         <f>C8*D8</f>
-        <v>1009</v>
+        <v>2018</v>
       </c>
       <c r="J8" s="60">
         <f>I8*0.9</f>
-        <v>908.1</v>
+        <v>1816.2</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="13"/>
@@ -21051,36 +21051,36 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <f>C8</f>
-        <v>10000</v>
+        <f>C4</f>
+        <v>20000</v>
       </c>
       <c r="D9" s="46">
-        <f>D3</f>
-        <v>7.45</v>
+        <f>D5</f>
+        <v>7.5</v>
       </c>
       <c r="E9" s="20">
         <f>C9*D9</f>
-        <v>74500</v>
+        <v>150000</v>
       </c>
       <c r="F9" s="20">
         <f>E9*0.002</f>
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="G9" s="20">
         <f>E9*0.00006</f>
-        <v>4.47</v>
+        <v>9</v>
       </c>
       <c r="H9" s="20">
         <f>E9*0.00001</f>
-        <v>0.74500000000000011</v>
+        <v>1.5000000000000002</v>
       </c>
       <c r="I9" s="20">
         <f>(F9+G9+H9)*0.07</f>
-        <v>10.795050000000002</v>
+        <v>21.735000000000003</v>
       </c>
       <c r="J9" s="20">
         <f>E9+F9+I9+G9+H9</f>
-        <v>74665.010049999997</v>
+        <v>150332.23499999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25">
@@ -21092,34 +21092,34 @@
       </c>
       <c r="C10" s="10">
         <f>C9</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D10" s="34">
-        <v>7.5</v>
+        <v>7.55</v>
       </c>
       <c r="E10" s="11">
         <f>C10*D10</f>
-        <v>75000</v>
+        <v>151000</v>
       </c>
       <c r="F10" s="35">
         <f>E10*0.002</f>
-        <v>150</v>
+        <v>302</v>
       </c>
       <c r="G10" s="34">
         <f>E10*0.000068</f>
-        <v>5.0999999999999996</v>
+        <v>10.268000000000001</v>
       </c>
       <c r="H10" s="34">
         <f>E10*0.00001</f>
-        <v>0.75000000000000011</v>
+        <v>1.5100000000000002</v>
       </c>
       <c r="I10" s="34">
         <f>(F10+G10+H10)*0.07</f>
-        <v>10.909500000000001</v>
+        <v>21.964460000000003</v>
       </c>
       <c r="J10" s="34">
         <f>E10-F10-G10-H10-I10</f>
-        <v>74833.2405</v>
+        <v>150664.25753999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25">
@@ -21128,13 +21128,13 @@
       </c>
       <c r="B11" s="12">
         <f>E11/E9</f>
-        <v>6.7114093959731542E-3</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="20">
         <f>E10-E9</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -21142,14 +21142,14 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20">
         <f>J10-J9</f>
-        <v>168.23045000000275</v>
+        <v>332.02254000000539</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25">
       <c r="C12" s="2"/>
       <c r="J12" s="53">
         <f>J8+J11</f>
-        <v>1076.3304500000027</v>
+        <v>2148.2225400000052</v>
       </c>
     </row>
   </sheetData>
@@ -26264,7 +26264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185528E2-7E3A-4D20-9850-1E5EA06B5D92}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_141A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13794" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15A5ED86-EC69-4C44-8AE4-E39C3E2AC399}"/>
+  <xr:revisionPtr revIDLastSave="13890" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24A3D674-74C0-4264-98AC-5421ADDE4E13}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="461" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="461" firstSheet="17" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="40">
   <si>
     <t>KCE</t>
   </si>
@@ -9832,10 +9832,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61165D-6E4D-45AE-A027-1F0635508A9D}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -9979,9 +9979,9 @@
         <v>179196.02411999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="12.75">
+    <row r="5" spans="1:13" ht="12.75">
       <c r="A5" s="49">
-        <v>44998</v>
+        <v>45170</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>1</v>
@@ -9990,267 +9990,236 @@
         <v>1200</v>
       </c>
       <c r="D5" s="41">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E5" s="18">
         <f>C5*D5</f>
-        <v>28080</v>
+        <v>28200</v>
       </c>
       <c r="F5" s="18">
         <f>E5*0.002</f>
-        <v>56.160000000000004</v>
+        <v>56.4</v>
       </c>
       <c r="G5" s="18">
         <f>E5*0.00006</f>
-        <v>1.6848000000000001</v>
+        <v>1.6919999999999999</v>
       </c>
       <c r="H5" s="18">
         <f>E5*0.00001</f>
-        <v>0.28080000000000005</v>
+        <v>0.28200000000000003</v>
       </c>
       <c r="I5" s="18">
         <f>(F5+G5+H5)*0.07</f>
-        <v>4.0687920000000011</v>
+        <v>4.0861799999999997</v>
       </c>
       <c r="J5" s="18">
         <f>E5+F5+I5+G5+H5</f>
-        <v>28142.194391999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="12.75">
+        <v>28262.460179999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.75">
       <c r="A6" s="49"/>
       <c r="B6" s="30">
         <f>(D5-D4)/D4</f>
-        <v>-0.37181208053691278</v>
+        <v>-0.36912751677852351</v>
       </c>
       <c r="C6" s="16">
         <f>SUM(C4:C5)</f>
         <v>6000</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="40">
         <f>E6/C6</f>
-        <v>34.479999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="E6" s="16">
-        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>206880</v>
+        <f>SUM(E4:E5)</f>
+        <v>207000</v>
       </c>
       <c r="F6" s="16">
-        <f t="shared" si="1"/>
-        <v>413.76000000000005</v>
+        <f t="shared" ref="F6:J6" si="1">SUM(F4:F5)</f>
+        <v>414</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" si="1"/>
-        <v>12.412800000000001</v>
+        <v>12.42</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" si="1"/>
-        <v>2.0688000000000004</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="1"/>
-        <v>29.976912000000006</v>
+        <v>29.994300000000003</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="1"/>
-        <v>207338.21851199999</v>
+        <v>207458.48429999998</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75">
-      <c r="A7" s="49">
-        <v>45035</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="A7" s="55">
+        <v>45170</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
         <v>1200</v>
       </c>
-      <c r="D7" s="41">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="D7" s="46">
+        <v>22.5</v>
+      </c>
+      <c r="E7" s="20">
         <f>C7*D7</f>
-        <v>23520</v>
-      </c>
-      <c r="F7" s="18">
+        <v>27000</v>
+      </c>
+      <c r="F7" s="20">
         <f>E7*0.002</f>
-        <v>47.04</v>
-      </c>
-      <c r="G7" s="18">
+        <v>54</v>
+      </c>
+      <c r="G7" s="20">
         <f>E7*0.00006</f>
-        <v>1.4112</v>
-      </c>
-      <c r="H7" s="18">
+        <v>1.62</v>
+      </c>
+      <c r="H7" s="20">
         <f>E7*0.00001</f>
-        <v>0.23520000000000002</v>
-      </c>
-      <c r="I7" s="18">
+        <v>0.27</v>
+      </c>
+      <c r="I7" s="20">
         <f>(F7+G7+H7)*0.07</f>
-        <v>3.4080480000000004</v>
-      </c>
-      <c r="J7" s="18">
+        <v>3.9123000000000006</v>
+      </c>
+      <c r="J7" s="20">
         <f>E7+F7+I7+G7+H7</f>
-        <v>23572.094448</v>
+        <v>27059.802299999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75">
-      <c r="A8" s="49">
-        <v>45161</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="16">
-        <f>C7</f>
-        <v>1200</v>
-      </c>
-      <c r="D8" s="26">
-        <v>20.6</v>
-      </c>
-      <c r="E8" s="17">
-        <f>C8*D8</f>
-        <v>24720</v>
-      </c>
-      <c r="F8" s="27">
-        <f>E8*0.002</f>
-        <v>49.44</v>
-      </c>
-      <c r="G8" s="26">
-        <f>E8*0.000068</f>
-        <v>1.68096</v>
-      </c>
-      <c r="H8" s="26">
-        <f>E8*0.00001</f>
-        <v>0.24720000000000003</v>
-      </c>
-      <c r="I8" s="26">
-        <f>(F8+G8+H8)*0.07</f>
-        <v>3.5957712000000002</v>
-      </c>
-      <c r="J8" s="26">
-        <f>E8-F8-G8-H8-I8</f>
-        <v>24665.036068799996</v>
-      </c>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75">
-      <c r="A9" s="28">
-        <f>DAYS360(A7,A8)</f>
-        <v>124</v>
-      </c>
-      <c r="B9" s="30">
-        <f>(D8-D7)/D7</f>
-        <v>5.10204081632653E-2</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18">
-        <f>E8-E7</f>
-        <v>1200</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18">
-        <f>J8-J7</f>
-        <v>1092.9416207999966</v>
-      </c>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:13" ht="12.75">
-      <c r="A10" s="49">
-        <v>45098</v>
+      <c r="A8" s="55"/>
+      <c r="B8" s="12">
+        <f>(D7-D6)/D6</f>
+        <v>-0.34782608695652173</v>
+      </c>
+      <c r="C8" s="10">
+        <f>SUM(C6:C7)</f>
+        <v>7200</v>
+      </c>
+      <c r="D8" s="63">
+        <f>E8/C8</f>
+        <v>32.5</v>
+      </c>
+      <c r="E8" s="10">
+        <f>SUM(E6:E7)</f>
+        <v>234000</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" ref="F8:J8" si="2">SUM(F6:F7)</f>
+        <v>468</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="2"/>
+        <v>14.04</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>2.3400000000000003</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="2"/>
+        <v>33.906600000000005</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="2"/>
+        <v>234518.28659999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.75"/>
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="12.75">
+      <c r="A10" s="14">
+        <v>45112</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="16">
-        <v>1800</v>
-      </c>
-      <c r="D10" s="41">
+        <v>3600</v>
+      </c>
+      <c r="D10" s="40">
         <v>17</v>
       </c>
       <c r="E10" s="18">
-        <f>C10*D10</f>
-        <v>30600</v>
+        <v>61200</v>
       </c>
       <c r="F10" s="18">
-        <f>E10*0.002</f>
-        <v>61.2</v>
+        <v>122.4</v>
       </c>
       <c r="G10" s="18">
-        <f>E10*0.00006</f>
-        <v>1.8360000000000001</v>
+        <v>3.6720000000000002</v>
       </c>
       <c r="H10" s="18">
-        <f>E10*0.00001</f>
-        <v>0.30600000000000005</v>
+        <v>0.6120000000000001</v>
       </c>
       <c r="I10" s="18">
-        <f>(F10+G10+H10)*0.07</f>
-        <v>4.4339400000000007</v>
+        <v>8.8678800000000013</v>
       </c>
       <c r="J10" s="18">
-        <f>E10+F10+I10+G10+H10</f>
-        <v>30667.77594</v>
+        <v>61335.551879999999</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75">
       <c r="A11" s="49">
-        <v>45111</v>
+        <v>45153</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="16">
         <f>C10</f>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="D11" s="26">
-        <v>17.899999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="E11" s="17">
         <f>C11*D11</f>
-        <v>32219.999999999996</v>
+        <v>65880</v>
       </c>
       <c r="F11" s="27">
         <f>E11*0.002</f>
-        <v>64.44</v>
+        <v>131.76</v>
       </c>
       <c r="G11" s="26">
         <f>E11*0.000068</f>
-        <v>2.1909599999999996</v>
+        <v>4.4798400000000003</v>
       </c>
       <c r="H11" s="26">
         <f>E11*0.00001</f>
-        <v>0.32219999999999999</v>
+        <v>0.65880000000000005</v>
       </c>
       <c r="I11" s="26">
         <f>(F11+G11+H11)*0.07</f>
-        <v>4.6867212</v>
+        <v>9.5829048000000014</v>
       </c>
       <c r="J11" s="26">
         <f>E11-F11-G11-H11-I11</f>
-        <v>32148.360118799999</v>
+        <v>65733.518455199999</v>
       </c>
       <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13" ht="12.75">
       <c r="A12" s="28">
         <f>DAYS360(A10,A11)</f>
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B12" s="30">
         <f>(D11-D10)/D10</f>
-        <v>5.2941176470588151E-2</v>
+        <v>7.6470588235294165E-2</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18">
         <f>E11-E10</f>
-        <v>1619.9999999999964</v>
+        <v>4680</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -10258,319 +10227,324 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18">
         <f>J11-J10</f>
-        <v>1480.5841787999998</v>
+        <v>4397.9665752000001</v>
       </c>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="12.75">
-      <c r="A13" s="49"/>
-      <c r="B13" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="16">
-        <v>6000</v>
-      </c>
-      <c r="D13" s="17">
-        <v>34.479999999999997</v>
-      </c>
-      <c r="E13" s="16">
-        <v>206880</v>
-      </c>
-      <c r="F13" s="16">
-        <v>413.76000000000005</v>
-      </c>
-      <c r="G13" s="16">
-        <v>12.412800000000001</v>
-      </c>
-      <c r="H13" s="16">
-        <v>2.0688000000000004</v>
-      </c>
-      <c r="I13" s="16">
-        <v>29.976912000000006</v>
-      </c>
-      <c r="J13" s="16">
-        <v>207338.21851199999</v>
-      </c>
-    </row>
     <row r="14" spans="1:13" ht="12.75">
-      <c r="A14" s="55">
-        <v>45112</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10">
-        <v>3000</v>
-      </c>
-      <c r="D14" s="46">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="A14" s="49">
+        <v>45035</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D14" s="41">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E14" s="18">
         <f>C14*D14</f>
-        <v>56699.999999999993</v>
-      </c>
-      <c r="F14" s="20">
+        <v>23520</v>
+      </c>
+      <c r="F14" s="18">
         <f>E14*0.002</f>
-        <v>113.39999999999999</v>
-      </c>
-      <c r="G14" s="20">
+        <v>47.04</v>
+      </c>
+      <c r="G14" s="18">
         <f>E14*0.00006</f>
-        <v>3.4019999999999997</v>
-      </c>
-      <c r="H14" s="20">
+        <v>1.4112</v>
+      </c>
+      <c r="H14" s="18">
         <f>E14*0.00001</f>
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="I14" s="20">
+        <v>0.23520000000000002</v>
+      </c>
+      <c r="I14" s="18">
         <f>(F14+G14+H14)*0.07</f>
-        <v>8.2158300000000004</v>
-      </c>
-      <c r="J14" s="20">
+        <v>3.4080480000000004</v>
+      </c>
+      <c r="J14" s="18">
         <f>E14+F14+I14+G14+H14</f>
-        <v>56825.58483</v>
+        <v>23572.094448</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.75">
-      <c r="A15" s="55"/>
-      <c r="B15" s="12">
-        <f>(D14-D13)/D13</f>
-        <v>-0.45185614849187933</v>
-      </c>
-      <c r="C15" s="10">
-        <f>SUM(C13:C14)</f>
-        <v>9000</v>
-      </c>
-      <c r="D15" s="63">
-        <f>E15/C15</f>
-        <v>29.286666666666665</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" ref="E15:J15" si="2">SUM(E13:E14)</f>
-        <v>263580</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="2"/>
-        <v>527.16000000000008</v>
-      </c>
-      <c r="G15" s="10">
-        <f t="shared" si="2"/>
-        <v>15.8148</v>
-      </c>
-      <c r="H15" s="10">
-        <f t="shared" si="2"/>
-        <v>2.6358000000000006</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="2"/>
-        <v>38.19274200000001</v>
-      </c>
-      <c r="J15" s="10">
-        <f t="shared" si="2"/>
-        <v>264163.803342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.75"/>
-    <row r="17" spans="1:13" s="13" customFormat="1" ht="12.75">
-      <c r="A17" s="14">
-        <v>45112</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16">
-        <v>3600</v>
-      </c>
-      <c r="D17" s="40">
-        <v>17</v>
-      </c>
-      <c r="E17" s="18">
-        <v>61200</v>
-      </c>
-      <c r="F17" s="18">
-        <v>122.4</v>
-      </c>
-      <c r="G17" s="18">
-        <v>3.6720000000000002</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0.6120000000000001</v>
-      </c>
-      <c r="I17" s="18">
-        <v>8.8678800000000013</v>
-      </c>
-      <c r="J17" s="18">
-        <v>61335.551879999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
+      <c r="A15" s="49">
+        <v>45161</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16">
+        <f>C14</f>
+        <v>1200</v>
+      </c>
+      <c r="D15" s="26">
+        <v>20.6</v>
+      </c>
+      <c r="E15" s="17">
+        <f>C15*D15</f>
+        <v>24720</v>
+      </c>
+      <c r="F15" s="27">
+        <f>E15*0.002</f>
+        <v>49.44</v>
+      </c>
+      <c r="G15" s="26">
+        <f>E15*0.000068</f>
+        <v>1.68096</v>
+      </c>
+      <c r="H15" s="26">
+        <f>E15*0.00001</f>
+        <v>0.24720000000000003</v>
+      </c>
+      <c r="I15" s="26">
+        <f>(F15+G15+H15)*0.07</f>
+        <v>3.5957712000000002</v>
+      </c>
+      <c r="J15" s="26">
+        <f>E15-F15-G15-H15-I15</f>
+        <v>24665.036068799996</v>
+      </c>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75">
+      <c r="A16" s="28">
+        <f>DAYS360(A14,A15)</f>
+        <v>124</v>
+      </c>
+      <c r="B16" s="30">
+        <f>(D15-D14)/D14</f>
+        <v>5.10204081632653E-2</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18">
+        <f>E15-E14</f>
+        <v>1200</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18">
+        <f>J15-J14</f>
+        <v>1092.9416207999966</v>
+      </c>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="12.75">
       <c r="A18" s="49">
-        <v>45153</v>
+        <v>44998</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D18" s="41">
+        <v>23.4</v>
+      </c>
+      <c r="E18" s="18">
+        <f>C18*D18</f>
+        <v>28080</v>
+      </c>
+      <c r="F18" s="18">
+        <f>E18*0.002</f>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="G18" s="18">
+        <f>E18*0.00006</f>
+        <v>1.6848000000000001</v>
+      </c>
+      <c r="H18" s="18">
+        <f>E18*0.00001</f>
+        <v>0.28080000000000005</v>
+      </c>
+      <c r="I18" s="18">
+        <f>(F18+G18+H18)*0.07</f>
+        <v>4.0687920000000011</v>
+      </c>
+      <c r="J18" s="18">
+        <f>E18+F18+I18+G18+H18</f>
+        <v>28142.194391999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="12.75">
+      <c r="A19" s="49">
+        <v>45169</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="16">
-        <f>C17</f>
-        <v>3600</v>
-      </c>
-      <c r="D18" s="26">
-        <v>18.3</v>
-      </c>
-      <c r="E18" s="17">
-        <f>C18*D18</f>
-        <v>65880</v>
-      </c>
-      <c r="F18" s="27">
-        <f>E18*0.002</f>
-        <v>131.76</v>
-      </c>
-      <c r="G18" s="26">
-        <f>E18*0.000068</f>
-        <v>4.4798400000000003</v>
-      </c>
-      <c r="H18" s="26">
-        <f>E18*0.00001</f>
-        <v>0.65880000000000005</v>
-      </c>
-      <c r="I18" s="26">
-        <f>(F18+G18+H18)*0.07</f>
-        <v>9.5829048000000014</v>
-      </c>
-      <c r="J18" s="26">
-        <f>E18-F18-G18-H18-I18</f>
-        <v>65733.518455199999</v>
-      </c>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" ht="12.75">
-      <c r="A19" s="28">
-        <f>DAYS360(A17,A18)</f>
-        <v>40</v>
-      </c>
-      <c r="B19" s="30">
-        <f>(D18-D17)/D17</f>
-        <v>7.6470588235294165E-2</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18">
-        <f>E18-E17</f>
-        <v>4680</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <f>J18-J17</f>
-        <v>4397.9665752000001</v>
+      <c r="C19" s="16">
+        <f>C18</f>
+        <v>1200</v>
+      </c>
+      <c r="D19" s="26">
+        <v>24.6</v>
+      </c>
+      <c r="E19" s="17">
+        <f>C19*D19</f>
+        <v>29520</v>
+      </c>
+      <c r="F19" s="27">
+        <f>E19*0.002</f>
+        <v>59.04</v>
+      </c>
+      <c r="G19" s="26">
+        <f>E19*0.000068</f>
+        <v>2.0073599999999998</v>
+      </c>
+      <c r="H19" s="26">
+        <f>E19*0.00001</f>
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="I19" s="26">
+        <f>(F19+G19+H19)*0.07</f>
+        <v>4.2939792000000008</v>
+      </c>
+      <c r="J19" s="26">
+        <f>E19-F19-G19-H19-I19</f>
+        <v>29454.363460799999</v>
       </c>
       <c r="M19" s="21"/>
     </row>
-    <row r="21" spans="1:13" ht="12.75">
-      <c r="A21" s="49">
-        <v>45035</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="16">
-        <v>1200</v>
-      </c>
-      <c r="D21" s="41">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="E21" s="18">
-        <f>C21*D21</f>
-        <v>23520</v>
-      </c>
-      <c r="F21" s="18">
-        <f>E21*0.002</f>
-        <v>47.04</v>
-      </c>
-      <c r="G21" s="18">
-        <f>E21*0.00006</f>
-        <v>1.4112</v>
-      </c>
-      <c r="H21" s="18">
-        <f>E21*0.00001</f>
-        <v>0.23520000000000002</v>
-      </c>
-      <c r="I21" s="18">
-        <f>(F21+G21+H21)*0.07</f>
-        <v>3.4080480000000004</v>
-      </c>
-      <c r="J21" s="18">
-        <f>E21+F21+I21+G21+H21</f>
-        <v>23572.094448</v>
-      </c>
-    </row>
+    <row r="20" spans="1:13" ht="12.75">
+      <c r="A20" s="28">
+        <f>DAYS360(A18,A19)</f>
+        <v>168</v>
+      </c>
+      <c r="B20" s="30">
+        <f>(D19-D18)/D18</f>
+        <v>5.1282051282051405E-2</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18">
+        <f>E19-E18</f>
+        <v>1440</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18">
+        <f>J19-J18</f>
+        <v>1312.1690688000017</v>
+      </c>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" ht="12.75"/>
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" s="49">
-        <v>45161</v>
+        <v>45170</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D22" s="41">
+        <v>23.5</v>
+      </c>
+      <c r="E22" s="18">
+        <f>C22*D22</f>
+        <v>28200</v>
+      </c>
+      <c r="F22" s="18">
+        <f>E22*0.002</f>
+        <v>56.4</v>
+      </c>
+      <c r="G22" s="18">
+        <f>E22*0.00006</f>
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="H22" s="18">
+        <f>E22*0.00001</f>
+        <v>0.28200000000000003</v>
+      </c>
+      <c r="I22" s="18">
+        <f>(F22+G22+H22)*0.07</f>
+        <v>4.0861799999999997</v>
+      </c>
+      <c r="J22" s="18">
+        <f>E22+F22+I22+G22+H22</f>
+        <v>28262.460179999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="12.75">
+      <c r="A23" s="55">
+        <v>45169</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="16">
-        <f>C21</f>
+      <c r="C23" s="10">
+        <f>C22</f>
         <v>1200</v>
       </c>
-      <c r="D22" s="26">
-        <v>20.6</v>
-      </c>
-      <c r="E22" s="17">
-        <f>C22*D22</f>
-        <v>24720</v>
-      </c>
-      <c r="F22" s="27">
-        <f>E22*0.002</f>
-        <v>49.44</v>
-      </c>
-      <c r="G22" s="26">
-        <f>E22*0.000068</f>
-        <v>1.68096</v>
-      </c>
-      <c r="H22" s="26">
-        <f>E22*0.00001</f>
-        <v>0.24720000000000003</v>
-      </c>
-      <c r="I22" s="26">
-        <f>(F22+G22+H22)*0.07</f>
-        <v>3.5957712000000002</v>
-      </c>
-      <c r="J22" s="26">
-        <f>E22-F22-G22-H22-I22</f>
-        <v>24665.036068799996</v>
-      </c>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
-      <c r="A23" s="28">
-        <f>DAYS360(A21,A22)</f>
-        <v>124</v>
-      </c>
-      <c r="B23" s="30">
-        <f>(D22-D21)/D21</f>
-        <v>5.10204081632653E-2</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18">
-        <f>E22-E21</f>
-        <v>1200</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18">
-        <f>J22-J21</f>
-        <v>1092.9416207999966</v>
+      <c r="D23" s="34">
+        <v>24.7</v>
+      </c>
+      <c r="E23" s="11">
+        <f>C23*D23</f>
+        <v>29640</v>
+      </c>
+      <c r="F23" s="35">
+        <f>E23*0.002</f>
+        <v>59.28</v>
+      </c>
+      <c r="G23" s="34">
+        <f>E23*0.000068</f>
+        <v>2.01552</v>
+      </c>
+      <c r="H23" s="34">
+        <f>E23*0.00001</f>
+        <v>0.2964</v>
+      </c>
+      <c r="I23" s="34">
+        <f>(F23+G23+H23)*0.07</f>
+        <v>4.3114344000000004</v>
+      </c>
+      <c r="J23" s="34">
+        <f>E23-F23-G23-H23-I23</f>
+        <v>29574.096645600002</v>
       </c>
       <c r="M23" s="21"/>
     </row>
+    <row r="24" spans="1:13" ht="12.75">
+      <c r="A24" s="9">
+        <f>DAYS360(A22,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="12">
+        <f>(D23-D22)/D22</f>
+        <v>5.1063829787234012E-2</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="20">
+        <f>E23-E22</f>
+        <v>1440</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20">
+        <f>J23-J22</f>
+        <v>1311.6364656000042</v>
+      </c>
+      <c r="M24" s="21"/>
+    </row>
     <row r="25" spans="1:13" ht="12.75"/>
+    <row r="26" spans="1:13" ht="12.75"/>
+    <row r="27" spans="1:13" ht="12.75"/>
+    <row r="29" spans="1:13" ht="12.75"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -10584,7 +10558,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -11077,72 +11051,72 @@
         <v>1</v>
       </c>
       <c r="C15" s="10">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="D15" s="46">
-        <v>39.75</v>
+        <v>43</v>
       </c>
       <c r="E15" s="61">
         <f>C15*D15</f>
-        <v>71550</v>
+        <v>34400</v>
       </c>
       <c r="F15" s="20">
         <f>E15*0.002</f>
-        <v>143.1</v>
+        <v>68.8</v>
       </c>
       <c r="G15" s="20">
         <f>E15*0.00006</f>
-        <v>4.2930000000000001</v>
+        <v>2.0640000000000001</v>
       </c>
       <c r="H15" s="20">
         <f>E15*0.00001</f>
-        <v>0.71550000000000002</v>
+        <v>0.34400000000000003</v>
       </c>
       <c r="I15" s="20">
         <f>(F15+G15+H15)*0.07</f>
-        <v>10.367595</v>
+        <v>4.9845600000000001</v>
       </c>
       <c r="J15" s="61">
         <f>E15+F15+I15+G15+H15</f>
-        <v>71708.47609500002</v>
+        <v>34476.192559999996</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="12.75">
       <c r="B16" s="12">
         <f>(D15-D14)/D14</f>
-        <v>-0.28378378378378377</v>
+        <v>-0.22522522522522523</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C13:C15)</f>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D16" s="11">
         <f>E16/C16</f>
-        <v>51</v>
+        <v>53.5</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" ref="E16:J16" si="2">SUM(E13:E15)</f>
-        <v>306000</v>
+        <f>SUM(E14:E15)</f>
+        <v>267500</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="2"/>
-        <v>609.30000000000007</v>
+        <f t="shared" ref="F16:J16" si="2">SUM(F14:F15)</f>
+        <v>535</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="2"/>
-        <v>18.279</v>
+        <v>16.05</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="2"/>
-        <v>3.0465000000000004</v>
+        <v>2.6750000000000003</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="2"/>
-        <v>44.143785000000008</v>
+        <v>38.760750000000009</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="2"/>
-        <v>306566.57848200004</v>
+        <v>268092.48574999999</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="13" customFormat="1" ht="12.75">
@@ -13095,10 +13069,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -15335,6 +15309,107 @@
       <c r="J66" s="18">
         <f>J65-J64</f>
         <v>12171.261665999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="15" customFormat="1" ht="12.75">
+      <c r="A67" s="14">
+        <v>45063</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D67" s="40">
+        <v>7.6</v>
+      </c>
+      <c r="E67" s="18">
+        <f>C67*D67</f>
+        <v>22800</v>
+      </c>
+      <c r="F67" s="18">
+        <f>E67*0.002</f>
+        <v>45.6</v>
+      </c>
+      <c r="G67" s="18">
+        <f>E67*0.000068</f>
+        <v>1.5504</v>
+      </c>
+      <c r="H67" s="18">
+        <f>E67*0.00001</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I67" s="18">
+        <f>(F67+G67+H67)*0.07</f>
+        <v>3.3164880000000005</v>
+      </c>
+      <c r="J67" s="18">
+        <f>E67+F67+I67+G67+H67</f>
+        <v>22850.694887999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="12.75">
+      <c r="A68" s="55">
+        <v>44741</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="10">
+        <f>C67</f>
+        <v>3000</v>
+      </c>
+      <c r="D68" s="34">
+        <v>7.65</v>
+      </c>
+      <c r="E68" s="11">
+        <f>C68*D68</f>
+        <v>22950</v>
+      </c>
+      <c r="F68" s="35">
+        <f>E68*0.002</f>
+        <v>45.9</v>
+      </c>
+      <c r="G68" s="34">
+        <f>E68*0.000068</f>
+        <v>1.5606</v>
+      </c>
+      <c r="H68" s="34">
+        <f>E68*0.00001</f>
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="I68" s="34">
+        <f>(F68+G68+H68)*0.07</f>
+        <v>3.3383070000000004</v>
+      </c>
+      <c r="J68" s="34">
+        <f>E68-F68-G68-H68-I68</f>
+        <v>22898.971592999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="12.75">
+      <c r="A69" s="9">
+        <f>DAYS360(A67,A68)</f>
+        <v>-318</v>
+      </c>
+      <c r="B69" s="12">
+        <f>(D68-D67)/D67</f>
+        <v>6.5789473684211468E-3</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="20">
+        <f>E68-E67</f>
+        <v>150</v>
+      </c>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20">
+        <f>J68-J67</f>
+        <v>48.276704999996582</v>
       </c>
     </row>
   </sheetData>
@@ -19479,38 +19554,38 @@
         <v>3000</v>
       </c>
       <c r="D7" s="46">
-        <v>9.5</v>
+        <v>12.2</v>
       </c>
       <c r="E7" s="20">
         <f>C7*D7</f>
-        <v>28500</v>
+        <v>36600</v>
       </c>
       <c r="F7" s="20">
         <f>E7*0.002</f>
-        <v>57</v>
+        <v>73.2</v>
       </c>
       <c r="G7" s="20">
         <f>E7*0.00006</f>
-        <v>1.71</v>
+        <v>2.1960000000000002</v>
       </c>
       <c r="H7" s="20">
         <f>E7*0.00001</f>
-        <v>0.28500000000000003</v>
+        <v>0.36600000000000005</v>
       </c>
       <c r="I7" s="20">
         <f>(F7+G7+H7)*0.07</f>
-        <v>4.1296499999999998</v>
+        <v>5.3033400000000004</v>
       </c>
       <c r="J7" s="20">
         <f>E7+F7+I7+G7+H7</f>
-        <v>28563.124649999998</v>
+        <v>36681.065340000001</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1">
       <c r="A8" s="55"/>
       <c r="B8" s="12">
         <f>(D7-D6)/D6</f>
-        <v>-0.61693548387096775</v>
+        <v>-0.50806451612903225</v>
       </c>
       <c r="C8" s="10">
         <f>SUM(C6:C7)</f>
@@ -19518,31 +19593,31 @@
       </c>
       <c r="D8" s="63">
         <f>E8/C8</f>
-        <v>19.7</v>
+        <v>20.6</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>177300</v>
+        <v>185400</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="2"/>
-        <v>354.6</v>
+        <v>370.8</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>10.638000000000002</v>
+        <v>11.124000000000001</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>1.7730000000000001</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>25.690770000000001</v>
+        <v>26.864460000000001</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>177692.70176999999</v>
+        <v>185810.64246</v>
       </c>
     </row>
   </sheetData>
@@ -19557,7 +19632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE0D015-9A6D-40DB-A099-73BBAC254E19}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -20797,8 +20872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D30CFA7-C46B-4885-A4A3-CF2E8439A3D7}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>
@@ -20938,81 +21013,28 @@
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:14" s="21" customFormat="1" ht="14.25">
-      <c r="A5" s="8">
-        <v>44956</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="46">
-        <v>7.5</v>
-      </c>
-      <c r="E5" s="20">
-        <f>C5*D5</f>
-        <v>75000</v>
-      </c>
-      <c r="F5" s="20">
-        <f>E5*0.002</f>
-        <v>150</v>
-      </c>
-      <c r="G5" s="20">
-        <f>E5*0.000068</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H5" s="20">
-        <f>E5*0.00001</f>
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="I5" s="20">
-        <f>(F5+G5+H5)*0.07</f>
-        <v>10.909500000000001</v>
-      </c>
-      <c r="J5" s="20">
-        <f>E5+F5+I5+G5+H5</f>
-        <v>75166.7595</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:14" s="21" customFormat="1" ht="14.25">
       <c r="A6" s="44"/>
-      <c r="B6" s="3">
-        <f>(D5-D4)/D4</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <f>C4+C5</f>
-        <v>30000</v>
-      </c>
-      <c r="D6" s="33">
-        <f>E6/C6</f>
-        <v>7.5</v>
-      </c>
-      <c r="E6" s="22">
-        <f>E4+E5</f>
-        <v>225000</v>
-      </c>
-      <c r="F6" s="22">
-        <f>F4+F5</f>
-        <v>450</v>
-      </c>
-      <c r="G6" s="22">
-        <f>G4+G5</f>
-        <v>14.696</v>
-      </c>
-      <c r="H6" s="22">
-        <f>H4+H5</f>
-        <v>2.2500000000000004</v>
-      </c>
-      <c r="I6" s="22">
-        <f>I4+I5</f>
-        <v>32.686220000000006</v>
-      </c>
-      <c r="J6" s="22">
-        <f>J4+J5</f>
-        <v>225499.63221999997</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="25"/>
     </row>
     <row r="8" spans="1:14" s="62" customFormat="1" ht="21.75">
@@ -21020,8 +21042,8 @@
         <v>45170</v>
       </c>
       <c r="C8" s="10">
-        <f>C4</f>
-        <v>20000</v>
+        <f>C3</f>
+        <v>10000</v>
       </c>
       <c r="D8" s="63">
         <v>0.1009</v>
@@ -21032,55 +21054,53 @@
       <c r="H8" s="11"/>
       <c r="I8" s="60">
         <f>C8*D8</f>
-        <v>2018</v>
+        <v>1009</v>
       </c>
       <c r="J8" s="60">
         <f>I8*0.9</f>
-        <v>1816.2</v>
+        <v>908.1</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="13"/>
       <c r="M8" s="61"/>
       <c r="N8" s="61"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25">
-      <c r="A9" s="55">
-        <v>44242</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <f>C4</f>
-        <v>20000</v>
-      </c>
-      <c r="D9" s="46">
-        <f>D5</f>
-        <v>7.5</v>
-      </c>
-      <c r="E9" s="20">
+    <row r="9" spans="1:14" s="21" customFormat="1" ht="12.75">
+      <c r="A9" s="14">
+        <v>45132</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="41">
+        <v>7.45</v>
+      </c>
+      <c r="E9" s="18">
         <f>C9*D9</f>
-        <v>150000</v>
-      </c>
-      <c r="F9" s="20">
+        <v>74500</v>
+      </c>
+      <c r="F9" s="18">
         <f>E9*0.002</f>
-        <v>300</v>
-      </c>
-      <c r="G9" s="20">
-        <f>E9*0.00006</f>
-        <v>9</v>
-      </c>
-      <c r="H9" s="20">
+        <v>149</v>
+      </c>
+      <c r="G9" s="18">
+        <f>E9*0.000068</f>
+        <v>5.0659999999999998</v>
+      </c>
+      <c r="H9" s="18">
         <f>E9*0.00001</f>
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="I9" s="20">
+        <v>0.74500000000000011</v>
+      </c>
+      <c r="I9" s="18">
         <f>(F9+G9+H9)*0.07</f>
-        <v>21.735000000000003</v>
-      </c>
-      <c r="J9" s="20">
+        <v>10.836770000000001</v>
+      </c>
+      <c r="J9" s="18">
         <f>E9+F9+I9+G9+H9</f>
-        <v>150332.23499999999</v>
+        <v>74665.647769999996</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25">
@@ -21092,34 +21112,34 @@
       </c>
       <c r="C10" s="10">
         <f>C9</f>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="34">
-        <v>7.55</v>
+        <v>7.5</v>
       </c>
       <c r="E10" s="11">
         <f>C10*D10</f>
-        <v>151000</v>
+        <v>75000</v>
       </c>
       <c r="F10" s="35">
         <f>E10*0.002</f>
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="G10" s="34">
         <f>E10*0.000068</f>
-        <v>10.268000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H10" s="34">
         <f>E10*0.00001</f>
-        <v>1.5100000000000002</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="I10" s="34">
         <f>(F10+G10+H10)*0.07</f>
-        <v>21.964460000000003</v>
+        <v>10.909500000000001</v>
       </c>
       <c r="J10" s="34">
         <f>E10-F10-G10-H10-I10</f>
-        <v>150664.25753999999</v>
+        <v>74833.2405</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25">
@@ -21128,13 +21148,13 @@
       </c>
       <c r="B11" s="12">
         <f>E11/E9</f>
-        <v>6.6666666666666671E-3</v>
+        <v>6.7114093959731542E-3</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="20">
         <f>E10-E9</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -21142,14 +21162,14 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20">
         <f>J10-J9</f>
-        <v>332.02254000000539</v>
+        <v>167.59273000000394</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25">
       <c r="C12" s="2"/>
       <c r="J12" s="53">
         <f>J8+J11</f>
-        <v>2148.2225400000052</v>
+        <v>1075.6927300000038</v>
       </c>
     </row>
   </sheetData>
@@ -21167,8 +21187,8 @@
   </sheetPr>
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -22133,31 +22153,31 @@
         <v>2500</v>
       </c>
       <c r="D27" s="46">
-        <v>12.7</v>
+        <v>14.5</v>
       </c>
       <c r="E27" s="20">
         <f>C27*D27</f>
-        <v>31750</v>
+        <v>36250</v>
       </c>
       <c r="F27" s="20">
         <f>E27*0.002</f>
-        <v>63.5</v>
+        <v>72.5</v>
       </c>
       <c r="G27" s="20">
         <f>E27*0.00006</f>
-        <v>1.905</v>
+        <v>2.1750000000000003</v>
       </c>
       <c r="H27" s="20">
         <f>E27*0.00001</f>
-        <v>0.3175</v>
+        <v>0.36250000000000004</v>
       </c>
       <c r="I27" s="20">
         <f>(F27+G27+H27)*0.07</f>
-        <v>4.6005750000000001</v>
+        <v>5.2526250000000001</v>
       </c>
       <c r="J27" s="20">
         <f>E27+F27+I27+G27+H27</f>
-        <v>31820.323075</v>
+        <v>36330.290125000007</v>
       </c>
       <c r="K27" s="56"/>
       <c r="L27" s="57"/>
@@ -22169,7 +22189,7 @@
       <c r="A28" s="50"/>
       <c r="B28" s="3">
         <f>(D27-D26)/D26</f>
-        <v>-0.6825</v>
+        <v>-0.63749999999999996</v>
       </c>
       <c r="C28" s="2">
         <f>SUM(C26:C27)</f>
@@ -22177,31 +22197,31 @@
       </c>
       <c r="D28" s="47">
         <f>E28/C28</f>
-        <v>30.9</v>
+        <v>31.5</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ref="E28:J28" si="4">SUM(E26:E27)</f>
-        <v>231750</v>
+        <v>236250</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="4"/>
-        <v>463.5</v>
+        <v>472.5</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="4"/>
-        <v>13.904999999999999</v>
+        <v>14.175000000000001</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="4"/>
-        <v>2.3174999999999999</v>
+        <v>2.3624999999999998</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="4"/>
-        <v>33.580575000000003</v>
+        <v>34.232625000000006</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="4"/>
-        <v>232263.303075</v>
+        <v>236773.27012500001</v>
       </c>
       <c r="K28" s="56"/>
       <c r="L28" s="57"/>
@@ -22256,7 +22276,7 @@
       <c r="A30" s="50"/>
       <c r="B30" s="3">
         <f>(D29-D28)/D28</f>
-        <v>-0.60194174757281549</v>
+        <v>-0.60952380952380947</v>
       </c>
       <c r="C30" s="2">
         <f>SUM(C28:C29)</f>
@@ -22264,31 +22284,31 @@
       </c>
       <c r="D30" s="47">
         <f>E30/C30</f>
-        <v>26.25</v>
+        <v>26.7</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ref="E30:J30" si="5">SUM(E28:E29)</f>
-        <v>262500</v>
+        <v>267000</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="5"/>
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="5"/>
-        <v>15.75</v>
+        <v>16.02</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="5"/>
-        <v>2.625</v>
+        <v>2.67</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="5"/>
-        <v>38.036250000000003</v>
+        <v>38.688300000000005</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="5"/>
-        <v>263081.41125</v>
+        <v>267591.37829999998</v>
       </c>
       <c r="K30" s="56"/>
       <c r="L30" s="57"/>
@@ -23741,7 +23761,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -24965,7 +24985,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -25113,376 +25133,297 @@
       <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="14">
+      <c r="A5" s="8">
         <v>44698</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
         <v>10000</v>
       </c>
-      <c r="D5" s="41">
-        <v>10.5</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="D5" s="46">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E5" s="20">
         <f>C5*D5</f>
-        <v>105000</v>
-      </c>
-      <c r="F5" s="18">
+        <v>102000</v>
+      </c>
+      <c r="F5" s="20">
         <f>E5*0.002</f>
-        <v>210</v>
-      </c>
-      <c r="G5" s="18">
+        <v>204</v>
+      </c>
+      <c r="G5" s="20">
         <f>E5*0.000068</f>
-        <v>7.14</v>
-      </c>
-      <c r="H5" s="18">
+        <v>6.9359999999999999</v>
+      </c>
+      <c r="H5" s="20">
         <f>E5*0.00001</f>
-        <v>1.05</v>
-      </c>
-      <c r="I5" s="18">
+        <v>1.02</v>
+      </c>
+      <c r="I5" s="20">
         <f>(F5+G5+H5)*0.07</f>
-        <v>15.273300000000001</v>
-      </c>
-      <c r="J5" s="18">
+        <v>14.836920000000003</v>
+      </c>
+      <c r="J5" s="20">
         <f>E5+F5+I5+G5+H5</f>
-        <v>105233.4633</v>
+        <v>102226.79292000001</v>
       </c>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="42"/>
-      <c r="B6" s="73">
+    <row r="6" spans="1:14" ht="21.75">
+      <c r="A6" s="44"/>
+      <c r="B6" s="75">
         <f>(D5-D4)/D4</f>
-        <v>-0.14634146341463419</v>
-      </c>
-      <c r="C6" s="5">
+        <v>-0.17073170731707327</v>
+      </c>
+      <c r="C6" s="22">
         <f>SUM(C4:C5)</f>
         <v>30000</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="33">
         <f>E6/C6</f>
-        <v>11.7</v>
-      </c>
-      <c r="E6" s="48">
-        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>351000</v>
-      </c>
-      <c r="F6" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="E6" s="93">
+        <f>SUM(E4:E5)</f>
+        <v>348000</v>
+      </c>
+      <c r="F6" s="93">
+        <f t="shared" ref="F6:J6" si="1">SUM(F4:F5)</f>
+        <v>696</v>
+      </c>
+      <c r="G6" s="93">
         <f t="shared" si="1"/>
-        <v>702</v>
-      </c>
-      <c r="G6" s="5">
+        <v>22.664000000000001</v>
+      </c>
+      <c r="H6" s="93">
         <f t="shared" si="1"/>
-        <v>22.867999999999999</v>
-      </c>
-      <c r="H6" s="5">
+        <v>3.48</v>
+      </c>
+      <c r="I6" s="93">
         <f t="shared" si="1"/>
-        <v>3.51</v>
-      </c>
-      <c r="I6" s="5">
+        <v>50.550080000000008</v>
+      </c>
+      <c r="J6" s="93">
         <f t="shared" si="1"/>
-        <v>50.986460000000001</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="1"/>
-        <v>351779.36446000001</v>
+        <v>348772.69408000004</v>
       </c>
       <c r="K6" s="25"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="8">
+    <row r="7" spans="1:14" s="1" customFormat="1">
+      <c r="A7" s="55">
+        <v>44628</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10">
+        <f>C6</f>
+        <v>30000</v>
+      </c>
+      <c r="D7" s="34">
+        <v>11.6</v>
+      </c>
+      <c r="E7" s="11">
+        <f>C7*D7</f>
+        <v>348000</v>
+      </c>
+      <c r="F7" s="35">
+        <f>E7*0.002</f>
+        <v>696</v>
+      </c>
+      <c r="G7" s="34">
+        <f>E7*0.000068</f>
+        <v>23.664000000000001</v>
+      </c>
+      <c r="H7" s="34">
+        <f>E7*0.00001</f>
+        <v>3.4800000000000004</v>
+      </c>
+      <c r="I7" s="34">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>50.620080000000009</v>
+      </c>
+      <c r="J7" s="34">
+        <f>E7-F7-G7-H7-I7</f>
+        <v>347226.23592000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1">
+      <c r="A8" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="20">
+        <f>E7-E6</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
+        <f>J7-J6</f>
+        <v>-1546.4581600000383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="55"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:14" s="62" customFormat="1" ht="21.75">
+      <c r="A10" s="55">
+        <v>44629</v>
+      </c>
+      <c r="C10" s="10" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="63">
+        <v>0.193</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="60" t="e">
+        <f>C10*D10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="60" t="e">
+        <f>I10*0.9</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="14">
         <v>44698</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>5000</v>
-      </c>
-      <c r="D7" s="46">
-        <v>11</v>
-      </c>
-      <c r="E7" s="20">
-        <f>C7*D7</f>
-        <v>55000</v>
-      </c>
-      <c r="F7" s="20">
-        <f>E7*0.002</f>
-        <v>110</v>
-      </c>
-      <c r="G7" s="20">
-        <f>E7*0.000068</f>
-        <v>3.7399999999999998</v>
-      </c>
-      <c r="H7" s="20">
-        <f>E7*0.00001</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I7" s="20">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>8.0003000000000011</v>
-      </c>
-      <c r="J7" s="20">
-        <f>E7+F7+I7+G7+H7</f>
-        <v>55122.290300000001</v>
-      </c>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="44"/>
-      <c r="B8" s="3">
-        <f>(D7-D6)/D6</f>
-        <v>-5.9829059829059769E-2</v>
-      </c>
-      <c r="C8" s="22">
-        <f>SUM(C6:C7)</f>
-        <v>35000</v>
-      </c>
-      <c r="D8" s="33">
-        <f>E8/C8</f>
-        <v>11.6</v>
-      </c>
-      <c r="E8" s="93">
-        <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>406000</v>
-      </c>
-      <c r="F8" s="22">
-        <f t="shared" si="2"/>
-        <v>812</v>
-      </c>
-      <c r="G8" s="22">
-        <f t="shared" si="2"/>
-        <v>26.607999999999997</v>
-      </c>
-      <c r="H8" s="22">
-        <f t="shared" si="2"/>
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="I8" s="22">
-        <f t="shared" si="2"/>
-        <v>58.986760000000004</v>
-      </c>
-      <c r="J8" s="22">
-        <f t="shared" si="2"/>
-        <v>406901.65476</v>
-      </c>
-      <c r="K8" s="25"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1">
-      <c r="A9" s="55">
-        <v>44628</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="B11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="41">
+        <v>10.5</v>
+      </c>
+      <c r="E11" s="18">
+        <f>C11*D11</f>
+        <v>105000</v>
+      </c>
+      <c r="F11" s="18">
+        <f>E11*0.002</f>
+        <v>210</v>
+      </c>
+      <c r="G11" s="18">
+        <f>E11*0.000068</f>
+        <v>7.14</v>
+      </c>
+      <c r="H11" s="18">
+        <f>E11*0.00001</f>
+        <v>1.05</v>
+      </c>
+      <c r="I11" s="18">
+        <f>(F11+G11+H11)*0.07</f>
+        <v>15.273300000000001</v>
+      </c>
+      <c r="J11" s="18">
+        <f>E11+F11+I11+G11+H11</f>
+        <v>105233.4633</v>
+      </c>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:14" s="101" customFormat="1">
+      <c r="A12" s="49">
+        <v>45169</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10">
-        <f>C8</f>
-        <v>35000</v>
-      </c>
-      <c r="D9" s="34">
-        <v>11.6</v>
-      </c>
-      <c r="E9" s="11">
-        <f>C9*D9</f>
-        <v>406000</v>
-      </c>
-      <c r="F9" s="35">
-        <f>E9*0.002</f>
-        <v>812</v>
-      </c>
-      <c r="G9" s="34">
-        <f>E9*0.000068</f>
-        <v>27.608000000000001</v>
-      </c>
-      <c r="H9" s="34">
-        <f>E9*0.00001</f>
-        <v>4.0600000000000005</v>
-      </c>
-      <c r="I9" s="34">
-        <f>(F9+G9+H9)*0.07</f>
-        <v>59.056759999999997</v>
-      </c>
-      <c r="J9" s="34">
-        <f>E9-F9-G9-H9-I9</f>
-        <v>405097.27523999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1">
-      <c r="A10" s="55" t="s">
+      <c r="C12" s="16">
+        <f>C11</f>
+        <v>10000</v>
+      </c>
+      <c r="D12" s="26">
+        <v>10.6</v>
+      </c>
+      <c r="E12" s="17">
+        <f>C12*D12</f>
+        <v>106000</v>
+      </c>
+      <c r="F12" s="27">
+        <f>E12*0.002</f>
+        <v>212</v>
+      </c>
+      <c r="G12" s="26">
+        <f>E12*0.000068</f>
+        <v>7.2080000000000002</v>
+      </c>
+      <c r="H12" s="26">
+        <f>E12*0.00001</f>
+        <v>1.06</v>
+      </c>
+      <c r="I12" s="26">
+        <f>(F12+G12+H12)*0.07</f>
+        <v>15.418760000000001</v>
+      </c>
+      <c r="J12" s="26">
+        <f>E12-F12-G12-H12-I12</f>
+        <v>105764.31324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="101" customFormat="1">
+      <c r="A13" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="20">
-        <f>E9-E8</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20">
-        <f>J9-J8</f>
-        <v>-1804.3795200000168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="55"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:14" s="62" customFormat="1" ht="21.75">
-      <c r="A12" s="55">
-        <v>44629</v>
-      </c>
-      <c r="C12" s="10">
-        <f>C5</f>
-        <v>10000</v>
-      </c>
-      <c r="D12" s="63">
-        <v>0.193</v>
-      </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="60">
-        <f>C12*D12</f>
-        <v>1930</v>
-      </c>
-      <c r="J12" s="60">
-        <f>I12*0.9</f>
-        <v>1737</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1">
-      <c r="A13" s="55">
-        <v>44242</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
-        <f>C12</f>
-        <v>10000</v>
-      </c>
-      <c r="D13" s="46">
-        <f>D5</f>
-        <v>10.5</v>
-      </c>
-      <c r="E13" s="20">
-        <f>C13*D13</f>
-        <v>105000</v>
-      </c>
-      <c r="F13" s="20">
-        <f>E13*0.002</f>
-        <v>210</v>
-      </c>
-      <c r="G13" s="20">
-        <f>E13*0.00006</f>
-        <v>6.3</v>
-      </c>
-      <c r="H13" s="20">
-        <f>E13*0.00001</f>
-        <v>1.05</v>
-      </c>
-      <c r="I13" s="20">
-        <f>(F13+G13+H13)*0.07</f>
-        <v>15.214500000000003</v>
-      </c>
-      <c r="J13" s="20">
-        <f>E13+F13+I13+G13+H13</f>
-        <v>105232.56450000001</v>
+      <c r="B13" s="7">
+        <f>(D12-D11)/D11</f>
+        <v>9.52380952380949E-3</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18">
+        <f>E12-E11</f>
+        <v>1000</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18">
+        <f>J12-J11</f>
+        <v>530.84994000000006</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
-      <c r="A14" s="55">
-        <v>44277</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="10">
-        <f>C13</f>
-        <v>10000</v>
-      </c>
-      <c r="D14" s="34">
-        <v>10.6</v>
-      </c>
-      <c r="E14" s="11">
-        <f>C14*D14</f>
-        <v>106000</v>
-      </c>
-      <c r="F14" s="35">
-        <f>E14*0.002</f>
-        <v>212</v>
-      </c>
-      <c r="G14" s="34">
-        <f>E14*0.000068</f>
-        <v>7.2080000000000002</v>
-      </c>
-      <c r="H14" s="34">
-        <f>E14*0.00001</f>
-        <v>1.06</v>
-      </c>
-      <c r="I14" s="34">
-        <f>(F14+G14+H14)*0.07</f>
-        <v>15.418760000000001</v>
-      </c>
-      <c r="J14" s="34">
-        <f>E14-F14-G14-H14-I14</f>
-        <v>105764.31324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="12.75">
-      <c r="A15" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="25">
-        <f>(D14-D13)/D13</f>
-        <v>9.52380952380949E-3</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="20">
-        <f>E14-E13</f>
-        <v>1000</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20">
-        <f>J14-J13</f>
-        <v>531.74873999999545</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="A16" s="50"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="47"/>
-      <c r="J16" s="53">
-        <f>J12+J15</f>
-        <v>2268.7487399999955</v>
-      </c>
-    </row>
+      <c r="A14" s="50"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="47"/>
+      <c r="J14" s="53" t="e">
+        <f>J10+J13</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75"/>
+    <row r="16" spans="1:14" ht="12.75"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -26666,7 +26607,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -26687,12 +26628,12 @@
     <col min="14" max="16384" width="8.875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1">
+    <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="49">
         <v>45092</v>
       </c>
@@ -26730,7 +26671,7 @@
         <v>44738.873135999995</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="15">
+    <row r="3" spans="1:13" s="19" customFormat="1" ht="15">
       <c r="A3" s="55">
         <v>44469</v>
       </c>
@@ -26768,7 +26709,7 @@
         <v>14672.426136</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="15">
+    <row r="4" spans="1:13" s="19" customFormat="1" ht="15">
       <c r="A4" s="55"/>
       <c r="B4" s="12">
         <f>(D3-D2)/D2</f>
@@ -26809,36 +26750,116 @@
       <c r="K4" s="57"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="12">
       <c r="A5" s="50"/>
       <c r="D5" s="47"/>
       <c r="J5" s="53"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="13"/>
+    <row r="6" spans="1:13" s="1" customFormat="1">
+      <c r="A6" s="49">
+        <v>45092</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>9000</v>
+      </c>
+      <c r="D6" s="41">
+        <v>4.96</v>
+      </c>
+      <c r="E6" s="18">
+        <f>C6*D6</f>
+        <v>44640</v>
+      </c>
+      <c r="F6" s="18">
+        <f>E6*0.002</f>
+        <v>89.28</v>
+      </c>
+      <c r="G6" s="18">
+        <f>E6*0.00006</f>
+        <v>2.6783999999999999</v>
+      </c>
+      <c r="H6" s="18">
+        <f>E6*0.00001</f>
+        <v>0.44640000000000002</v>
+      </c>
+      <c r="I6" s="18">
+        <f>(F6+G6+H6)*0.07</f>
+        <v>6.4683359999999999</v>
+      </c>
+      <c r="J6" s="18">
+        <f>E6+F6+I6+G6+H6</f>
+        <v>44738.873135999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="14.25">
+      <c r="A7" s="55">
+        <v>44809</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10">
+        <f>C6</f>
+        <v>9000</v>
+      </c>
+      <c r="D7" s="34">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E7" s="11">
+        <f>C7*D7</f>
+        <v>45900</v>
+      </c>
+      <c r="F7" s="35">
+        <f>E7*0.002</f>
+        <v>91.8</v>
+      </c>
+      <c r="G7" s="34">
+        <f>E7*0.000068</f>
+        <v>3.1212</v>
+      </c>
+      <c r="H7" s="34">
+        <f>E7*0.00001</f>
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="I7" s="34">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>6.6766140000000007</v>
+      </c>
+      <c r="J7" s="34">
+        <f>E7-F7-G7-H7-I7</f>
+        <v>45797.94318599999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="31" customFormat="1" ht="18.75">
+      <c r="A8" s="9">
+        <f>DAYS360(A6,A7)</f>
+        <v>-280</v>
+      </c>
+      <c r="B8" s="12">
+        <f>(D7-D6)/D6</f>
+        <v>2.822580645161284E-2</v>
+      </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1">
+      <c r="D8" s="11"/>
+      <c r="E8" s="20">
+        <f>E7-E6</f>
+        <v>1260</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
+        <f>J7-J6</f>
+        <v>1059.0700499999948</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1">
       <c r="A9" s="55"/>
       <c r="B9" s="13"/>
       <c r="C9" s="10"/>
@@ -26863,7 +26884,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_141A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13890" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24A3D674-74C0-4264-98AC-5421ADDE4E13}"/>
+  <xr:revisionPtr revIDLastSave="14262" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3B542A3-C783-481E-8B7C-9A7681CBFE7C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="461" firstSheet="17" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="461" firstSheet="18" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -43,11 +43,15 @@
     <sheet name="SYNEX" sheetId="199" r:id="rId28"/>
     <sheet name="TFFIF" sheetId="214" r:id="rId29"/>
     <sheet name="TMT" sheetId="145" r:id="rId30"/>
-    <sheet name="WHAIR" sheetId="157" r:id="rId31"/>
-    <sheet name="WHART" sheetId="171" r:id="rId32"/>
+    <sheet name="TOA" sheetId="218" r:id="rId31"/>
+    <sheet name="WHAIR" sheetId="157" r:id="rId32"/>
+    <sheet name="WHART" sheetId="171" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -64,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="41">
   <si>
     <t>KCE</t>
   </si>
@@ -178,6 +182,9 @@
   </si>
   <si>
     <t>TMT</t>
+  </si>
+  <si>
+    <t>TOA</t>
   </si>
   <si>
     <t>HREIT</t>
@@ -6596,10 +6603,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115D497-67E5-4755-A37C-D801F1CE1CC8}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6612,7 +6619,7 @@
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
@@ -7273,322 +7280,631 @@
       <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:14" s="21" customFormat="1" ht="12.75">
-      <c r="A19" s="8">
-        <v>45163</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="A19" s="14">
+        <v>45055</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16">
         <v>6000</v>
       </c>
-      <c r="D19" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="E19" s="20">
+      <c r="D19" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="E19" s="18">
         <f>C19*D19</f>
-        <v>41400</v>
-      </c>
-      <c r="F19" s="20">
+        <v>40800</v>
+      </c>
+      <c r="F19" s="18">
         <f>E19*0.002</f>
-        <v>82.8</v>
-      </c>
-      <c r="G19" s="20">
+        <v>81.600000000000009</v>
+      </c>
+      <c r="G19" s="18">
         <f>E19*0.000068</f>
-        <v>2.8151999999999999</v>
-      </c>
-      <c r="H19" s="20">
+        <v>2.7744</v>
+      </c>
+      <c r="H19" s="18">
         <f>E19*0.00001</f>
-        <v>0.41400000000000003</v>
-      </c>
-      <c r="I19" s="20">
+        <v>0.40800000000000003</v>
+      </c>
+      <c r="I19" s="18">
         <f>(F19+G19+H19)*0.07</f>
-        <v>6.0220440000000011</v>
-      </c>
-      <c r="J19" s="20">
+        <v>5.9347680000000009</v>
+      </c>
+      <c r="J19" s="18">
         <f>E19+F19+I19+G19+H19</f>
-        <v>41492.051243999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="21" customFormat="1" ht="12.75">
-      <c r="A20" s="44"/>
-      <c r="B20" s="25">
+        <v>40890.717168000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="21" customFormat="1" ht="12.75" hidden="1">
+      <c r="A20" s="42"/>
+      <c r="B20" s="7">
         <f>(D19-D18)/D18</f>
-        <v>-0.18823529411764703</v>
-      </c>
-      <c r="C20" s="22">
+        <v>-0.2</v>
+      </c>
+      <c r="C20" s="5">
         <f>SUM(C18:C19)</f>
         <v>48000</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="65">
         <f>E20/C20</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E20" s="22">
+        <v>8.2874999999999996</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" ref="E20:J20" si="6">SUM(E18:E19)</f>
-        <v>398400</v>
-      </c>
-      <c r="F20" s="22">
+        <v>397800</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="6"/>
-        <v>796.8</v>
-      </c>
-      <c r="G20" s="22">
+        <v>795.6</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="6"/>
-        <v>27.091200000000001</v>
-      </c>
-      <c r="H20" s="22">
+        <v>27.0504</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="6"/>
-        <v>3.9840000000000004</v>
-      </c>
-      <c r="I20" s="22">
+        <v>3.9780000000000002</v>
+      </c>
+      <c r="I20" s="5">
         <f t="shared" si="6"/>
-        <v>57.951264000000002</v>
-      </c>
-      <c r="J20" s="22">
+        <v>57.863987999999999</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="6"/>
-        <v>399285.82646399998</v>
+        <v>398684.49238800001</v>
       </c>
       <c r="K20" s="24"/>
       <c r="L20" s="25"/>
     </row>
     <row r="21" spans="1:14" s="21" customFormat="1" ht="12.75">
-      <c r="A21" s="8"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:14" s="62" customFormat="1" ht="21.75">
-      <c r="A22" s="55">
-        <v>44799</v>
-      </c>
-      <c r="C22" s="10">
-        <f>C17</f>
+      <c r="A21" s="14">
+        <v>45176</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="17">
+        <v>6.6</v>
+      </c>
+      <c r="E21" s="18">
+        <f>C21*D21</f>
+        <v>19800</v>
+      </c>
+      <c r="F21" s="18">
+        <f>E21*0.002</f>
+        <v>39.6</v>
+      </c>
+      <c r="G21" s="18">
+        <f>E21*0.000068</f>
+        <v>1.3464</v>
+      </c>
+      <c r="H21" s="18">
+        <f>E21*0.00001</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I21" s="18">
+        <f>(F21+G21+H21)*0.07</f>
+        <v>2.8801080000000008</v>
+      </c>
+      <c r="J21" s="18">
+        <f>E21+F21+I21+G21+H21</f>
+        <v>19844.024507999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="21" customFormat="1" ht="12.75">
+      <c r="A22" s="42"/>
+      <c r="B22" s="7">
+        <f>(D21-D20)/D20</f>
+        <v>-0.20361990950226244</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUM(C20:C21)</f>
+        <v>51000</v>
+      </c>
+      <c r="D22" s="65">
+        <f>E22/C22</f>
+        <v>8.1882352941176464</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ref="E22:J22" si="7">SUM(E20:E21)</f>
+        <v>417600</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="7"/>
+        <v>835.2</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="7"/>
+        <v>28.396799999999999</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="7"/>
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="7"/>
+        <v>60.744095999999999</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="7"/>
+        <v>418528.51689600002</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:14" s="21" customFormat="1" ht="12.75">
+      <c r="A23" s="14">
+        <v>45180</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D23" s="17">
+        <v>6.6</v>
+      </c>
+      <c r="E23" s="18">
+        <f>C23*D23</f>
+        <v>19800</v>
+      </c>
+      <c r="F23" s="18">
+        <f>E23*0.002</f>
+        <v>39.6</v>
+      </c>
+      <c r="G23" s="18">
+        <f>E23*0.000068</f>
+        <v>1.3464</v>
+      </c>
+      <c r="H23" s="18">
+        <f>E23*0.00001</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I23" s="18">
+        <f>(F23+G23+H23)*0.07</f>
+        <v>2.8801080000000008</v>
+      </c>
+      <c r="J23" s="18">
+        <f>E23+F23+I23+G23+H23</f>
+        <v>19844.024507999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="21" customFormat="1" ht="12.75">
+      <c r="A24" s="42"/>
+      <c r="B24" s="7">
+        <f>(D23-D22)/D22</f>
+        <v>-0.19396551724137928</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUM(C22:C23)</f>
+        <v>54000</v>
+      </c>
+      <c r="D24" s="65">
+        <f>E24/C24</f>
+        <v>8.1</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ref="E24:J24" si="8">SUM(E22:E23)</f>
+        <v>437400</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="8"/>
+        <v>874.80000000000007</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="8"/>
+        <v>29.743199999999998</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="8"/>
+        <v>4.3740000000000006</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="8"/>
+        <v>63.624203999999999</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="8"/>
+        <v>438372.54140400002</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="1:14" s="21" customFormat="1" ht="12.75">
+      <c r="A25" s="14">
+        <v>45191</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16">
         <v>6000</v>
       </c>
-      <c r="D22" s="63">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="E22" s="59">
-        <v>0</v>
-      </c>
-      <c r="F22" s="32">
-        <v>0</v>
-      </c>
-      <c r="G22" s="59">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <f>G22-E22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="60">
-        <f>C22*D22*0.9</f>
-        <v>1085.4000000000001</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="55">
+      <c r="D25" s="17">
+        <v>6.1</v>
+      </c>
+      <c r="E25" s="18">
+        <f>C25*D25</f>
+        <v>36600</v>
+      </c>
+      <c r="F25" s="18">
+        <f>E25*0.002</f>
+        <v>73.2</v>
+      </c>
+      <c r="G25" s="18">
+        <f>E25*0.000068</f>
+        <v>2.4887999999999999</v>
+      </c>
+      <c r="H25" s="18">
+        <f>E25*0.00001</f>
+        <v>0.36600000000000005</v>
+      </c>
+      <c r="I25" s="18">
+        <f>(F25+G25+H25)*0.07</f>
+        <v>5.3238360000000009</v>
+      </c>
+      <c r="J25" s="18">
+        <f>E25+F25+I25+G25+H25</f>
+        <v>36681.378636000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="21" customFormat="1" ht="12.75">
+      <c r="A26" s="42"/>
+      <c r="B26" s="7">
+        <f>(D25-D24)/D24</f>
+        <v>-0.24691358024691359</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUM(C24:C25)</f>
+        <v>60000</v>
+      </c>
+      <c r="D26" s="65">
+        <f>E26/C26</f>
+        <v>7.9</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ref="E26:J26" si="9">SUM(E24:E25)</f>
+        <v>474000</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="9"/>
+        <v>948.00000000000011</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="9"/>
+        <v>32.231999999999999</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="9"/>
+        <v>4.74</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="9"/>
+        <v>68.948040000000006</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="9"/>
+        <v>475053.92004</v>
+      </c>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="1:14" s="21" customFormat="1" ht="12.75">
+      <c r="A27" s="8">
+        <v>45191</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>6000</v>
+      </c>
+      <c r="D27" s="11">
+        <v>5.15</v>
+      </c>
+      <c r="E27" s="20">
+        <f>C27*D27</f>
+        <v>30900.000000000004</v>
+      </c>
+      <c r="F27" s="20">
+        <f>E27*0.002</f>
+        <v>61.800000000000011</v>
+      </c>
+      <c r="G27" s="20">
+        <f>E27*0.000068</f>
+        <v>2.1012000000000004</v>
+      </c>
+      <c r="H27" s="20">
+        <f>E27*0.00001</f>
+        <v>0.30900000000000005</v>
+      </c>
+      <c r="I27" s="20">
+        <f>(F27+G27+H27)*0.07</f>
+        <v>4.4947140000000019</v>
+      </c>
+      <c r="J27" s="20">
+        <f>E27+F27+I27+G27+H27</f>
+        <v>30968.704914000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="21" customFormat="1" ht="12.75">
+      <c r="A28" s="44"/>
+      <c r="B28" s="25">
+        <f>(D27-D26)/D26</f>
+        <v>-0.34810126582278478</v>
+      </c>
+      <c r="C28" s="22">
+        <f>SUM(C26:C27)</f>
+        <v>66000</v>
+      </c>
+      <c r="D28" s="64">
+        <f>E28/C28</f>
+        <v>7.65</v>
+      </c>
+      <c r="E28" s="22">
+        <f t="shared" ref="E28:J28" si="10">SUM(E26:E27)</f>
+        <v>504900</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="10"/>
+        <v>1009.8000000000002</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="10"/>
+        <v>34.333199999999998</v>
+      </c>
+      <c r="H28" s="22">
+        <f t="shared" si="10"/>
+        <v>5.0490000000000004</v>
+      </c>
+      <c r="I28" s="22">
+        <f t="shared" si="10"/>
+        <v>73.442754000000008</v>
+      </c>
+      <c r="J28" s="22">
+        <f t="shared" si="10"/>
+        <v>506022.624954</v>
+      </c>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="1:14" s="21" customFormat="1" ht="12.75">
+      <c r="A29" s="44"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="1:14" s="62" customFormat="1" ht="21.75">
+      <c r="A30" s="55">
+        <v>45170</v>
+      </c>
+      <c r="C30" s="10">
+        <f>C22</f>
+        <v>51000</v>
+      </c>
+      <c r="D30" s="63">
+        <v>0.1009</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="60">
+        <f>C30*D30</f>
+        <v>5145.9000000000005</v>
+      </c>
+      <c r="J30" s="60">
+        <f>I30*0.9</f>
+        <v>4631.3100000000004</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="55">
         <v>44242</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10">
-        <f>C17</f>
+      <c r="B31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10">
         <v>6000</v>
       </c>
-      <c r="D23" s="46">
-        <f>D17</f>
-        <v>7.35</v>
-      </c>
-      <c r="E23" s="20">
-        <f>C23*D23</f>
-        <v>44100</v>
-      </c>
-      <c r="F23" s="20">
-        <f>E23*0.002</f>
-        <v>88.2</v>
-      </c>
-      <c r="G23" s="20">
-        <f>E23*0.00006</f>
-        <v>2.6459999999999999</v>
-      </c>
-      <c r="H23" s="20">
-        <f>E23*0.00001</f>
-        <v>0.44100000000000006</v>
-      </c>
-      <c r="I23" s="20">
-        <f>(F23+G23+H23)*0.07</f>
-        <v>6.3900900000000007</v>
-      </c>
-      <c r="J23" s="20">
-        <f>E23+F23+I23+G23+H23</f>
-        <v>44197.677089999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="55">
+      <c r="D31" s="46">
+        <f>D21</f>
+        <v>6.6</v>
+      </c>
+      <c r="E31" s="20">
+        <f>C31*D31</f>
+        <v>39600</v>
+      </c>
+      <c r="F31" s="20">
+        <f>E31*0.002</f>
+        <v>79.2</v>
+      </c>
+      <c r="G31" s="20">
+        <f>E31*0.00006</f>
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="H31" s="20">
+        <f>E31*0.00001</f>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="I31" s="20">
+        <f>(F31+G31+H31)*0.07</f>
+        <v>5.7380400000000007</v>
+      </c>
+      <c r="J31" s="20">
+        <f>E31+F31+I31+G31+H31</f>
+        <v>39687.710039999991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="55">
         <v>44277</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="10">
-        <f>C23</f>
+      <c r="C32" s="10">
+        <f>C31</f>
         <v>6000</v>
       </c>
-      <c r="D24" s="34">
-        <f>D23+0.05</f>
-        <v>7.3999999999999995</v>
-      </c>
-      <c r="E24" s="11">
-        <f>C24*D24</f>
-        <v>44400</v>
-      </c>
-      <c r="F24" s="35">
-        <f>E24*0.002</f>
-        <v>88.8</v>
-      </c>
-      <c r="G24" s="34">
-        <f>E24*0.000068</f>
-        <v>3.0192000000000001</v>
-      </c>
-      <c r="H24" s="34">
-        <f>E24*0.00001</f>
-        <v>0.44400000000000006</v>
-      </c>
-      <c r="I24" s="34">
-        <f>(F24+G24+H24)*0.07</f>
-        <v>6.4584240000000008</v>
-      </c>
-      <c r="J24" s="34">
-        <f>E24-F24-G24-H24-I24</f>
-        <v>44301.278375999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="55" t="s">
+      <c r="D32" s="34">
+        <v>6.95</v>
+      </c>
+      <c r="E32" s="11">
+        <f>C32*D32</f>
+        <v>41700</v>
+      </c>
+      <c r="F32" s="35">
+        <f>E32*0.002</f>
+        <v>83.4</v>
+      </c>
+      <c r="G32" s="34">
+        <f>E32*0.000068</f>
+        <v>2.8355999999999999</v>
+      </c>
+      <c r="H32" s="34">
+        <f>E32*0.00001</f>
+        <v>0.41700000000000004</v>
+      </c>
+      <c r="I32" s="34">
+        <f>(F32+G32+H32)*0.07</f>
+        <v>6.0656820000000007</v>
+      </c>
+      <c r="J32" s="34">
+        <f>E32-F32-G32-H32-I32</f>
+        <v>41607.281717999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="25">
-        <f>(D24-D23)/D23</f>
-        <v>6.8027210884353505E-3</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="20">
-        <f>E24-E23</f>
-        <v>300</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20">
-        <f>J24-J23</f>
-        <v>103.60128599999734</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="J26" s="53">
-        <f>J22+J25</f>
-        <v>1189.0012859999974</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="77" customFormat="1">
-      <c r="A27" s="81"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-    </row>
-    <row r="28" spans="1:14" s="13" customFormat="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="29" spans="1:14" s="31" customFormat="1" ht="18.75">
-      <c r="A29" s="28"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" s="21" customFormat="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="L30" s="25"/>
-    </row>
-    <row r="31" spans="1:14" s="13" customFormat="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:14" s="31" customFormat="1" ht="18.75">
-      <c r="A32" s="28"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" ht="12"/>
-    <row r="34" ht="12"/>
+      <c r="B33" s="25">
+        <f>(D32-D31)/D31</f>
+        <v>5.3030303030303115E-2</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="20">
+        <f>E32-E31</f>
+        <v>2100</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20">
+        <f>J32-J31</f>
+        <v>1919.5716780000075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="J34" s="53" t="e">
+        <f>#REF!+J33</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="77" customFormat="1">
+      <c r="A35" s="81"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+    </row>
+    <row r="36" spans="1:13" s="13" customFormat="1">
+      <c r="A36" s="49"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="1:13" s="31" customFormat="1" ht="18.75">
+      <c r="A37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" s="21" customFormat="1">
+      <c r="A38" s="49"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="1:13" s="13" customFormat="1">
+      <c r="A39" s="49"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:13" s="31" customFormat="1" ht="18.75">
+      <c r="A40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" ht="12"/>
+    <row r="42" spans="1:13" ht="12"/>
+    <row r="44" spans="1:13" ht="12"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -8251,38 +8567,38 @@
         <v>800</v>
       </c>
       <c r="D7" s="11">
-        <v>27.5</v>
+        <v>22.5</v>
       </c>
       <c r="E7" s="20">
         <f>C7*D7</f>
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="F7" s="20">
         <f>E7*0.002</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7" s="20">
         <f>E7*0.00006</f>
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="H7" s="20">
         <f>E7*0.00001</f>
-        <v>0.22000000000000003</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="I7" s="20">
         <f>(F7+G7+H7)*0.07</f>
-        <v>3.1878000000000002</v>
+        <v>2.6082000000000001</v>
       </c>
       <c r="J7" s="20">
         <f>E7+F7+I7+G7+H7</f>
-        <v>22048.727800000001</v>
+        <v>18039.868200000001</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="21.75">
       <c r="A8" s="55"/>
       <c r="B8" s="75">
         <f>(D7-D6)/D6</f>
-        <v>-0.3125</v>
+        <v>-0.4375</v>
       </c>
       <c r="C8" s="10">
         <f>SUM(C6:C7)</f>
@@ -8290,31 +8606,31 @@
       </c>
       <c r="D8" s="63">
         <f>E8/C8</f>
-        <v>38.75</v>
+        <v>38.25</v>
       </c>
       <c r="E8" s="10">
         <f>SUM(E6:E7)</f>
-        <v>310000</v>
+        <v>306000</v>
       </c>
       <c r="F8" s="10">
         <f>SUM(F6:F7)</f>
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(G6:G7)</f>
-        <v>18.600000000000001</v>
+        <v>18.36</v>
       </c>
       <c r="H8" s="10">
         <f>SUM(H6:H7)</f>
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="I8" s="10">
         <f>SUM(I6:I7)</f>
-        <v>44.919000000000011</v>
+        <v>44.339400000000012</v>
       </c>
       <c r="J8" s="10">
         <f>SUM(J6:J7)</f>
-        <v>310686.61899999995</v>
+        <v>306677.75939999998</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="21.75">
@@ -9832,10 +10148,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61165D-6E4D-45AE-A027-1F0635508A9D}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -9981,156 +10297,156 @@
     </row>
     <row r="5" spans="1:13" ht="12.75">
       <c r="A5" s="49">
-        <v>45170</v>
+        <v>45195</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="16">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="D5" s="41">
-        <v>23.5</v>
+        <v>22.8</v>
       </c>
       <c r="E5" s="18">
         <f>C5*D5</f>
-        <v>28200</v>
+        <v>45600</v>
       </c>
       <c r="F5" s="18">
         <f>E5*0.002</f>
-        <v>56.4</v>
+        <v>91.2</v>
       </c>
       <c r="G5" s="18">
         <f>E5*0.00006</f>
-        <v>1.6919999999999999</v>
+        <v>2.7360000000000002</v>
       </c>
       <c r="H5" s="18">
         <f>E5*0.00001</f>
-        <v>0.28200000000000003</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="I5" s="18">
         <f>(F5+G5+H5)*0.07</f>
-        <v>4.0861799999999997</v>
+        <v>6.6074400000000013</v>
       </c>
       <c r="J5" s="18">
         <f>E5+F5+I5+G5+H5</f>
-        <v>28262.460179999998</v>
+        <v>45700.999439999992</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.75">
       <c r="A6" s="49"/>
       <c r="B6" s="30">
         <f>(D5-D4)/D4</f>
-        <v>-0.36912751677852351</v>
+        <v>-0.38791946308724828</v>
       </c>
       <c r="C6" s="16">
         <f>SUM(C4:C5)</f>
-        <v>6000</v>
+        <v>6800</v>
       </c>
       <c r="D6" s="40">
         <f>E6/C6</f>
-        <v>34.5</v>
+        <v>33</v>
       </c>
       <c r="E6" s="16">
-        <f>SUM(E4:E5)</f>
-        <v>207000</v>
+        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
+        <v>224400</v>
       </c>
       <c r="F6" s="16">
-        <f t="shared" ref="F6:J6" si="1">SUM(F4:F5)</f>
-        <v>414</v>
+        <f t="shared" si="1"/>
+        <v>448.8</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" si="1"/>
-        <v>12.42</v>
+        <v>13.464</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" si="1"/>
-        <v>2.0700000000000003</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="1"/>
-        <v>29.994300000000003</v>
+        <v>32.515560000000008</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="1"/>
-        <v>207458.48429999998</v>
+        <v>224897.02355999997</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75">
       <c r="A7" s="55">
-        <v>45170</v>
+        <v>45182</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="10">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="D7" s="46">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="E7" s="20">
         <f>C7*D7</f>
-        <v>27000</v>
+        <v>65600</v>
       </c>
       <c r="F7" s="20">
         <f>E7*0.002</f>
-        <v>54</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="G7" s="20">
         <f>E7*0.00006</f>
-        <v>1.62</v>
+        <v>3.9359999999999999</v>
       </c>
       <c r="H7" s="20">
         <f>E7*0.00001</f>
-        <v>0.27</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="I7" s="20">
         <f>(F7+G7+H7)*0.07</f>
-        <v>3.9123000000000006</v>
+        <v>9.5054400000000019</v>
       </c>
       <c r="J7" s="20">
         <f>E7+F7+I7+G7+H7</f>
-        <v>27059.802299999999</v>
+        <v>65745.297439999995</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75">
       <c r="A8" s="55"/>
       <c r="B8" s="12">
         <f>(D7-D6)/D6</f>
-        <v>-0.34782608695652173</v>
+        <v>-0.37878787878787878</v>
       </c>
       <c r="C8" s="10">
         <f>SUM(C6:C7)</f>
-        <v>7200</v>
+        <v>10000</v>
       </c>
       <c r="D8" s="63">
         <f>E8/C8</f>
-        <v>32.5</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10">
-        <f>SUM(E6:E7)</f>
-        <v>234000</v>
+        <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
+        <v>290000</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:J8" si="2">SUM(F6:F7)</f>
-        <v>468</v>
+        <f t="shared" si="2"/>
+        <v>580</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>14.04</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>2.3400000000000003</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>33.906600000000005</v>
+        <v>42.021000000000008</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>234518.28659999999</v>
+        <v>290642.321</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75"/>
@@ -10477,74 +10793,278 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75">
-      <c r="A23" s="55">
-        <v>45169</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="49">
+        <v>45175</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="16">
         <f>C22</f>
         <v>1200</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="26">
         <v>24.7</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="17">
         <f>C23*D23</f>
         <v>29640</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="27">
         <f>E23*0.002</f>
         <v>59.28</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="26">
         <f>E23*0.000068</f>
         <v>2.01552</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="26">
         <f>E23*0.00001</f>
         <v>0.2964</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="26">
         <f>(F23+G23+H23)*0.07</f>
         <v>4.3114344000000004</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="26">
         <f>E23-F23-G23-H23-I23</f>
         <v>29574.096645600002</v>
       </c>
       <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13" ht="12.75">
-      <c r="A24" s="9">
+      <c r="A24" s="28">
         <f>DAYS360(A22,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="B24" s="12">
+        <v>5</v>
+      </c>
+      <c r="B24" s="30">
         <f>(D23-D22)/D22</f>
         <v>5.1063829787234012E-2</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="20">
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18">
         <f>E23-E22</f>
         <v>1440</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18">
         <f>J23-J22</f>
         <v>1311.6364656000042</v>
       </c>
       <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" ht="12.75"/>
-    <row r="26" spans="1:13" ht="12.75"/>
-    <row r="27" spans="1:13" ht="12.75"/>
+    <row r="26" spans="1:13" ht="12.75">
+      <c r="A26" s="49">
+        <v>45170</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="41">
+        <v>22.6</v>
+      </c>
+      <c r="E26" s="18">
+        <f>C26*D26</f>
+        <v>45200</v>
+      </c>
+      <c r="F26" s="18">
+        <f>E26*0.002</f>
+        <v>90.4</v>
+      </c>
+      <c r="G26" s="18">
+        <f>E26*0.00006</f>
+        <v>2.7120000000000002</v>
+      </c>
+      <c r="H26" s="18">
+        <f>E26*0.00001</f>
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="I26" s="18">
+        <f>(F26+G26+H26)*0.07</f>
+        <v>6.5494800000000009</v>
+      </c>
+      <c r="J26" s="18">
+        <f>E26+F26+I26+G26+H26</f>
+        <v>45300.11348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75">
+      <c r="A27" s="49">
+        <v>45194</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="16">
+        <f>C26</f>
+        <v>2000</v>
+      </c>
+      <c r="D27" s="26">
+        <v>24.1</v>
+      </c>
+      <c r="E27" s="17">
+        <f>C27*D27</f>
+        <v>48200</v>
+      </c>
+      <c r="F27" s="27">
+        <f>E27*0.002</f>
+        <v>96.4</v>
+      </c>
+      <c r="G27" s="26">
+        <f>E27*0.000068</f>
+        <v>3.2776000000000001</v>
+      </c>
+      <c r="H27" s="26">
+        <f>E27*0.00001</f>
+        <v>0.48200000000000004</v>
+      </c>
+      <c r="I27" s="26">
+        <f>(F27+G27+H27)*0.07</f>
+        <v>7.0111720000000011</v>
+      </c>
+      <c r="J27" s="26">
+        <f>E27-F27-G27-H27-I27</f>
+        <v>48092.829227999995</v>
+      </c>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="1:13" ht="12.75">
+      <c r="A28" s="28">
+        <f>DAYS360(A26,A27)</f>
+        <v>24</v>
+      </c>
+      <c r="B28" s="30">
+        <f>(D27-D26)/D26</f>
+        <v>6.6371681415929196E-2</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18">
+        <f>E27-E26</f>
+        <v>3000</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18">
+        <f>J27-J26</f>
+        <v>2792.7157479999951</v>
+      </c>
+      <c r="M28" s="21"/>
+    </row>
     <row r="29" spans="1:13" ht="12.75"/>
+    <row r="30" spans="1:13" ht="12.75">
+      <c r="A30" s="49">
+        <v>45195</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="41">
+        <v>22.8</v>
+      </c>
+      <c r="E30" s="18">
+        <f>C30*D30</f>
+        <v>45600</v>
+      </c>
+      <c r="F30" s="18">
+        <f>E30*0.002</f>
+        <v>91.2</v>
+      </c>
+      <c r="G30" s="18">
+        <f>E30*0.00006</f>
+        <v>2.7360000000000002</v>
+      </c>
+      <c r="H30" s="18">
+        <f>E30*0.00001</f>
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="I30" s="18">
+        <f>(F30+G30+H30)*0.07</f>
+        <v>6.6074400000000013</v>
+      </c>
+      <c r="J30" s="18">
+        <f>E30+F30+I30+G30+H30</f>
+        <v>45700.999439999992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="12.75">
+      <c r="A31" s="55">
+        <v>45194</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <f>C30</f>
+        <v>2000</v>
+      </c>
+      <c r="D31" s="34">
+        <v>24.1</v>
+      </c>
+      <c r="E31" s="11">
+        <f>C31*D31</f>
+        <v>48200</v>
+      </c>
+      <c r="F31" s="35">
+        <f>E31*0.002</f>
+        <v>96.4</v>
+      </c>
+      <c r="G31" s="34">
+        <f>E31*0.000068</f>
+        <v>3.2776000000000001</v>
+      </c>
+      <c r="H31" s="34">
+        <f>E31*0.00001</f>
+        <v>0.48200000000000004</v>
+      </c>
+      <c r="I31" s="34">
+        <f>(F31+G31+H31)*0.07</f>
+        <v>7.0111720000000011</v>
+      </c>
+      <c r="J31" s="34">
+        <f>E31-F31-G31-H31-I31</f>
+        <v>48092.829227999995</v>
+      </c>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="1:13" ht="12.75">
+      <c r="A32" s="9">
+        <f>DAYS360(A30,A31)</f>
+        <v>-1</v>
+      </c>
+      <c r="B32" s="12">
+        <f>(D31-D30)/D30</f>
+        <v>5.7017543859649154E-2</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="20">
+        <f>E31-E30</f>
+        <v>2600</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20">
+        <f>J31-J30</f>
+        <v>2391.8297880000027</v>
+      </c>
+      <c r="M32" s="21"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -10557,8 +11077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9A6BF-841A-4E49-8659-89A8DE11562A}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -11054,37 +11574,37 @@
         <v>800</v>
       </c>
       <c r="D15" s="46">
-        <v>43</v>
+        <v>36.75</v>
       </c>
       <c r="E15" s="61">
         <f>C15*D15</f>
-        <v>34400</v>
+        <v>29400</v>
       </c>
       <c r="F15" s="20">
         <f>E15*0.002</f>
-        <v>68.8</v>
+        <v>58.800000000000004</v>
       </c>
       <c r="G15" s="20">
         <f>E15*0.00006</f>
-        <v>2.0640000000000001</v>
+        <v>1.764</v>
       </c>
       <c r="H15" s="20">
         <f>E15*0.00001</f>
-        <v>0.34400000000000003</v>
+        <v>0.29400000000000004</v>
       </c>
       <c r="I15" s="20">
         <f>(F15+G15+H15)*0.07</f>
-        <v>4.9845600000000001</v>
+        <v>4.2600600000000011</v>
       </c>
       <c r="J15" s="61">
         <f>E15+F15+I15+G15+H15</f>
-        <v>34476.192559999996</v>
+        <v>29465.118060000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="12.75">
       <c r="B16" s="12">
         <f>(D15-D14)/D14</f>
-        <v>-0.22522522522522523</v>
+        <v>-0.33783783783783783</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C13:C15)</f>
@@ -11092,31 +11612,31 @@
       </c>
       <c r="D16" s="11">
         <f>E16/C16</f>
-        <v>53.5</v>
+        <v>52.5</v>
       </c>
       <c r="E16" s="10">
         <f>SUM(E14:E15)</f>
-        <v>267500</v>
+        <v>262500</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" ref="F16:J16" si="2">SUM(F14:F15)</f>
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="2"/>
-        <v>16.05</v>
+        <v>15.75</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="2"/>
-        <v>2.6750000000000003</v>
+        <v>2.6250000000000004</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="2"/>
-        <v>38.760750000000009</v>
+        <v>38.03625000000001</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="2"/>
-        <v>268092.48574999999</v>
+        <v>263081.41125</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="13" customFormat="1" ht="12.75">
@@ -12083,31 +12603,31 @@
         <v>600</v>
       </c>
       <c r="D23" s="61">
-        <v>34.5</v>
+        <v>31.75</v>
       </c>
       <c r="E23" s="20">
         <f>C23*D23</f>
-        <v>20700</v>
+        <v>19050</v>
       </c>
       <c r="F23" s="20">
         <f>E23*0.002</f>
-        <v>41.4</v>
+        <v>38.1</v>
       </c>
       <c r="G23" s="20">
         <f>E23*0.00006</f>
-        <v>1.242</v>
+        <v>1.143</v>
       </c>
       <c r="H23" s="20">
         <f>E23*0.00001</f>
-        <v>0.20700000000000002</v>
+        <v>0.1905</v>
       </c>
       <c r="I23" s="20">
         <f>(F23+G23+H23)*0.07</f>
-        <v>2.9994300000000003</v>
+        <v>2.7603450000000005</v>
       </c>
       <c r="J23" s="20">
         <f>E23+F23+I23+G23+H23</f>
-        <v>20745.848429999998</v>
+        <v>19092.193844999998</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="12"/>
@@ -12116,7 +12636,7 @@
       <c r="A24" s="88"/>
       <c r="B24" s="25">
         <f>(D23-D22)/D22</f>
-        <v>-0.46718146718146719</v>
+        <v>-0.50965250965250963</v>
       </c>
       <c r="C24" s="22">
         <f>SUM(C22:C23)</f>
@@ -12124,31 +12644,31 @@
       </c>
       <c r="D24" s="67">
         <f>E24/C24</f>
-        <v>62</v>
+        <v>61.75</v>
       </c>
       <c r="E24" s="22">
         <f t="shared" ref="E24:J24" si="11">SUM(E22:E23)</f>
-        <v>409200</v>
+        <v>407550</v>
       </c>
       <c r="F24" s="22">
         <f t="shared" si="11"/>
-        <v>818.4</v>
+        <v>815.1</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" si="11"/>
-        <v>26.901599999999998</v>
+        <v>26.802599999999998</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="11"/>
-        <v>4.0920000000000005</v>
+        <v>4.0754999999999999</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="11"/>
-        <v>59.457552000000007</v>
+        <v>59.218467000000004</v>
       </c>
       <c r="J24" s="22">
         <f t="shared" si="11"/>
-        <v>410108.85115200002</v>
+        <v>408455.19656700001</v>
       </c>
       <c r="L24" s="25"/>
     </row>
@@ -16055,8 +16575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -16573,7 +17093,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -16639,64 +17159,79 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="A3" s="55">
-        <v>45086</v>
+        <v>44676</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10">
-        <f>C2</f>
         <v>3600</v>
       </c>
-      <c r="D3" s="34">
-        <v>12.1</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D3" s="46">
+        <v>8.4</v>
+      </c>
+      <c r="E3" s="20">
         <f>C3*D3</f>
-        <v>43560</v>
-      </c>
-      <c r="F3" s="35">
+        <v>30240</v>
+      </c>
+      <c r="F3" s="20">
         <f>E3*0.002</f>
-        <v>87.12</v>
-      </c>
-      <c r="G3" s="34">
-        <f>E3*0.000068</f>
-        <v>2.9620799999999998</v>
-      </c>
-      <c r="H3" s="34">
+        <v>60.480000000000004</v>
+      </c>
+      <c r="G3" s="20">
+        <f>E3*0.00006</f>
+        <v>1.8144</v>
+      </c>
+      <c r="H3" s="20">
         <f>E3*0.00001</f>
-        <v>0.43560000000000004</v>
-      </c>
-      <c r="I3" s="34">
+        <v>0.3024</v>
+      </c>
+      <c r="I3" s="20">
         <f>(F3+G3+H3)*0.07</f>
-        <v>6.3362376000000005</v>
-      </c>
-      <c r="J3" s="34">
-        <f>E3-F3-G3-H3-I3</f>
-        <v>43463.146082400002</v>
+        <v>4.3817760000000003</v>
+      </c>
+      <c r="J3" s="20">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>30306.978575999998</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="55" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="55"/>
       <c r="B4" s="12">
         <f>(D3-D2)/D2</f>
-        <v>6.1403508771929759E-2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="20">
-        <f>E3-E2</f>
-        <v>2520</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20">
-        <f>J3-J2</f>
-        <v>2332.2465864000042</v>
+        <v>-0.26315789473684209</v>
+      </c>
+      <c r="C4" s="10">
+        <f>SUM(C2:C3)</f>
+        <v>7200</v>
+      </c>
+      <c r="D4" s="11">
+        <f>E4/C4</f>
+        <v>9.9</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>71280</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>142.56</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>4.2767999999999997</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.7128000000000001</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
+        <v>10.328472000000001</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="0"/>
+        <v>71437.878071999992</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="13" customFormat="1">
@@ -16739,6 +17274,7 @@
     </row>
     <row r="9" spans="1:13" s="13" customFormat="1">
       <c r="A9" s="55"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="10"/>
       <c r="D9" s="34"/>
       <c r="E9" s="11"/>
@@ -19322,7 +19858,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -19554,38 +20090,38 @@
         <v>3000</v>
       </c>
       <c r="D7" s="46">
-        <v>12.2</v>
+        <v>11</v>
       </c>
       <c r="E7" s="20">
         <f>C7*D7</f>
-        <v>36600</v>
+        <v>33000</v>
       </c>
       <c r="F7" s="20">
         <f>E7*0.002</f>
-        <v>73.2</v>
+        <v>66</v>
       </c>
       <c r="G7" s="20">
         <f>E7*0.00006</f>
-        <v>2.1960000000000002</v>
+        <v>1.98</v>
       </c>
       <c r="H7" s="20">
         <f>E7*0.00001</f>
-        <v>0.36600000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="I7" s="20">
         <f>(F7+G7+H7)*0.07</f>
-        <v>5.3033400000000004</v>
+        <v>4.7817000000000007</v>
       </c>
       <c r="J7" s="20">
         <f>E7+F7+I7+G7+H7</f>
-        <v>36681.065340000001</v>
+        <v>33073.091700000004</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1">
       <c r="A8" s="55"/>
       <c r="B8" s="12">
         <f>(D7-D6)/D6</f>
-        <v>-0.50806451612903225</v>
+        <v>-0.55645161290322587</v>
       </c>
       <c r="C8" s="10">
         <f>SUM(C6:C7)</f>
@@ -19593,31 +20129,31 @@
       </c>
       <c r="D8" s="63">
         <f>E8/C8</f>
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>185400</v>
+        <v>181800</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="2"/>
-        <v>370.8</v>
+        <v>363.6</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>11.124000000000001</v>
+        <v>10.908000000000001</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>1.8540000000000001</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>26.864460000000001</v>
+        <v>26.342820000000003</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>185810.64246</v>
+        <v>182202.66882000002</v>
       </c>
     </row>
   </sheetData>
@@ -20873,7 +21409,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>
@@ -21012,29 +21548,82 @@
       </c>
       <c r="K4" s="25"/>
     </row>
-    <row r="5" spans="1:14" s="21" customFormat="1" ht="14.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:14" s="21" customFormat="1" ht="14.25">
+    <row r="5" spans="1:14" s="21" customFormat="1" ht="12.75">
+      <c r="A5" s="8">
+        <v>45132</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="46">
+        <v>6.6</v>
+      </c>
+      <c r="E5" s="20">
+        <f>C5*D5</f>
+        <v>16500</v>
+      </c>
+      <c r="F5" s="20">
+        <f>E5*0.002</f>
+        <v>33</v>
+      </c>
+      <c r="G5" s="20">
+        <f>E5*0.000068</f>
+        <v>1.1219999999999999</v>
+      </c>
+      <c r="H5" s="20">
+        <f>E5*0.00001</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I5" s="20">
+        <f>(F5+G5+H5)*0.07</f>
+        <v>2.4000900000000001</v>
+      </c>
+      <c r="J5" s="20">
+        <f>E5+F5+I5+G5+H5</f>
+        <v>16536.687089999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="21" customFormat="1" ht="12.75">
       <c r="A6" s="44"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="3">
+        <f>(D5-D4)/D4</f>
+        <v>-0.12000000000000005</v>
+      </c>
+      <c r="C6" s="22">
+        <f>SUM(C4:C5)</f>
+        <v>22500</v>
+      </c>
+      <c r="D6" s="33">
+        <f>E6/C6</f>
+        <v>7.4</v>
+      </c>
+      <c r="E6" s="93">
+        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
+        <v>166500</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>10.718</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="1"/>
+        <v>1.6650000000000003</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="1"/>
+        <v>24.176810000000003</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="1"/>
+        <v>166869.55980999998</v>
+      </c>
       <c r="K6" s="25"/>
     </row>
     <row r="8" spans="1:14" s="62" customFormat="1" ht="21.75">
@@ -21187,8 +21776,8 @@
   </sheetPr>
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -22142,42 +22731,42 @@
       <c r="N26" s="58"/>
       <c r="O26" s="58"/>
     </row>
-    <row r="27" spans="1:15" s="19" customFormat="1" ht="16.5">
-      <c r="A27" s="55">
-        <v>44462</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10">
+    <row r="27" spans="1:15" s="19" customFormat="1" ht="15">
+      <c r="A27" s="49">
+        <v>45195</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16">
         <v>2500</v>
       </c>
-      <c r="D27" s="46">
-        <v>14.5</v>
-      </c>
-      <c r="E27" s="20">
+      <c r="D27" s="41">
+        <v>16</v>
+      </c>
+      <c r="E27" s="18">
         <f>C27*D27</f>
-        <v>36250</v>
-      </c>
-      <c r="F27" s="20">
+        <v>40000</v>
+      </c>
+      <c r="F27" s="18">
         <f>E27*0.002</f>
-        <v>72.5</v>
-      </c>
-      <c r="G27" s="20">
+        <v>80</v>
+      </c>
+      <c r="G27" s="18">
         <f>E27*0.00006</f>
-        <v>2.1750000000000003</v>
-      </c>
-      <c r="H27" s="20">
+        <v>2.4</v>
+      </c>
+      <c r="H27" s="18">
         <f>E27*0.00001</f>
-        <v>0.36250000000000004</v>
-      </c>
-      <c r="I27" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="I27" s="18">
         <f>(F27+G27+H27)*0.07</f>
-        <v>5.2526250000000001</v>
-      </c>
-      <c r="J27" s="20">
+        <v>5.7960000000000012</v>
+      </c>
+      <c r="J27" s="18">
         <f>E27+F27+I27+G27+H27</f>
-        <v>36330.290125000007</v>
+        <v>40088.596000000005</v>
       </c>
       <c r="K27" s="56"/>
       <c r="L27" s="57"/>
@@ -22186,42 +22775,42 @@
       <c r="O27" s="57"/>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="3">
+      <c r="A28" s="54"/>
+      <c r="B28" s="73">
         <f>(D27-D26)/D26</f>
-        <v>-0.63749999999999996</v>
-      </c>
-      <c r="C28" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="C28" s="51">
         <f>SUM(C26:C27)</f>
         <v>7500</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="52">
         <f>E28/C28</f>
-        <v>31.5</v>
-      </c>
-      <c r="E28" s="2">
+        <v>32</v>
+      </c>
+      <c r="E28" s="51">
         <f t="shared" ref="E28:J28" si="4">SUM(E26:E27)</f>
-        <v>236250</v>
-      </c>
-      <c r="F28" s="2">
+        <v>240000</v>
+      </c>
+      <c r="F28" s="51">
         <f t="shared" si="4"/>
-        <v>472.5</v>
-      </c>
-      <c r="G28" s="2">
+        <v>480</v>
+      </c>
+      <c r="G28" s="51">
         <f t="shared" si="4"/>
-        <v>14.175000000000001</v>
-      </c>
-      <c r="H28" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="H28" s="51">
         <f t="shared" si="4"/>
-        <v>2.3624999999999998</v>
-      </c>
-      <c r="I28" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I28" s="51">
         <f t="shared" si="4"/>
-        <v>34.232625000000006</v>
-      </c>
-      <c r="J28" s="2">
+        <v>34.776000000000003</v>
+      </c>
+      <c r="J28" s="51">
         <f t="shared" si="4"/>
-        <v>236773.27012500001</v>
+        <v>240531.576</v>
       </c>
       <c r="K28" s="56"/>
       <c r="L28" s="57"/>
@@ -22240,31 +22829,31 @@
         <v>2500</v>
       </c>
       <c r="D29" s="46">
-        <v>12.3</v>
+        <v>14</v>
       </c>
       <c r="E29" s="20">
         <f>C29*D29</f>
-        <v>30750</v>
+        <v>35000</v>
       </c>
       <c r="F29" s="20">
         <f>E29*0.002</f>
-        <v>61.5</v>
+        <v>70</v>
       </c>
       <c r="G29" s="20">
         <f>E29*0.00006</f>
-        <v>1.845</v>
+        <v>2.1</v>
       </c>
       <c r="H29" s="20">
         <f>E29*0.00001</f>
-        <v>0.30750000000000005</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="I29" s="20">
         <f>(F29+G29+H29)*0.07</f>
-        <v>4.4556750000000003</v>
+        <v>5.0714999999999995</v>
       </c>
       <c r="J29" s="20">
         <f>E29+F29+I29+G29+H29</f>
-        <v>30818.108175000001</v>
+        <v>35077.521499999995</v>
       </c>
       <c r="K29" s="56"/>
       <c r="L29" s="57"/>
@@ -22276,7 +22865,7 @@
       <c r="A30" s="50"/>
       <c r="B30" s="3">
         <f>(D29-D28)/D28</f>
-        <v>-0.60952380952380947</v>
+        <v>-0.5625</v>
       </c>
       <c r="C30" s="2">
         <f>SUM(C28:C29)</f>
@@ -22284,31 +22873,31 @@
       </c>
       <c r="D30" s="47">
         <f>E30/C30</f>
-        <v>26.7</v>
+        <v>27.5</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ref="E30:J30" si="5">SUM(E28:E29)</f>
-        <v>267000</v>
+        <v>275000</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="5"/>
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="5"/>
-        <v>16.02</v>
+        <v>16.5</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="5"/>
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="5"/>
-        <v>38.688300000000005</v>
+        <v>39.847500000000004</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="5"/>
-        <v>267591.37829999998</v>
+        <v>275609.09749999997</v>
       </c>
       <c r="K30" s="56"/>
       <c r="L30" s="57"/>
@@ -22566,43 +23155,48 @@
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1">
-      <c r="A40" s="55">
-        <v>44627</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="10">
+    <row r="40" spans="1:15" s="19" customFormat="1" ht="15">
+      <c r="A40" s="49">
+        <v>45195</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="16">
         <v>2500</v>
       </c>
-      <c r="D40" s="46">
-        <v>25.75</v>
-      </c>
-      <c r="E40" s="20">
+      <c r="D40" s="41">
+        <v>16</v>
+      </c>
+      <c r="E40" s="18">
         <f>C40*D40</f>
-        <v>64375</v>
-      </c>
-      <c r="F40" s="20">
+        <v>40000</v>
+      </c>
+      <c r="F40" s="18">
         <f>E40*0.002</f>
-        <v>128.75</v>
-      </c>
-      <c r="G40" s="20">
+        <v>80</v>
+      </c>
+      <c r="G40" s="18">
         <f>E40*0.00006</f>
-        <v>3.8625000000000003</v>
-      </c>
-      <c r="H40" s="20">
+        <v>2.4</v>
+      </c>
+      <c r="H40" s="18">
         <f>E40*0.00001</f>
-        <v>0.64375000000000004</v>
-      </c>
-      <c r="I40" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="I40" s="18">
         <f>(F40+G40+H40)*0.07</f>
-        <v>9.3279375000000027</v>
-      </c>
-      <c r="J40" s="20">
+        <v>5.7960000000000012</v>
+      </c>
+      <c r="J40" s="18">
         <f>E40+F40+I40+G40+H40</f>
-        <v>64517.584187500004</v>
-      </c>
+        <v>40088.596000000005</v>
+      </c>
+      <c r="K40" s="56"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1">
       <c r="A41" s="55">
@@ -22616,31 +23210,31 @@
         <v>2500</v>
       </c>
       <c r="D41" s="34">
-        <v>20.100000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="E41" s="11">
         <f>C41*D41</f>
-        <v>50250</v>
+        <v>42000</v>
       </c>
       <c r="F41" s="35">
         <f>E41*0.002</f>
-        <v>100.5</v>
+        <v>84</v>
       </c>
       <c r="G41" s="34">
         <f>E41*0.000068</f>
-        <v>3.4169999999999998</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="H41" s="34">
         <f>E41*0.00001</f>
-        <v>0.50250000000000006</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="I41" s="34">
         <f>(F41+G41+H41)*0.07</f>
-        <v>7.3093650000000006</v>
+        <v>6.1093200000000003</v>
       </c>
       <c r="J41" s="34">
         <f>E41-F41-G41-H41-I41</f>
-        <v>50138.271134999995</v>
+        <v>41906.614679999999</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1">
@@ -22652,7 +23246,7 @@
       <c r="D42" s="11"/>
       <c r="E42" s="20">
         <f>E41-E40</f>
-        <v>-14125</v>
+        <v>2000</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
@@ -22660,7 +23254,7 @@
       <c r="I42" s="20"/>
       <c r="J42" s="20">
         <f>J41-J40</f>
-        <v>-14379.313052500009</v>
+        <v>1818.0186799999938</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1">
@@ -23760,7 +24354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC4F4F3-83CC-4355-B28D-286BFFC2FE1C}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -24221,14 +24815,248 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E0B64A-B432-4F71-9E82-2EF3D53BA2E8}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
+    <col min="7" max="7" width="6.75" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18" style="21" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="21"/>
+    <col min="13" max="13" width="8.875" style="25"/>
+    <col min="14" max="16384" width="8.875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="13" customFormat="1">
+      <c r="A2" s="39">
+        <v>45175</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="17">
+        <v>26</v>
+      </c>
+      <c r="E2" s="18">
+        <f>C2*D2</f>
+        <v>26000</v>
+      </c>
+      <c r="F2" s="18">
+        <f>E2*0.002</f>
+        <v>52</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2*0.00006</f>
+        <v>1.56</v>
+      </c>
+      <c r="H2" s="18">
+        <f>E2*0.00001</f>
+        <v>0.26</v>
+      </c>
+      <c r="I2" s="18">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>3.7674000000000003</v>
+      </c>
+      <c r="J2" s="18">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>26057.5874</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:14" s="13" customFormat="1">
+      <c r="A3" s="66">
+        <v>44473</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="11">
+        <v>20.8</v>
+      </c>
+      <c r="E3" s="20">
+        <f>C3*D3</f>
+        <v>20800</v>
+      </c>
+      <c r="F3" s="20">
+        <f>E3*0.002</f>
+        <v>41.6</v>
+      </c>
+      <c r="G3" s="20">
+        <f>E3*0.00006</f>
+        <v>1.248</v>
+      </c>
+      <c r="H3" s="20">
+        <f>E3*0.00001</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="I3" s="20">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>3.0139200000000002</v>
+      </c>
+      <c r="J3" s="20">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>20846.069919999998</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" s="62" customFormat="1" ht="21.75">
+      <c r="A4" s="55"/>
+      <c r="B4" s="75">
+        <f>(D3-D2)/D2</f>
+        <v>-0.19999999999999998</v>
+      </c>
+      <c r="C4" s="10">
+        <f>SUM(C2:C3)</f>
+        <v>2000</v>
+      </c>
+      <c r="D4" s="63">
+        <f>E4/C4</f>
+        <v>23.4</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>46800</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>93.6</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>2.8079999999999998</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
+        <v>6.7813200000000009</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="0"/>
+        <v>46903.657319999998</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+    </row>
+    <row r="5" spans="1:14" s="62" customFormat="1" ht="21.75">
+      <c r="A5" s="49"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+    </row>
+    <row r="6" spans="1:14" s="13" customFormat="1">
+      <c r="A6" s="66"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1">
+      <c r="A7" s="55"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1">
+      <c r="A8" s="55"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" s="62" customFormat="1" ht="21.75">
+      <c r="A9" s="55"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D35EBD-FACE-4A0A-BE47-8E8EEE95DB23}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -24248,7 +25076,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="19" customFormat="1" ht="16.5">
@@ -24687,152 +25515,99 @@
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D13" s="46">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="20">
         <f>C13*D13</f>
-        <v>20100</v>
+        <v>24000</v>
       </c>
       <c r="F13" s="20">
         <f>E13*0.002</f>
-        <v>40.200000000000003</v>
+        <v>48</v>
       </c>
       <c r="G13" s="20">
         <f>E13*0.000068</f>
-        <v>1.3668</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="H13" s="20">
         <f>E13*0.00001</f>
-        <v>0.20100000000000001</v>
+        <v>0.24000000000000002</v>
       </c>
       <c r="I13" s="20">
         <f>(F13+G13+H13)*0.07</f>
-        <v>2.9237460000000004</v>
+        <v>3.4910400000000004</v>
       </c>
       <c r="J13" s="20">
         <f>E13+F13+I13+G13+H13</f>
-        <v>20144.691546000002</v>
+        <v>24053.363040000004</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="21" customFormat="1">
       <c r="A14" s="44"/>
       <c r="B14" s="3">
         <f>(D13-D12)/D12</f>
-        <v>-0.22988505747126428</v>
+        <v>-0.31034482758620685</v>
       </c>
       <c r="C14" s="22">
         <f>C12+C13</f>
-        <v>53000</v>
+        <v>54000</v>
       </c>
       <c r="D14" s="33">
         <f>E14/C14</f>
-        <v>8.5867924528301884</v>
+        <v>8.5</v>
       </c>
       <c r="E14" s="22">
         <f>E12+E13</f>
-        <v>455100</v>
+        <v>459000</v>
       </c>
       <c r="F14" s="22">
         <f>F12+F13</f>
-        <v>910.2</v>
+        <v>918</v>
       </c>
       <c r="G14" s="22">
         <f>G12+G13</f>
-        <v>30.218800000000002</v>
+        <v>30.484000000000002</v>
       </c>
       <c r="H14" s="22">
         <f>H12+H13</f>
-        <v>4.5510000000000002</v>
+        <v>4.5900000000000007</v>
       </c>
       <c r="I14" s="22">
         <f>I12+I13</f>
-        <v>66.147886</v>
+        <v>66.715180000000004</v>
       </c>
       <c r="J14" s="22">
         <f>J12+J13</f>
-        <v>456111.11768600001</v>
+        <v>460019.78918000002</v>
       </c>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11" s="21" customFormat="1">
-      <c r="A15" s="8">
-        <v>44956</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10">
-        <v>3000</v>
-      </c>
-      <c r="D15" s="46">
-        <v>6.7</v>
-      </c>
-      <c r="E15" s="20">
-        <f>C15*D15</f>
-        <v>20100</v>
-      </c>
-      <c r="F15" s="20">
-        <f>E15*0.002</f>
-        <v>40.200000000000003</v>
-      </c>
-      <c r="G15" s="20">
-        <f>E15*0.000068</f>
-        <v>1.3668</v>
-      </c>
-      <c r="H15" s="20">
-        <f>E15*0.00001</f>
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="I15" s="20">
-        <f>(F15+G15+H15)*0.07</f>
-        <v>2.9237460000000004</v>
-      </c>
-      <c r="J15" s="20">
-        <f>E15+F15+I15+G15+H15</f>
-        <v>20144.691546000002</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:11" s="21" customFormat="1">
       <c r="A16" s="44"/>
-      <c r="B16" s="3">
-        <f>(D15-D14)/D14</f>
-        <v>-0.21973192704900019</v>
-      </c>
-      <c r="C16" s="22">
-        <f>C14+C15</f>
-        <v>56000</v>
-      </c>
-      <c r="D16" s="33">
-        <f>E16/C16</f>
-        <v>8.4857142857142858</v>
-      </c>
-      <c r="E16" s="22">
-        <f>E14+E15</f>
-        <v>475200</v>
-      </c>
-      <c r="F16" s="22">
-        <f>F14+F15</f>
-        <v>950.40000000000009</v>
-      </c>
-      <c r="G16" s="22">
-        <f>G14+G15</f>
-        <v>31.585600000000003</v>
-      </c>
-      <c r="H16" s="22">
-        <f>H14+H15</f>
-        <v>4.7519999999999998</v>
-      </c>
-      <c r="I16" s="22">
-        <f>I14+I15</f>
-        <v>69.071631999999994</v>
-      </c>
-      <c r="J16" s="22">
-        <f>J14+J15</f>
-        <v>476255.80923200003</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:14" ht="12"/>
@@ -24977,7 +25752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38AEBDA-97A4-44E7-92FF-AB904E0EA610}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -24985,7 +25760,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -25008,7 +25783,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1">
@@ -25140,34 +25915,34 @@
         <v>1</v>
       </c>
       <c r="C5" s="10">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D5" s="46">
-        <v>10.199999999999999</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E5" s="20">
         <f>C5*D5</f>
-        <v>102000</v>
+        <v>44000</v>
       </c>
       <c r="F5" s="20">
         <f>E5*0.002</f>
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="G5" s="20">
         <f>E5*0.000068</f>
-        <v>6.9359999999999999</v>
+        <v>2.992</v>
       </c>
       <c r="H5" s="20">
         <f>E5*0.00001</f>
-        <v>1.02</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="I5" s="20">
         <f>(F5+G5+H5)*0.07</f>
-        <v>14.836920000000003</v>
+        <v>6.400240000000001</v>
       </c>
       <c r="J5" s="20">
         <f>E5+F5+I5+G5+H5</f>
-        <v>102226.79292000001</v>
+        <v>44097.832240000003</v>
       </c>
       <c r="M5" s="21"/>
     </row>
@@ -25175,11 +25950,11 @@
       <c r="A6" s="44"/>
       <c r="B6" s="75">
         <f>(D5-D4)/D4</f>
-        <v>-0.17073170731707327</v>
+        <v>-0.28455284552845528</v>
       </c>
       <c r="C6" s="22">
         <f>SUM(C4:C5)</f>
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="D6" s="33">
         <f>E6/C6</f>
@@ -25187,89 +25962,54 @@
       </c>
       <c r="E6" s="93">
         <f>SUM(E4:E5)</f>
-        <v>348000</v>
+        <v>290000</v>
       </c>
       <c r="F6" s="93">
         <f t="shared" ref="F6:J6" si="1">SUM(F4:F5)</f>
-        <v>696</v>
+        <v>580</v>
       </c>
       <c r="G6" s="93">
         <f t="shared" si="1"/>
-        <v>22.664000000000001</v>
+        <v>18.72</v>
       </c>
       <c r="H6" s="93">
         <f t="shared" si="1"/>
-        <v>3.48</v>
+        <v>2.9</v>
       </c>
       <c r="I6" s="93">
         <f t="shared" si="1"/>
-        <v>50.550080000000008</v>
+        <v>42.113400000000006</v>
       </c>
       <c r="J6" s="93">
         <f t="shared" si="1"/>
-        <v>348772.69408000004</v>
+        <v>290643.73340000003</v>
       </c>
       <c r="K6" s="25"/>
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1">
-      <c r="A7" s="55">
-        <v>44628</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10">
-        <f>C6</f>
-        <v>30000</v>
-      </c>
-      <c r="D7" s="34">
-        <v>11.6</v>
-      </c>
-      <c r="E7" s="11">
-        <f>C7*D7</f>
-        <v>348000</v>
-      </c>
-      <c r="F7" s="35">
-        <f>E7*0.002</f>
-        <v>696</v>
-      </c>
-      <c r="G7" s="34">
-        <f>E7*0.000068</f>
-        <v>23.664000000000001</v>
-      </c>
-      <c r="H7" s="34">
-        <f>E7*0.00001</f>
-        <v>3.4800000000000004</v>
-      </c>
-      <c r="I7" s="34">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>50.620080000000009</v>
-      </c>
-      <c r="J7" s="34">
-        <f>E7-F7-G7-H7-I7</f>
-        <v>347226.23592000001</v>
-      </c>
+      <c r="A7" s="55"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1">
-      <c r="A8" s="55" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="55"/>
       <c r="B8" s="13"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="20">
-        <f>E7-E6</f>
-        <v>0</v>
-      </c>
+      <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
-      <c r="J8" s="20">
-        <f>J7-J6</f>
-        <v>-1546.4581600000383</v>
-      </c>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="55"/>
@@ -25434,10 +26174,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4839E04C-5799-4EDF-A8E5-4A6D5C617CB4}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -25585,6 +26325,107 @@
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
     </row>
+    <row r="6" spans="1:14" s="1" customFormat="1">
+      <c r="A6" s="49">
+        <v>45085</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="41">
+        <v>37</v>
+      </c>
+      <c r="E6" s="18">
+        <f>C6*D6</f>
+        <v>44400</v>
+      </c>
+      <c r="F6" s="18">
+        <f>E6*0.002</f>
+        <v>88.8</v>
+      </c>
+      <c r="G6" s="18">
+        <f>E6*0.00006</f>
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="H6" s="18">
+        <f>E6*0.00001</f>
+        <v>0.44400000000000006</v>
+      </c>
+      <c r="I6" s="18">
+        <f>(F6+G6+H6)*0.07</f>
+        <v>6.4335600000000008</v>
+      </c>
+      <c r="J6" s="18">
+        <f>E6+F6+I6+G6+H6</f>
+        <v>44498.341560000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="13" customFormat="1">
+      <c r="A7" s="8">
+        <v>45085</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10">
+        <f>C6</f>
+        <v>1200</v>
+      </c>
+      <c r="D7" s="34">
+        <v>38.75</v>
+      </c>
+      <c r="E7" s="11">
+        <f>C7*D7</f>
+        <v>46500</v>
+      </c>
+      <c r="F7" s="35">
+        <f>E7*0.002</f>
+        <v>93</v>
+      </c>
+      <c r="G7" s="34">
+        <f>E7*0.000068</f>
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="H7" s="34">
+        <f>E7*0.00001</f>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="I7" s="34">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>6.7638900000000017</v>
+      </c>
+      <c r="J7" s="34">
+        <f>E7-F7-G7-H7-I7</f>
+        <v>46396.609110000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="31" customFormat="1" ht="21.75">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="75">
+        <f>(D7-D6)/D6</f>
+        <v>4.72972972972973E-2</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="20">
+        <f>E7-E6</f>
+        <v>2100</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
+        <f>J7-J6</f>
+        <v>1898.2675500000041</v>
+      </c>
+      <c r="K8" s="12"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -25598,7 +26439,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>
@@ -25660,67 +26501,88 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="13" customFormat="1" ht="12.75">
-      <c r="A3" s="8">
-        <v>45160</v>
+      <c r="A3" s="66">
+        <v>44473</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10">
-        <f>C2</f>
-        <v>10000</v>
-      </c>
-      <c r="D3" s="34">
-        <v>11.3</v>
-      </c>
-      <c r="E3" s="11">
+        <v>6000</v>
+      </c>
+      <c r="D3" s="11">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E3" s="20">
         <f>C3*D3</f>
-        <v>113000</v>
-      </c>
-      <c r="F3" s="35">
+        <v>61199.999999999993</v>
+      </c>
+      <c r="F3" s="20">
         <f>E3*0.002</f>
-        <v>226</v>
-      </c>
-      <c r="G3" s="34">
-        <f>E3*0.000068</f>
-        <v>7.6840000000000002</v>
-      </c>
-      <c r="H3" s="34">
+        <v>122.39999999999999</v>
+      </c>
+      <c r="G3" s="20">
+        <f>E3*0.00006</f>
+        <v>3.6719999999999997</v>
+      </c>
+      <c r="H3" s="20">
         <f>E3*0.00001</f>
-        <v>1.1300000000000001</v>
-      </c>
-      <c r="I3" s="34">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="I3" s="20">
         <f>(F3+G3+H3)*0.07</f>
-        <v>16.436980000000002</v>
-      </c>
-      <c r="J3" s="34">
-        <f>E3-F3-G3-H3-I3</f>
-        <v>112748.74902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="31" customFormat="1" ht="21.75">
-      <c r="A4" s="8" t="s">
-        <v>4</v>
-      </c>
+        <v>8.8678799999999995</v>
+      </c>
+      <c r="J3" s="20">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>61335.551879999992</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" s="62" customFormat="1" ht="21.75">
+      <c r="A4" s="55"/>
       <c r="B4" s="75">
         <f>(D3-D2)/D2</f>
-        <v>2.7272727272727337E-2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="20">
-        <f>E3-E2</f>
-        <v>3000</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20">
-        <f>J3-J2</f>
-        <v>2505.1100199999928</v>
-      </c>
-      <c r="K4" s="12"/>
+        <v>-7.2727272727272793E-2</v>
+      </c>
+      <c r="C4" s="10">
+        <f>SUM(C2:C3)</f>
+        <v>16000</v>
+      </c>
+      <c r="D4" s="63">
+        <f>E4/C4</f>
+        <v>10.7</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>171200</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>342.4</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>10.272</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7120000000000002</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
+        <v>24.80688</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="0"/>
+        <v>171579.19088000001</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
     </row>
     <row r="5" spans="1:14" s="62" customFormat="1" ht="21.75">
       <c r="A5" s="8">
@@ -25902,7 +26764,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -25968,40 +26830,40 @@
     </row>
     <row r="3" spans="1:14" s="13" customFormat="1">
       <c r="A3" s="66">
-        <v>44473</v>
+        <v>45195</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="D3" s="11">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E3" s="20">
         <f>C3*D3</f>
-        <v>117000</v>
+        <v>27000</v>
       </c>
       <c r="F3" s="20">
         <f>E3*0.002</f>
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="G3" s="20">
         <f>E3*0.00006</f>
-        <v>7.0200000000000005</v>
+        <v>1.62</v>
       </c>
       <c r="H3" s="20">
         <f>E3*0.00001</f>
-        <v>1.1700000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="I3" s="20">
         <f>(F3+G3+H3)*0.07</f>
-        <v>16.953300000000002</v>
+        <v>3.9123000000000006</v>
       </c>
       <c r="J3" s="20">
         <f>E3+F3+I3+G3+H3</f>
-        <v>117259.1433</v>
+        <v>27059.802299999999</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="11"/>
@@ -26011,39 +26873,39 @@
       <c r="A4" s="55"/>
       <c r="B4" s="75">
         <f>(D3-D2)/D2</f>
-        <v>-0.16129032258064516</v>
+        <v>-0.41935483870967744</v>
       </c>
       <c r="C4" s="10">
         <f>SUM(C2:C3)</f>
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="D4" s="63">
         <f>E4/C4</f>
-        <v>28.5</v>
+        <v>27.75</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>256500</v>
+        <v>166500</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="0"/>
-        <v>513</v>
+        <v>333</v>
       </c>
       <c r="G4" s="10">
         <f t="shared" si="0"/>
-        <v>15.39</v>
+        <v>9.990000000000002</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="0"/>
-        <v>2.5650000000000004</v>
+        <v>1.665</v>
       </c>
       <c r="I4" s="10">
         <f t="shared" si="0"/>
-        <v>37.166850000000004</v>
+        <v>24.125850000000003</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>257068.12184999997</v>
+        <v>166868.78084999998</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="13"/>
@@ -26281,31 +27143,31 @@
         <v>10000</v>
       </c>
       <c r="D3" s="11">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="E3" s="20">
         <f>C3*D3</f>
-        <v>28400</v>
+        <v>26000</v>
       </c>
       <c r="F3" s="20">
         <f>E3*0.002</f>
-        <v>56.800000000000004</v>
+        <v>52</v>
       </c>
       <c r="G3" s="20">
         <f>E3*0.00006</f>
-        <v>1.704</v>
+        <v>1.56</v>
       </c>
       <c r="H3" s="20">
         <f>E3*0.00001</f>
-        <v>0.28400000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="I3" s="20">
         <f>(F3+G3+H3)*0.07</f>
-        <v>4.1151600000000004</v>
+        <v>3.7674000000000003</v>
       </c>
       <c r="J3" s="20">
         <f>E3+F3+I3+G3+H3</f>
-        <v>28462.903160000002</v>
+        <v>26057.5874</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="11"/>
@@ -26315,7 +27177,7 @@
       <c r="A4" s="55"/>
       <c r="B4" s="75">
         <f>(D3-D2)/D2</f>
-        <v>-0.25263157894736843</v>
+        <v>-0.31578947368421045</v>
       </c>
       <c r="C4" s="10">
         <f>SUM(C2:C3)</f>
@@ -26323,31 +27185,31 @@
       </c>
       <c r="D4" s="63">
         <f>E4/C4</f>
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>142400</v>
+        <v>140000</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="0"/>
-        <v>284.8</v>
+        <v>280</v>
       </c>
       <c r="G4" s="10">
         <f t="shared" si="0"/>
-        <v>8.5440000000000005</v>
+        <v>8.4</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="0"/>
-        <v>1.4240000000000002</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="I4" s="10">
         <f t="shared" si="0"/>
-        <v>20.633759999999999</v>
+        <v>20.286000000000001</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>142715.40175999998</v>
+        <v>140310.08599999998</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="13"/>
@@ -26607,7 +27469,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -26682,38 +27544,38 @@
         <v>4000</v>
       </c>
       <c r="D3" s="46">
-        <v>3.66</v>
+        <v>3.4</v>
       </c>
       <c r="E3" s="20">
         <f>C3*D3</f>
-        <v>14640</v>
+        <v>13600</v>
       </c>
       <c r="F3" s="20">
         <f>E3*0.002</f>
-        <v>29.28</v>
+        <v>27.2</v>
       </c>
       <c r="G3" s="20">
         <f>E3*0.00006</f>
-        <v>0.87840000000000007</v>
+        <v>0.81600000000000006</v>
       </c>
       <c r="H3" s="20">
         <f>E3*0.00001</f>
-        <v>0.1464</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="I3" s="20">
         <f>(F3+G3+H3)*0.07</f>
-        <v>2.1213360000000003</v>
+        <v>1.9706399999999999</v>
       </c>
       <c r="J3" s="20">
         <f>E3+F3+I3+G3+H3</f>
-        <v>14672.426136</v>
+        <v>13630.122640000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="19" customFormat="1" ht="15">
       <c r="A4" s="55"/>
       <c r="B4" s="12">
         <f>(D3-D2)/D2</f>
-        <v>-0.26209677419354838</v>
+        <v>-0.31451612903225806</v>
       </c>
       <c r="C4" s="10">
         <f>C2+C3</f>
@@ -26721,31 +27583,31 @@
       </c>
       <c r="D4" s="46">
         <f>E4/C4</f>
-        <v>4.5599999999999996</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" ref="E4:J4" si="0">E2+E3</f>
-        <v>59280</v>
+        <v>58240</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="0"/>
-        <v>118.56</v>
+        <v>116.48</v>
       </c>
       <c r="G4" s="10">
         <f t="shared" si="0"/>
-        <v>3.5568</v>
+        <v>3.4943999999999997</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="0"/>
-        <v>0.59279999999999999</v>
+        <v>0.58240000000000003</v>
       </c>
       <c r="I4" s="10">
         <f t="shared" si="0"/>
-        <v>8.5896720000000002</v>
+        <v>8.4389760000000003</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>59411.299271999997</v>
+        <v>58368.995775999996</v>
       </c>
       <c r="K4" s="57"/>
       <c r="L4" s="57"/>
